--- a/Original/CN/Dialog/Drama/kettle.xlsx
+++ b/Original/CN/Dialog/Drama/kettle.xlsx
@@ -1048,8 +1048,8 @@
 也许能够在某一天解开这个谜团的，会是像你这样的冒险者吧。</t>
   </si>
   <si>
-    <t xml:space="preserve">复制品贩卖？　啊啊，我觉得能帮到你们的冒险活动才开始的。
-古老的炼金术流传着复制物质特性的技术。虽然不能说是所有的道具，但是你实际做过的手工道具和种子都可以复制哦。</t>
+    <t xml:space="preserve">复制品贩卖？　嗯，我这么做是觉得能对你们的冒险活动有帮助。
+古老的炼金术中流传着一种可以复制物质特性的技术。虽然不能说所有的道具都可以进行复制，不过那些你已经制造过的手工道具和种子都可以复制哦。</t>
   </si>
   <si>
     <t xml:space="preserve">如果有想复制的物品，请交给我保管。虽然需要一些时间，但是可以定期的制作复制品。

--- a/Original/CN/Dialog/Drama/kettle.xlsx
+++ b/Original/CN/Dialog/Drama/kettle.xlsx
@@ -709,7 +709,7 @@
         <family val="3"/>
         <charset val="136"/>
       </rPr>
-      <t xml:space="preserve">In sooth, the world hath no need for Issizle, nor for </t>
+      <t xml:space="preserve">In sooth, the world hath no need for Issizzle, nor for </t>
     </r>
     <r>
       <rPr>
@@ -1416,7 +1416,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="14">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="0">
       <alignment/>
       <protection locked="1"/>
@@ -1466,10 +1466,6 @@
       <protection locked="1"/>
     </xf>
     <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment wrapText="1"/>
-      <protection locked="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment wrapText="1"/>
       <protection locked="1"/>
     </xf>
@@ -1678,9 +1674,9 @@
   <dimension ref="A1:M150"/>
   <sheetViews>
     <sheetView tabSelected="1" showOutlineSymbols="1" defaultGridColor="1" topLeftCell="D1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A104" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="2" topLeftCell="A112" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="L146" sqref="L146"/>
-      <selection pane="bottomLeft" activeCell="K115" sqref="K115"/>
+      <selection pane="bottomLeft" activeCell="K117" sqref="K117"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8"/>
@@ -3008,7 +3004,7 @@
       <c r="I114" s="1">
         <v>60</v>
       </c>
-      <c r="J114" s="13" t="s">
+      <c r="J114" s="5" t="s">
         <v>147</v>
       </c>
       <c r="K114" s="7" t="s">
@@ -3025,10 +3021,10 @@
       <c r="I115" s="1">
         <v>89</v>
       </c>
-      <c r="J115" s="13" t="s">
+      <c r="J115" s="5" t="s">
         <v>149</v>
       </c>
-      <c r="K115" s="14" t="s">
+      <c r="K115" s="13" t="s">
         <v>150</v>
       </c>
       <c r="L115" t="s">
@@ -3062,7 +3058,7 @@
       <c r="J117" s="12" t="s">
         <v>153</v>
       </c>
-      <c r="K117" s="14" t="s">
+      <c r="K117" s="13" t="s">
         <v>154</v>
       </c>
       <c r="L117" t="s">

--- a/Original/CN/Dialog/Drama/kettle.xlsx
+++ b/Original/CN/Dialog/Drama/kettle.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="453" uniqueCount="272">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1400" uniqueCount="733">
   <si>
     <t xml:space="preserve">step</t>
   </si>
@@ -1018,6 +1018,1774 @@
 #pc, you’ve been listening, haven’t you? It looks like things are going to get pretty busy from now on.</t>
   </si>
   <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t xml:space="preserve">quest_</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t xml:space="preserve">into_darkness1</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">bg_labo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">- 古城 -</t>
+  </si>
+  <si>
+    <t xml:space="preserve">- Old Castle -</t>
+  </si>
+  <si>
+    <t xml:space="preserve">…ソリン、君なのか？　最後に会ってから、どれほどの年月が過ぎただろう。</t>
+  </si>
+  <si>
+    <t xml:space="preserve">...Sorin, is that you? How many years have passed since we last met.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">私をまだ、覚えているかい？</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Do you still remember me?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">issizzle</t>
+  </si>
+  <si>
+    <t xml:space="preserve">（聞き取れない古代語）</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(ancient words, unintelligible)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">驚いた。それでは、まだ君は…</t>
+  </si>
+  <si>
+    <t xml:space="preserve">I'm surprised. Then you still...</t>
+  </si>
+  <si>
+    <t xml:space="preserve">待っていた？　…私を？</t>
+  </si>
+  <si>
+    <t xml:space="preserve">You waited? ...For me?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sorin?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ふん、こんなところか。この姿をとるのは久しぶりだ。</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hmph, close enough. It has been a long time since I took this shape.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">どうです、これで少しは喋りやすくなりましたか、師よ？</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Well then, does this make it easier to speak, Master?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">安心したよ。君がまだ、昔の君自身を覚えていることに、ソリン。</t>
+  </si>
+  <si>
+    <t xml:space="preserve">I'm relieved, Sorin—relieved that you still remember who you once were.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sorin</t>
+  </si>
+  <si>
+    <t xml:space="preserve">それは皮肉な言葉です。昔の姿を覚えていようが、忘れようが、あなたの期待するような人間らしさなど、もともと僕は持っていなかったのですから。
+…まあいいでしょう。二百年ぶりの再会に、水を差すつもりはありません。昔のように、この仄暗い部屋で語り合おうではありませんか…「魔石」について。</t>
+  </si>
+  <si>
+    <t xml:space="preserve">How ironic. Whether I remember this old face or not, I never possessed the humanity you hoped for in the first place.
+...No matter. I’ve no wish to sour a reunion two centuries in the making. Let us talk here, as we once did in this dusky room... of the very crystal we call the Magic Stone.”</t>
+  </si>
+  <si>
+    <t xml:space="preserve">どうやら、私が君に会いに来ることも、その理由も、君にはお見通しだったみたいだね。</t>
+  </si>
+  <si>
+    <t xml:space="preserve">It seems you foresaw that I would come—and why.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">…鋼鉄竜「コルゴン」。かつてパルミアの王より魔石を授かった偉大なる竜。竜殺し「トラン」によりこの獣が退治されたのは、二十年ほど前のことです。しかし、愚かなるトランは魔石を持たぬまま帰還し、その所在は闇に包まれていました。
+…つい先日、あなた達がコルゴンの忘れ形見を見つけるまではね。</t>
+  </si>
+  <si>
+    <t xml:space="preserve">...The Steel Dragon, “Corgon.” Once, he received a Magic Stone from the King of Palmia. The dragonslayer “Thorran” felled that beast some twenty years ago. Yet the fool returned without the Stone, and its whereabouts sank into darkness. 
+...Until quite recently, when you found Corgon’s last offspring.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">竜の子の噂を耳にしたその日のうちには、僕は彼の居場所を見つけていました。容易いことです。僕はすぐにでも竜の子を殺し、魔石を奪うこともできた。しかし、竜の子の傍らに、あなたの姿を見とめたのです。
+そこで、この城であなたを待つことにしました。あなたなら、必ずやって来ると、わかっていたのでね。</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The very day the rumor reached me, I found the whelp’s refuge. It would have been easy to kill him and take the Stone at once. But I saw you at the child’s side.
+So I chose to wait for you in this castle. I knew you would come.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">さあ、聞かせて下さい、師よ。あなたはあの竜の子を…竜の体にある魔石をどうするつもりですか？
+あなたは僕の計画に同意したはずです。もう何百年も前のことですがね。その間に何があって心変わりしたのですか？　というのも、こうして竜の子を連れずに僕を訪ねたということは、これ以上僕に協力するつもりはないのでしょうから。</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Now, tell me, Master—what do you intend to do with that dragon child... and with the Stone within the dragon’s body?
+You once agreed to my plan—granted, that was centuries ago. What changed your heart in the meantime? For you came to me without the whelp in tow, which means you have no intention of aiding me further.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">コルゴンを渡すことができないというのは、君の言う通りだ。その理由を話す前に、一つ聞かせてくれ、ソリン。君はいまだに魔石の研究を続けているのか？</t>
+  </si>
+  <si>
+    <t xml:space="preserve">You’re right that I cannot hand over Corgon. Before I say why, answer me this, Sorin. Are you still pursuing your research into the Magic Stone?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ふっ、当たり前でしょう。闇の奇形などという忌み名を持つ臭い体に魂を縛り、朽ちた古城の陰鬱な暗闇で生き続ける理由が、他にあるとでも思っているのですか？</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Heh. But of course. What other reason have I to bind my soul to this stinking flesh they call “dark abomination”—and linger in the gloom of a rotting old castle?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">僕は魔石の秘密を解明しなければならない。
+…神々が去り、この世界から神秘が失われつつあります。「古きもの」全てが、緩慢な死を迎えようとしているのです。それはつまり、魔法の死を意味します。
+ええ、僕には魔石が必要ですとも。この世界を今のまま存続させるには、魔石の力によって、神々を再び地上に呼び戻すしかないのだから。</t>
+  </si>
+  <si>
+    <t xml:space="preserve">I must unravel the Stone’s secret.
+ ...The gods have departed, and mystery is draining from the world. All “old beings” approach a slow death. Which is to say, magic itself will die.
+Yes, I have need of the Stone. To preserve the world as it is, there is but one way: to use the Stone’s power and call the gods back to earth.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">wait</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t xml:space="preserve">quest_</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t xml:space="preserve">into_darkness2</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">あなたも知っての通り、世界から今や、「古きもの」達、そして神秘の根源である魔法が、静かに消え去ろうとしています。
+それが百年後か、千年後か、僕にはわかりません。しかし、神々が地上から姿を消したその時より、それは我々に定められた逃れられぬ運命なのです。</t>
+  </si>
+  <si>
+    <t xml:space="preserve">As you know, the “old beings,” and the very source of mystery—magic itself—are fading from the world.
+Whether in a hundred years or a thousand, I cannot say. But from the night the gods withdrew from the earth, an inescapable fate was set upon us.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">その通り…このままでは、神話はやがて年老いた語り部の寝物語となり、精霊は絵本の挿絵でしか見られなくなるだろう。
+だけど、こう考えたことはあるかい？それは、この世界が本来の姿に戻るだけかもしれない、と。</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Just so... Eventually, myth will become the bedtime tale of an old storyteller, and spirits will live only in picture books.
+But have you considered this: perhaps the world is merely returning to its native shape.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">本来の、退屈で、野蛮で、生きる価値すらない世界にね。
+…その兆しは既に見え始めています。かつてシエラ・テールを席巻した古代エウダーナは昔日の勢いを失い、東では科学を象徴とする新王国イエルが台頭しつつあります。魔法はただの学問へと貶められ、古き種族の多くは、人間により滅びか隷属の選択を余儀なくされるでしょう。</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Its native shape—dull, brutish, scarcely worth living in.
+...The signs are plain already. The ancient Eulderna that once swept through Sierre Terre has lost its vigor. In the east, the New Kingdom of Yel rises, hoisting science as its banner. Magic is being demoted to “mere scholarship,” and many elder races will be driven by humans to extinction or chains.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ええ、人の時代が到来しつつあります。そして、この星の歴史を紐解けば明らかでしょう…エイス・テールやレム・イドでそうあったように、人間は慌ただしく滅びの道を辿るのです。その途中で自分たちが奪い壊していくものの価値すら知ることなくね。</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Yes, the age of man is upon us. And the history of this planet makes it clear: as on Eyth Terre and Rem-Ido, humankind hurries along the road to ruin—never knowing the worth of what they seize and destory along the way.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">どんな文明でも、終わりは避けられない。滅ぶものがあれば、新たに芽吹くものもある。それは、私たちの善悪を超えた摂理だとは思わないかい、ソリン？</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Every civilization meets its end. Where some wither, others sprout anew. Don’t you think it’s a law that lies beyond our small measures of good and evil, Sorin?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ふっ、問答は結構です。回りくどい言い方はやめましょう。
+人間の盛衰、善悪…そう、神々の思惑だろうと、僕の知ったことじゃない。僕はただ、この力を失うのが嫌なのです。世界をかしずかせたこの魔術こそが、僕のすべてです。それを奪われるなど、到底容認できません。</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Enough riddling. I will speak plain.
+The rise and fall of men, good and ill—even the designs of the gods—none of it concerns me. I simply refuse to lose this power. This sorcery that once bent the world to my will is everything I am. To be robbed of it is intolerable.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">…師よ、二百年前、僕を殺さなかったのは何故ですか？　あなたも同じ船に乗ったものと、僕は思っていたのですがね。
+まさかこの城に、二百年前あなたが果たさなかったことを、果たしに来たのですか？　もっとも、今では僕の力は遥かに強大になっています。あなたよりも、ずっとね。</t>
+  </si>
+  <si>
+    <t xml:space="preserve">...Master, why did you spare me two hundred years ago? I thought we sailed the same ship.
+Or have you come today to finish what you failed to do then? Mind you, my power has grown—far beyond yours.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">原初の時代に神々が創ったとされる魔石…その力を解明すれば、神々を地上に呼び戻し、世界の「退化」を阻止できます。
+…僕は竜の子を殺し、魔石を手に入れる。あなたが止めようとも、無駄なことです。</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The Magic Stones, said to have been forged by the gods in the ancient age—if we grasp their full power, we can open the gods’ gates and summon them back, halting the world’s “degeneration.”
+...I will kill the dragon child and take the Stone. Try to stop me if you like—it will avail you nothing.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ソリン、君は一つ勘違いをしている。</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sorin... you are mistaken about one thing.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">勘違い…？</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mistaken...?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">君の魔石の研究は、既に完成しているんだ。君はおそらく、魔石の力を「すべて引き出している」。</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Your work on the Stone is already complete. I believe you’ve already “drawn out all it has to give.”</t>
+  </si>
+  <si>
+    <t xml:space="preserve">研究が完成？　戯言を言わないで下さい。魔石の力はこんなものでは…</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Complete? Don’t be absurd. The Stone’s power is far beyond—</t>
+  </si>
+  <si>
+    <t xml:space="preserve">君は既に魔石の力を手にしている。だけど…そう、君も気づいているように、残念だが、その魔石には…いや、他の二つの魔石を集めたところで、君の求める力には遠く及ばないだろう。</t>
+  </si>
+  <si>
+    <t xml:space="preserve">You do hold the Stone’s power. But—as you yourself must suspect—alas, even if you gathered the other two Stones, the strength you seek would still lie far beyond your reach.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ふっ、何を言うかと思えば…師よ、あなたに何がわかるのです？　魔石を持たないあなたに何が？
+確かに、あなたは奇妙なほど魔石に関する知識を持っていました。だが、それも昔のこと。僕が二百年の間に学んだ知識には遠く及びません。
+魔石の秘められた力は、神々の次元の扉を開き、神々を地上に呼び戻す…</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hah. And what would you know, Master—without a Stone?
+True, you once possessed uncanny lore about them. But that was long ago. You are far behind what I have learned in two centuries.
+The Stone’s hidden might will open the gods’ threshold and call them down—</t>
+  </si>
+  <si>
+    <t xml:space="preserve">…それが本物の魔石なら、ね。だけど、君が持っているのは、まがい物の魔石だ。</t>
+  </si>
+  <si>
+    <t xml:space="preserve">...If it were a true Magic Stone, yes. But what you hold is a counterfeit.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">何を馬鹿な…ふふっ、まさかそんな戯言をいうために、わざわざ僕の元にやって来たのではないでしょうね？</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nonsense... Heh—surely you didn’t come all this way just to peddle such drivel?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ソリン、その魔石を作ったのは、私なんだよ。</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sorin, I made this Stone.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">師よ、あなたはいつから、そんなつまらない冗談を…</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Master, since when did you stoop to such dreary jokes...?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">信じられないか…無理もない。
+では、この瞳を見るといい、ソリン。私の眼窩に刻まれた、永遠の呪いを。</t>
+  </si>
+  <si>
+    <t xml:space="preserve">I don’t blame you for doubting.
+Then look into this eye, Sorin—see the curse etched in my socket, the curse without end. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">…！！</t>
+  </si>
+  <si>
+    <t xml:space="preserve">...!!</t>
+  </si>
+  <si>
+    <t xml:space="preserve">kettle_eye</t>
+  </si>
+  <si>
+    <t xml:space="preserve">《アーラの石晶》の言い伝えを、君なら耳にしたことがあるだろう。これが本物の魔石なんだ、ソリン。
+君とコルゴンが持つ魔石は、遠い昔に、この石晶に似せて私が作ったできそこないに過ぎない。</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="128"/>
+      </rPr>
+      <t xml:space="preserve">You must have heard the tale of </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t xml:space="preserve">《</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="128"/>
+      </rPr>
+      <t xml:space="preserve">Aura’s Stone-Crystal</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t xml:space="preserve">》</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="128"/>
+      </rPr>
+      <t xml:space="preserve">. This is the true Magic Stone, Sorin.
+The Stones you and Corgon bear are failures I crafted long ago, imitations made to resemble this crystal.</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">馬鹿な…《アーラの石晶》…永遠の瞳だと…？　そんなもの神話の…</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="128"/>
+      </rPr>
+      <t xml:space="preserve">Ridiculous... </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t xml:space="preserve">《</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="128"/>
+      </rPr>
+      <t xml:space="preserve">Aura’s Stone-Crystal</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t xml:space="preserve">》</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="128"/>
+      </rPr>
+      <t xml:space="preserve">... the Eternal Eye...? That’s a myth—</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">神話の……　本…当…なのか…？　では…</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A myth... is it... real...? Then... </t>
+  </si>
+  <si>
+    <t xml:space="preserve">ふっ…ふふふ…僕としたことが…そうか、そういうことか…</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hah... heh heh... To think I missed it... So—that’s how it is...</t>
+  </si>
+  <si>
+    <t xml:space="preserve">「最初の錬金術師」…。そうだ、あなたこそが、すべての始まりだったんだ。
+この時代に人間が産声を上げる遥か昔から、あなたは生きていた。いや、死ぬことができなかったとでもいうべきでしょう。今わかりましたよ。あなたの瞳の秘密も、あなたが私を殺さなかった理由も。
+ふっ、座ってください、師よ。僕達にはまだ、語るべきことがたくさんあるようです。</t>
+  </si>
+  <si>
+    <t xml:space="preserve">“The First Alchemist.” Of course—you were the beginning of it all.
+Long before mankind in this age ever drew its first breath, you lived. No, perhaps it is truer to say you could not die. Now I understand—both the secret of your eye and the reason you did not kill me.
+Come, sit, Master. It seems we still have much to speak of. </t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t xml:space="preserve">quest_</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t xml:space="preserve">into_darkness3</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">では、あの伝承は真実だったのですね。
+…まだ森の精霊であった頃の名はアーラ。
+人の男に恋し、みずから石の館に囚われた彼女は、やがて大空に焦がれる雛と共に羽ばたき、女神へと昇華した。そう、ルルウィ誕生の神話です。</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Then the tale was true, was it not?
+...In the days when she was yet a spirit of the forest, her name was Aura.
+She fell in love with a mortal man and made herself prisoner in a house of stone. In time, she took wing with a fledgling that yearned for the sky and was exalted as a goddess. Yes, the birth of Lulwy.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">有名な神話ですが、この人間の男がその後たどった運命を記す書物は、ほとんど残っていません。
+一説によれば、アーラ…いや、ルルウィは、過酷な運命を男に与えたといいます。人の心に身を預けてしまった己への戒めとして、二度と自分の姿を見れぬよう男の両目を奪い、不死の呪いをかけたのです。人の男がこれからも自分を愛し、それ故に、永遠に苦しみ続けることを知っていたから。</t>
+  </si>
+  <si>
+    <t xml:space="preserve">It is a famous myth, but few books speak of the mortal man’s fate thereafter.
+One account says that Aura—no, Lulwy—laid a cruel doom upon him. As a chastisement for having entrusted herself to a human heart, she took both his eyes so he could never behold her again, and set upon him the curse of undying. She knew the man would go on loving her—and therefore suffer, forever.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">…女神ルルウィが誕生したのは上古の時代、あるいは「はじまりの時代」と呼ばれる第二紀のこと。あれから一体、どれだけの年月が過ぎたのですか？　数千万年、いや、数億年…？
+ふふ、なんということだ…師よ、あなたは、この世界に散りばめられた無数の秘密に、どれほど関わってきたのだろう？</t>
+  </si>
+  <si>
+    <t xml:space="preserve">...Lulwy’s ascent belongs to elder days—some call it the “Age of Beginnings,” the Second Era. How many years have passed since then? Tens of millions—hundreds of millions?
+Heh, what a thing... Master, to how many of the world’s scattered secrets have you been tied?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">人に羨まれるような経験でないのだけは確かだよ。
+その伝承も、おそらく私自身が記したものに違いない。正確に伝わってきたかどうかは別としてね。</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Only this is certain, they are not experiences anyone should envy.
+That legend, too—I likely wrote it myself, though I doubt it has reached you without error.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">そう、女神になった彼女を、あの森で…「偶然」見かけたんだ。
+彼女がこちらを振り向いた次の瞬間、私の瞳にはこの石晶が刻まれていた。そこには、感情も、言葉も、何もなかった。あれから、彼女の声を求めて永遠の暗闇を彷徨ったが、彼女が私の前に現れることは二度となかった。
+この瞳は、罰なんてたいそうなものじゃない。ただの彼女の気まぐれさ。女神となったルルウィにとって、私はもう、風に舞う塵ほどの、目にも留まらぬ存在に過ぎないんだよ。</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Yes, I “chanced” to see her in that forest, already a goddess.
+In the instant she turned her gaze toward me, this crystal was etched into my socket. There was no feeling in it, no word, nothing at all. Ever since, I have wandered a night without end, seeking her voice—but she never came before me again.
+This eye is no grand punishment: it is merely her whim. To Lulwy, now a goddess, I am no more than a mote on the wind, beneath notice.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">…それでも、この瞳は、私にとってルルウィとの唯一の接点だった。この瞳の秘密を解き明かせば、もう一度彼女の関心を買うことができるかもしれない、そんな淡い望みを胸に、私は昼夜を問わず石の謎を追い、その熱はやがて私を石の模倣へと駆り立てた。</t>
+  </si>
+  <si>
+    <t xml:space="preserve">...Even so, this eye was my only thread to her. I nursed the faint hope that if I unraveled its secret, I might win her notice once more. By day and night I pursued the riddle of the stone, and in time that fervor drove me to imitation.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">私はいつしか偉大なる錬金術師と呼ばれるようになっていた。しかし、人の知恵は神の奇跡に遠く及ばない。私が生み出した無数の魔石は、どれ一つとして、この瞳のごとき力を持つことはなかった。
+…やがて私は模倣を断念し、偽物の魔石も歴史の塵に埋もれていった。</t>
+  </si>
+  <si>
+    <t xml:space="preserve">I rose, before I knew it, to be counted among the great alchemists. But human wit does not reach the miracle of the gods. Not one of the countless Stones I forged bore the power of this eye. 
+...At last I abandoned the mimicry, and the counterfeit Stones sank with the dust of history.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">…しかし、あなたの生み出した三片の魔石は、長い時の試練に耐え、今この時代で再び見つかった。そうですね？</t>
+  </si>
+  <si>
+    <t xml:space="preserve">...And yet, the three shards you created withstood the trial of time, and now stand revealed in this era. Is that not so?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">…ああ、その通りだ。</t>
+  </si>
+  <si>
+    <t xml:space="preserve">...Ah. It is.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">あなたの弟子が魔石を手に入れ、その力の虜となると、あなたは弟子の居城を訪れました。弟子思いの優しいあなたは、僕の魂を救うために、僕を殺しに来たのです。
+しかし…僕の計画を知った時、あなたの中に葛藤が生じました。</t>
+  </si>
+  <si>
+    <t xml:space="preserve">When your disciple gained a Magic Stone and fell captive to its power, you came to his keep. Kind, solicitous Master that you are, you came to kill me—to save my soul.
+But... when you learned of my plan, a struggle took root in you.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">僕の強大な魔力と魔石が結びつけば、あるいは、神々を本当に地上に呼び戻せるかもしれないと、あなたは思ったのです。
+ルルウィと再会し、その瞳にかけられた呪いの意味を知ることができるかもしれないと。</t>
+  </si>
+  <si>
+    <t xml:space="preserve">You thought that if my vast sorcery were wed to the Stone, perhaps the gods truly could be called back to earth.
+Perhaps you could be reunited with Lulwy, and learn the meaning of the curse laid upon your eye.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">…この瞳の意味か。それさえも、もうどうでもいいのかもしれない。
+ソリン、私はただ、もう一度ルルウィに会いたかったんだ。</t>
+  </si>
+  <si>
+    <t xml:space="preserve">...The meaning of this eye. Even that, I think, may no longer matter. 
+Sorin, I only wished to see Lulwy once more. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">ふふ、ふふふ…師よ、どうやら、僕とあなたにも、ようやく共通点が見つかったようですね。
+あなたの胸の奥には、理性も道徳も鎮められない暗い炎が燻っているんです。僕と同じように、あなたにもあるのです、例えこの世界がどのように変わってしまおうとも、手放せないほど強く望むものが。</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Heh... heh heh... Master, it seems at last we have found our likeness.
+There is a dark fire banked in your breast that neither reason nor morality can cool. As with me, there is something you desire so fiercely you cannot let it go—no matter how the world might be changed.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">…そして、あなたの暗い情熱の犠牲になったのが、この僕の体というわけか。
+穢れた化け物に身をやつしてまで、偽物の魔石を追い求めていたとは、とんだ笑い草です。</t>
+  </si>
+  <si>
+    <t xml:space="preserve">...And the victim of that dark ardor was this body of mine, was it?
+To debase yourself into a befouled abomination in pursuit of a counterfeit Stone—what a jest.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">…すまない、ソリン。</t>
+  </si>
+  <si>
+    <t xml:space="preserve">...I am sorry, Sorin.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">いいえ、師よ。
+…皮肉なものです。この不浄の体が、僕のみじめな命を永らえさせる以外に役にたたなかったというわけでもないのだから。
+いや、魔石の研究の道が絶たれた今、むしろこの体で得た知識こそが、僕の最後の希望となるかもしれない。</t>
+  </si>
+  <si>
+    <t xml:space="preserve">No, Master.
+...Irony has its uses. This unclean body did not serve only to prolong my wretched life.
+Now that the path of Stone-lore is cut off, the knowledge won by this flesh may prove my last hope.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">それはどういうことだい、ソリン？</t>
+  </si>
+  <si>
+    <t xml:space="preserve">What do you mean, Sorin?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">死者の世界には、生者の世界では囁かれない秘密が存在するのですよ。
+その前に一つ確認しましょう。魔石が偽物だと判明した今、竜の子の魔石を僕が手に入れる意味はなくなりました。「ほとんど」ね。というのも、もう一つの魔石というのは、僕にとっていまだに興味のそそる代物だからです。
+そして、その気になれば魔石を奪う力を持っている僕は、少なくともまだ、交渉のカードを持っていると考えています。</t>
+  </si>
+  <si>
+    <t xml:space="preserve">There are secrets in the realm of the dead that are never whispered among the living.
+Before that—one point to settle. Now that the Stones are shown to be false, there is no sense in my taking the dragon child’s Stone. “Almost” no sense. For the other Stone still piques my interest.
+And since I have the power to seize the Stone if I choose, I think I still hold a card for negotiation.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">つまり、何か私に頼み事をしたいと、君は言いたいんだね？</t>
+  </si>
+  <si>
+    <t xml:space="preserve">So, you’re saying you want to ask me for a favor, is that it?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">あなたが話のわかる人で助かりますよ。なに、簡単なお使いです。</t>
+  </si>
+  <si>
+    <t xml:space="preserve">I’m glad you’re a man of understanding. It’s a simple errand.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">この古城から少し離れた沼地に、誰も寄り付かない洞窟があります。「死者の洞窟」と呼ばれるその洞窟の奥には、死者に守られ、しかし死者が決して近づくことのできない「淀み」があるのです。
+…この瓶をあなたに渡しましょう。
+あなたには、この瓶に入っている液体の雫を一滴、この「淀み」に垂らしてきてほしいのです。
+…どうです、簡単でしょう？</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A short way from this castle, in the marsh, there is a cave shunned by all. They call it the “Crypt of the Damned.” In its depths lies a “pool of stagnation,” warded by the dead—yet one the dead themselves can never approach.
+...Take this vial.
+I want you to let a single drop of the liquid within fall into that pool. ...There, simple enough?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">もちろん、死者の洞窟の深層に降りるには、それなりの戦力が必要です。あなたと一緒にいた冒険者に相談するといいでしょう。
+ふっ、その怪訝な顔も無理はありませんが…これ以上の秘密を教えるわけにはいきません。
+その滴の効果が出るのは数百年後。少なくとも、あなたの仲間に危害が及ぶことは絶対にないと約束しましょう。竜の子の命と引き換えだと思えば、割のいい取引だとは思いませんか、師よ？</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Of course, to descend to the deep of the Crypt of the Damned you’ll need some strength. Consult the adventurer who was with you.
+Heh, that look of yours is natural—but I can tell you no more of the secret.
+The drop’s effect will not ripen for centuries. I swear no harm will come to your companions. Think of it as the price for the dragon child’s life—doesn’t that strike you as a fair bargain, Master?</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t xml:space="preserve">quest_</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t xml:space="preserve">into_darkness4</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">あ…ケトルだ。</t>
+  </si>
+  <si>
+    <t xml:space="preserve">...Look, Kettle.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">おかえりなさい、ケトル！</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Welcome back, Kettle!</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ただいま、クルイツゥア、コルゴン。</t>
+  </si>
+  <si>
+    <t xml:space="preserve">I’m home, Quruitzia, Corgon.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">浮かない顔…どうしたの？　やっぱり…</t>
+  </si>
+  <si>
+    <t xml:space="preserve">You look troubled... Did it go badly, after all?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">いや、悪い報せではないんだ。ただ…
+そうだね、まずは、皆を呼んで来てくれるかい、クルイツゥア？</t>
+  </si>
+  <si>
+    <t xml:space="preserve">No, it isn’t bad news. It’s just...
+Well, can you gather everyone first, Quruitzia?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">もきゅ…</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mokyu...</t>
+  </si>
+  <si>
+    <t xml:space="preserve">…というわけだ。</t>
+  </si>
+  <si>
+    <t xml:space="preserve">...and that’s how it is.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">なるほど、コルゴンの安全と引き換えに、その「淀み」とやらに一滴の雫を垂らしてこいというのか。</t>
+  </si>
+  <si>
+    <t xml:space="preserve">I see. So, in exchange for Corgon’s safety, we’re to drip a single drop from that vial into this so-called “pool of stagnation.”</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ふむ…もちろん、洞窟の探索には#pcの助けが必要だろうが、雫を垂らしたからといって、何か危険があるわけでもないようだし、悪くない取引ではないだろうか？</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hm... Of course we’d need #pc’s help to explore the cave, but if there’s no danger in letting the drop fall, it doesn’t sound like a poor bargain.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">駄目です。その瓶の液体を「淀み」に混ぜるなんて、絶対にいけません！</t>
+  </si>
+  <si>
+    <t xml:space="preserve">No. We mustn’t. Mixing what’s in that vial with the “pool of stagnation” is absolutely a bad idea.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ファリスさん、しかし…</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lady Farris, but...</t>
+  </si>
+  <si>
+    <t xml:space="preserve">いえ、聞いて下さい、ロイテル様。この取引からは邪悪なものを感じます。
+死者の洞窟については、とある言い伝えが残っているのです。
+その昔、洞窟には「不浄なる者」が住み、血も凍るような恐ろしい儀式を繰り返していました。地上を、そして天界をも脅かしたその異形は、神々により滅ぼされました。しかし、不浄なる者の血肉は洞窟の奥底に溶け落ち、決して乾かぬ黒い淀みを成したのです。
+ロイテル様、「淀み」は定命の存在が触れてはならないものなのです。</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Please, hear me out, Lord Loytel. There is wickedness coiled within this deal.
+There is an old legend about the Crypt of the Damned.
+Long ago, “The Impure” dwelled there and performed rites so dreadful they chilled the blood. That abomination threatened the earth—and even the divine realm—until the gods destroyed it. Yet the creature’s flesh and blood melted into the deep of the cave and formed a black pool that never dries.
+Lord Loytel, the “pool” is not for mortal hands to touch.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">なるほど、恐ろしい話だ…いや、そうか、読めてきたぞ。
+淀みに垂らすこの瓶の一滴は、数百年後に芽吹く邪悪なのだ。神々も看過できないほどの邪悪…神々を再び地上に呼び戻すための囮餌。きっと、そんなところだろう。
+確かに、イスシズルの頼みを聞けば、後の世にとんでもない呪物を残すことになるな。</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A fearsome tale indeed... But wait, I think I see it now.
+The single drop we’re to cast into that pool is a seed of evil that will sprout centuries hence. Evil so great the gods themselves cannot ignore it... bait to lure them back to the earth. That must be it.
+Truly, if we accept Issizzle’s request, we’ll be leaving behind a monstrous curse for a later age.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">…といっても、ケトルの話を聞く限り、イスシズルは強大すぎる魔術師だ。この取引を断れば、我々だけで、奴から竜のおチビちゃんを守れるだろうか？</t>
+  </si>
+  <si>
+    <t xml:space="preserve">...And yet, by Kettle’s account, Issizzle is a sorcerer of terrifying reach. If we refuse this bargain, can we protect the little dragon from him with our strength alone?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">いえ、取引を拒む必要はありません。私に良いアイデアがあるのです、ロイテル様。
+この瓶を代わりに持っていきましょう。</t>
+  </si>
+  <si>
+    <t xml:space="preserve">No, the bargain need not be refused. I have an idea, Lord Loytel.
+We’ll take this vial instead.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">代わりに？　何だ、この瓶は？　確かにイスシズルに渡された瓶とよく似ているが…</t>
+  </si>
+  <si>
+    <t xml:space="preserve">“Instead”? What is this vial? It does look very much like the one Issizzle gave us.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">む…しかし、とても清らかな香りがするぞ。これは聖水の一種か？
+そうか、聖なる水によって、「淀み」を浄化しようということだな。さすがはファリスさん…しかしこんな代物を一体どこで？</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hm... but it has a most pristine scent. Is this some manner of holy water?
+Right, you mean to purify the pool with a sacred drop. As expected of you, Lady Farris... though where in the world did you get such a thing?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">それにしても、心地の良い匂いだ。この香り…とても清々しくて、爽やかで、まるで…そう、まるで洗いたての…</t>
+  </si>
+  <si>
+    <t xml:space="preserve">In any case, it smells wonderful. So clean, so fresh, almost like... well, like newly washed...</t>
+  </si>
+  <si>
+    <t xml:space="preserve">もしかしてこれは…い、いや、中身を聞くなんて野暮だな。妙案だと思うよ、ファリスさん。</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Perhaps I shouldn’t ask what it is. Better not to be boorish. In any event, it’s a clever plan, Lady Farris. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">少なくとも、この瓶の一滴が邪神をこの世に呼び戻すことはないでしょう。</t>
+  </si>
+  <si>
+    <t xml:space="preserve">At the very least, a drop from this vial will not call a dark god back into the world.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">そ…そうだな。</t>
+  </si>
+  <si>
+    <t xml:space="preserve">R-right. Quite so.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">pc</t>
+  </si>
+  <si>
+    <t xml:space="preserve">お、おほん…ということだ、#pcよ。
+この決断は私には荷が重い。お前に任せよう。
+死者の洞窟に赴き、「淀み」を見つけるんだ。そこでイスシズルに渡されたこの瓶を使うか、あるいはファリスさんに渡された「聖水」を使うか…それはお前次第だ、よく考えてくれ。
+…安心しろ、私もついていってやる。お前だけに責任を追わせるのは酷だからな。</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A-hem... So then, #pc.
+This decision is too weighty for me alone; I leave it to you.
+Go to the Crypt of the Damned and find the “pool of stagnation.” There, you may use the vial Issizzle entrusted to us, or the “holy water” Lady Farris provided... the choice is yours. Think carefully.
+...You won’t go alone—I’ll come as well. It would be cruel to place such a burden entirely on your shoulders.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">addKeyItem</t>
+  </si>
+  <si>
+    <t xml:space="preserve">potion_sorin</t>
+  </si>
+  <si>
+    <t xml:space="preserve">potion_farris</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t xml:space="preserve">quest_</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t xml:space="preserve">into_darkness5</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">editPlaylist</t>
+  </si>
+  <si>
+    <t xml:space="preserve">これが「淀み」か。
+黒く濁っていて…覗いているだけで呑み込まれそうだ。</t>
+  </si>
+  <si>
+    <t xml:space="preserve">So this is the "Pool".
+Black and murky... just looking into it feels like it might swallow me whole.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">気味の悪い場所です。イスシズルの用事を済ませて、早々に立ち去りましょう。</t>
+  </si>
+  <si>
+    <t xml:space="preserve">What a dreadful place. Let’s finish Issizzle’s errand and leave at once.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">その意見には全く賛成だよ。
+この「淀み」に一滴の雫を垂らす…簡単な仕事だ。</t>
+  </si>
+  <si>
+    <t xml:space="preserve">I cannot agree more.
+Just dripping a single drop into this "Pool". A simple task.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">water_choice</t>
+  </si>
+  <si>
+    <t xml:space="preserve">では、#pc、どちらの瓶を使う？ イスシズルに渡されたこの得体の知れない瓶か、ファリスさん特製の洗…聖水か。
+（…おい、#pc、聞こえるか？）
+（ファリスさんもついて来てしまったが、安心しろ。お前がどちらを選んでも、ばれないように上手くやってやる。お前の決断を尊重するよ）</t>
+  </si>
+  <si>
+    <t xml:space="preserve">So, #pc, which bottle will you use? This eerie one Issizzle gave us, or Lady Farris’s... holy water?
+(...#pc, you hear me?)
+(Lady Farris ended up coming along, but don’t worry. Whichever one you choose, I’ll make sure she never finds out. I’ll respect your decision.)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">water1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">イスシズルの瓶を使う</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Use Issizzle’s bottle.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">water2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ファリスの瓶を使う</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Use Farris’s bottle.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">…イスシズルの瓶で間違いないか？
+とても穢れた匂いだ。この一滴は、やがて邪悪なるものを育むことだろう。</t>
+  </si>
+  <si>
+    <t xml:space="preserve">...This Issizzle’s bottle, yes?
+It reeks of corruption. This single drop will no doubt nurture something wicked.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">water_choice3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">はい</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Yes.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">いいえ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">No.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">…ファリスさんのこの瓶で間違いないか？
+とても…いい匂いだ。この一滴が何をもたらすのか、検討もつかないよ。</t>
+  </si>
+  <si>
+    <t xml:space="preserve">...This Lady Farris’s bottle, yes?
+It smells... wonderful. I can’t even guess what this one drop will bring.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">water_choice2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">setFlag</t>
+  </si>
+  <si>
+    <t xml:space="preserve">farris_water,1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">よし。では、私がこの瓶の雫を一滴、「淀み」に垂らしてこよう。
+いや、#pc、これぐらいはさせてくれ。お前だけに重荷を背負わすわけにはいかないさ。</t>
+  </si>
+  <si>
+    <t xml:space="preserve">All right. I’ll go drip a single drop from this bottle into the "Pool".
+No, #pc, let me do at least this much. I can’t let you bear all the burdens alone.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">…この一滴で世界の命運が変わるかもしれない、そう思うと息が詰まるようだ。
+それにこの床がまた…妙にヌメヌメしていて…</t>
+  </si>
+  <si>
+    <t xml:space="preserve">...Thinking that a single drop might change the fate of the world... it’s almost suffocating.
+And this floor, it’s really slimy and...</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sound</t>
+  </si>
+  <si>
+    <t xml:space="preserve">slip</t>
+  </si>
+  <si>
+    <t xml:space="preserve">あ゛っ゛！</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Agh!!</t>
+  </si>
+  <si>
+    <t xml:space="preserve">potion_sorin,-1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">potion_farris,-1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">お、落ち着け、私なら大丈夫だ！
+…ふぅ、全身びしょ濡れになってしまって気持ち悪いが、この「淀み」がそんなに深くなくて助かった。
+ハッ…瓶は…2本ともどこにいった？</t>
+  </si>
+  <si>
+    <t xml:space="preserve">C-Calm down, I’m fine!
+...Whew. I’m soaked from head to toe. It feels awful, but at least the "Pool" wasn’t that deep.
+Wait... where did both bottles go?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">…ロイテル様…！！</t>
+  </si>
+  <si>
+    <t xml:space="preserve">...Lord Loytel...!!</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ファリスさん、落ち着いて…</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lady Farris, calm down...</t>
+  </si>
+  <si>
+    <t xml:space="preserve">後ろ、後ろです！</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Behind — behind you!</t>
+  </si>
+  <si>
+    <t xml:space="preserve">invoke</t>
+  </si>
+  <si>
+    <t xml:space="preserve">event_az</t>
+  </si>
+  <si>
+    <t xml:space="preserve">bossText</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">az</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t xml:space="preserve">…ル</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="128"/>
+      </rPr>
+      <t xml:space="preserve">=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t xml:space="preserve">ヴァ・シェ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="128"/>
+      </rPr>
+      <t xml:space="preserve">=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t xml:space="preserve">ヌル・アザ゛ルゥ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="128"/>
+      </rPr>
+      <t xml:space="preserve">=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t xml:space="preserve">ル……ネ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="128"/>
+      </rPr>
+      <t xml:space="preserve">=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t xml:space="preserve">イフ・ダロゥン……サ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="128"/>
+      </rPr>
+      <t xml:space="preserve">=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t xml:space="preserve">ラ・クン</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="128"/>
+      </rPr>
+      <t xml:space="preserve">=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t xml:space="preserve">アグラ… 
+…ル</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="128"/>
+      </rPr>
+      <t xml:space="preserve">=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t xml:space="preserve">ヴァ・シェ……ル゛ェ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="128"/>
+      </rPr>
+      <t xml:space="preserve">=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t xml:space="preserve">ノル・シャ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="128"/>
+      </rPr>
+      <t xml:space="preserve">=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t xml:space="preserve">ラグン……ハ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="128"/>
+      </rPr>
+      <t xml:space="preserve">=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t xml:space="preserve">ザ… ！！</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">...RU=VA SHE=NUR AZZALUU=RU... NE=IF DALOON... SA=RA KUN=AGRA...
+...RU=VA SHE... L’E=NOR SHA=RAGUN... HA=ZA...!!</t>
+  </si>
+  <si>
+    <t xml:space="preserve">な…</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Wh—</t>
+  </si>
+  <si>
+    <t xml:space="preserve">何を言っているか全くわからないが、相当怒っているようだ。</t>
+  </si>
+  <si>
+    <t xml:space="preserve">I have no idea what it’s saying, but it sounds furious.</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t xml:space="preserve">…ル</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="128"/>
+      </rPr>
+      <t xml:space="preserve">=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t xml:space="preserve">ヴァ・ザ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="128"/>
+      </rPr>
+      <t xml:space="preserve">=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t xml:space="preserve">ノゥ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="128"/>
+      </rPr>
+      <t xml:space="preserve">=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t xml:space="preserve">ル゛ェ……アグ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="128"/>
+      </rPr>
+      <t xml:space="preserve">=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t xml:space="preserve">シェ…アグシェネ゛…イ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="128"/>
+      </rPr>
+      <t xml:space="preserve">=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t xml:space="preserve">ドラ……シャ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="128"/>
+      </rPr>
+      <t xml:space="preserve">=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t xml:space="preserve">ラ・フン…… ！！</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">...RU=VA ZA=NOO=LE... AG=SHE... AGSHENE... I=DRA... SHA=LA FUN...!!</t>
+  </si>
+  <si>
+    <t xml:space="preserve">おお…不浄なる者アズラシズル…かつて地上を恐怖に陥れ、神々に封印されし邪神です…！</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t xml:space="preserve">The Unpure, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t xml:space="preserve">Azrasizzle</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t xml:space="preserve">... the ancient evil god once sealed by the gods themselves...!</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">…これが「淀み」の正体、いずれ芽吹く災いの種か。ちょうどいい、そんなものは、今ここで刈り取ってやる。
+ふっ、流石の邪神も、そのフレッシュな香りでは思う存分に力を発揮できまい。
+さあ、#pc、後は任せたぞ！</t>
+  </si>
+  <si>
+    <t xml:space="preserve">...So this is the true nature of the "Pool". A seed of calamity waiting to sprout. It should end here and now.
+Heh... even an evil god probably can’t unleash its full strength with such a fresh scent clinging to it.
+Go on, #pc. I leave the rest to you!</t>
+  </si>
+  <si>
+    <t xml:space="preserve">event_az2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">event_az3</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t xml:space="preserve">quest_</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t xml:space="preserve">into_darkness6</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">alphaIn</t>
+  </si>
+  <si>
+    <t xml:space="preserve">おお、やったな、#pc！</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Well done, #pc!</t>
+  </si>
+  <si>
+    <t xml:space="preserve">お見事です、#player様。</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Splendid work, #player.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">この化け物が出てきた時は、もうダメかと思ったが…まあ、 終わってみればなんとかなるものだ。</t>
+  </si>
+  <si>
+    <t xml:space="preserve">When that monster showed up, I thought we were finished... but in the end, things have a way of working out.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">イスシズルめ…とんでもない奴だ。遠い未来とはいえ、自らの野望のためにこんなものを世に解き放とうと考えていたとは。
+しかし、困ったことになったな。これでは奴との約束が果たせないぞ。</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Issizzle... that wretch. Even if the calamity lies far in the future, I can’t believe he’d unleash something like this for the sake of his ambition.
+But this is troubling. Now we can’t keep our promise to him.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">私たちは何も見なかったし、ここでは何も起きなかった…いいですね、ロイテル様？</t>
+  </si>
+  <si>
+    <t xml:space="preserve">We saw nothing, and nothing happened here... Isn’t that right, Lord Loytel?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">…ああ。奴が簡単に信じるとは思い難いが、そう話すしかないだろう。
+よし、ひとまずは拠点に帰って、イスシズルを待つとしよう。</t>
+  </si>
+  <si>
+    <t xml:space="preserve">...Yes. I doubt he’ll believe it so easily, but that’s all we can say.
+All right. Let’s return to the base and wait for Issizzle.</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t xml:space="preserve">quest_</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t xml:space="preserve">into_darkness7</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">bg_road</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ケトル…ちょっといい？</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kettle... can I talk to you?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">どうしたんだい、クルイツゥア？</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Yes, Quruitzia?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">さっきね、見たことのない黒ローブの男の子が、私とコルゴンをじっと見ていたの。だから、話しかけようとしたら、デミタスがすごい剣幕で割って入って来て、その子と口論を始めて…</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Earlier... I saw a boy in a black robe I’d never seen before, just staring at me and Corgon. So I tried to talk to him, but Demitas barged in all furious and started arguing with him...</t>
+  </si>
+  <si>
+    <t xml:space="preserve">…そうか、そろそろ現れる頃だと思っていたよ。
+その黒ローブの子はソリン、イスシズルの人間の姿だ。デミタスと彼とは、過去にちょっとした因縁があってね。</t>
+  </si>
+  <si>
+    <t xml:space="preserve">I see... I thought he’d be showing up about now.
+The boy in black is Sorin—Issizzle’s human form. Demitas and he have... a bit of history.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">あの子が…イスシズル？</t>
+  </si>
+  <si>
+    <t xml:space="preserve">That boy... is Issizzle?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">恐れることは何もない、クルイツゥア。私たちは死者の洞窟で彼との約束を果たしたんだから。
+そうだね、ロイテル？</t>
+  </si>
+  <si>
+    <t xml:space="preserve">There’s nothing to fear, Quruitzia. We kept our promise to him in the Crypt of the Damned.
+Isn’t that right, Loytel?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">…その、ケトル…</t>
+  </si>
+  <si>
+    <t xml:space="preserve">...Well, Kettle...</t>
+  </si>
+  <si>
+    <t xml:space="preserve">何かな？</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Yes?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">い、いや、確かにもう危険は去ったはずだが…念のために聞かせてくれ。イスシズルを怒らせると、一体どうなるんだ？</t>
+  </si>
+  <si>
+    <t xml:space="preserve">N-nothing... I’m sure the danger has passed, but just in case, what happens if we make Issizzle angry?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">その気になれば、国ひとつ簡単に滅ぼす力を持った魔術師だ。彼は、この時代で私たちが最も怒らせたくない相手の一人だろうね。
+でも、心配には及ばないさ、ロイテル。なぜなら、ふふ、もし君が「彼を怒らせることでもしていた」のなら、君はとっくに地面の下で眠っているだろうからね。</t>
+  </si>
+  <si>
+    <t xml:space="preserve">He is a sorcerer powerful enough to wipe out an entire kingdom. In this age, he is certainly one of the last people we want to provoke.
+But don’t worry, Loytel. Because &lt;b&gt;if you’d done anything to anger him&lt;/b&gt;, you’d already be sleeping under the ground, hehe.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">…は…ははは、そうか…！</t>
+  </si>
+  <si>
+    <t xml:space="preserve">...H-hahaha... I see...!</t>
+  </si>
+  <si>
+    <t xml:space="preserve">（ひそひそ）ファリスさん、「淀み」で起こったことは、絶対に奴には黙っていよう。ケトルにだって、もうだいぶ怪しまれているぞ。</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(whisper) Lady Farris—whatever happened in the "Pool", we must absolutely keep it from him. Even Kettle is already growing suspicious.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">（ひそひそ）はい、ロイテル様…唄にできないのは心残りですが、今回ばかりは止むを得ません。</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(whisper) Yes, Lord Loytel... It’s a shame we can’t turn it into a song, but it can’t be helped this time.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">…さて、デミタスもそろそろ鎮まっている頃だろう。私たちも話を聞きに行こう。</t>
+  </si>
+  <si>
+    <t xml:space="preserve">...All right. Demitas has probably cooled off by now. Let’s go hear what he has to say.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">…では、約束は無事果たされたと考えて良いのですね？
+なに、ただの確認ですよ。「淀み」への干渉は、僕にもすぐ感じ取ることができました。ただ…</t>
+  </si>
+  <si>
+    <t xml:space="preserve">...Then we may assume the promise was fulfilled without incident?
+No, it’s just a confirmation. I sensed the interference with the "Pool" at once. However...</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ただ…？</t>
+  </si>
+  <si>
+    <t xml:space="preserve">However...?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ただ、その時を境に、僕の魔力の一部が失われたのです。厳密に言えば、僕は「イスシズル」の不死の肉体を失ってしまった。
+フッ、もちろん、それはつまり、再び「淀み」が動き出したという喜ばしい確証でもあるのです。
+心配には及びませんよ。「淀み」でかの者の力が増せば、僕の魔力もまた戻って来るでしょう。</t>
+  </si>
+  <si>
+    <t xml:space="preserve">From that moment on, a portion of my magic was lost. To be precise, I lost Issizzle’s immortal body.
+Heh, but that is, in itself, a most welcome proof that the "Pool" has begun to stir again.
+There is no need for concern. As that being’s power grows within the "Pool", my own magic will return as well.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">魔力が失われただって？　それは良かっ…いや、災難だったな！
+では、もうコルゴンやクルイツゥアに身の危険はないということか。</t>
+  </si>
+  <si>
+    <t xml:space="preserve">You lost some of your power? That’s wonderf— no, that’s terrible!
+Then does that mean Corgon and Quruitzia are no longer in danger?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">…師よ、ここにいる愚か者にも理解できるよう、後でよく教えてやるといいでしょう。魔術師にとって言葉がどれほど重いものかを。
+僕は約束を守ると決めています。たとえ今すぐにでも、その男が気に触ったという理由だけで、この場を惨状に変えられる魔力が僕に残っているとしても、です。</t>
+  </si>
+  <si>
+    <t xml:space="preserve">…Master, you would do well to explain this properly later, so that even the fool standing here may understand how heavy words are to a mage. 
+I have decided to keep my promise, even if I still possess the magic to turn this place into a scene of devastation at this very moment, for no reason other than that fool displeasing me.</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family/>
+        <charset val="128"/>
+      </rPr>
+      <t xml:space="preserve">…フッ、まあ構いません。どのみち、この場に居る者の大半とは、もう二度と顔を合わせることもないのです。
+竜の子と魔女という珍しいものが見れた上に、古き友とも実に和やかな交流ができたのですから、わざわざ足を運んだだけの甲斐はあったというものです。
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family/>
+        <charset val="128"/>
+      </rPr>
+      <t xml:space="preserve">では、師よ。</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">...No matter. In any case, I doubt I shall ever meet most of those present here again.
+To have seen such curiosities as a dragon child and a witch, and to share so cordial an exchange with an old friend, I suppose it was worth the trouble of coming.
+Now then, Master.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">…ソリン、その身体であの古城に帰る気かい？
+悪気はないけど、この前訪れた時は、とても「人間」がくつろげる場所だとは思えなかったよ。</t>
+  </si>
+  <si>
+    <t xml:space="preserve">...Sorin, are you really going back to that old castle in your...current body?
+No offense, but last time I visited your castle, it hardly felt like a place a "human" could relax.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ふふ、そんなに怖い顔をしないでくれ。言い直すよ。
+君の魔力が戻るまで、ここで暮らしてみないか、ソリン？</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hehe, don’t make such a frightening face. Let me put it another way.
+Why not live here with us until your magic returns, Sorin? </t>
+  </si>
+  <si>
+    <t xml:space="preserve">（スーッ）</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(Takes a deep breath) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">それは…意外な申し出です、師よ。</t>
+  </si>
+  <si>
+    <t xml:space="preserve">That is... an unexpected offer, Master.</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family/>
+        <charset val="128"/>
+      </rPr>
+      <t xml:space="preserve">…そして、僕にとって好都合とも言えるでしょう。
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family/>
+        <charset val="128"/>
+      </rPr>
+      <t xml:space="preserve">竜の子と魔女の邂逅が意味するもの、 運命の糸に引かれた冒険者、そして何よりも師よ、魔石の秘密を知ってから、あなたという存在そのものが、僕の好奇心を離さないのです。</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">...And one that is quite convenient for me.
+The meaning behind the meeting of the dragon child and the witch, the adventurer drawn by the threads of fate, and above all, Master—ever since I learned the secret of the magic stone, your very existence has refused to let go of my curiosity.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">もちろん、ただで宿を得るつもりはありません。
+僕がここに留まる見返りとして、何をお望みですか？ 失われし上古の魔法書、不老不死の薬、あるいは、休むことなく働き続ける死者の軍団でも作ってみせましょうか？</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Of course, I have no intention of taking lodging for free.
+What would you desire in return? A lost grimoire of the ancient age, an elixir of immortality, or perhaps an army of the dead that never tires of labor?</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family/>
+        <charset val="128"/>
+      </rPr>
+      <t xml:space="preserve">見返りか、そうだね、コルゴンがボロボロにした鍋の修理ぐらいは頼ませてもらうとするよ。
+だけど、まずは君の滞在を歓迎しよう。
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family/>
+        <charset val="128"/>
+      </rPr>
+      <t xml:space="preserve">そしてソリン、まだ私を師と呼ぶのなら、覚えておくといい。君も…私も、この世界にはまだ多くの学ぶべきことが残っているんだ、どれだけ長生きだろうともね。</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">Well, I suppose I’ll at least ask you to repair the pots Corgon battered to pieces.
+But regardless, I welcome your stay here. 
+And Sorin, if you still call me your Master, remember. We still have much to learn from this world, however long our lives may be. </t>
+  </si>
+  <si>
     <t xml:space="preserve"/>
   </si>
   <si>
@@ -1083,8 +2851,7 @@
   </si>
   <si>
     <t xml:space="preserve">我懂你会感到不平，但话说回来，人身上的一些特征有时也确实是一种与生俱来「力量」的表现呢。
-…我并不是为了讲述悲剧或者讽刺村民的愚蠢才告诉你有关她过去的事情。
-</t>
+…我并不是为了讲述悲剧或者讽刺村民的愚蠢才告诉你有关她过去的事情。</t>
   </si>
   <si>
     <t xml:space="preserve">那一天…我在抵达村子后所见到的，是所有曾拥有生命的东西全都死绝的凄惨景象。我不清楚那是不是她的「力量」导致的。但是，罗伊特尔，还有#pc，我希望你们能好好记住。
@@ -1182,7 +2949,7 @@
 这世界本身，已然显露出末日的征兆，他们的存在即为象征。</t>
   </si>
   <si>
-    <t xml:space="preserve">这是什么意思，迪米塔斯？</t>
+    <t xml:space="preserve">这是什么意思，迪米塔斯先生？</t>
   </si>
   <si>
     <t xml:space="preserve">这些家伙…「古老的存在」们只会给这个世界带来灾难和停滞。像他们那样强大的存在会滋生歪曲，其光辉会将周围的一切都卷入并焚烧殆尽。</t>
@@ -1271,6 +3038,501 @@
   <si>
     <t xml:space="preserve">哼，真是的，为了这种理所当然的结论，居然消耗了一整晚的时间。
 #pc，你听到了么？ 接下来要有的忙了。</t>
+  </si>
+  <si>
+    <t xml:space="preserve">…索林，是你吗？自从和你最后一次见面，已经不知过了多少岁月。</t>
+  </si>
+  <si>
+    <t xml:space="preserve">你还记得我吗？</t>
+  </si>
+  <si>
+    <t xml:space="preserve">（无法听懂的古代语言）</t>
+  </si>
+  <si>
+    <t xml:space="preserve">真令我意外。就是说，你依然…</t>
+  </si>
+  <si>
+    <t xml:space="preserve">你在等着…我？</t>
+  </si>
+  <si>
+    <t xml:space="preserve">哼，这样就差不多了吧。我已经好久没以这个样子示人了。</t>
+  </si>
+  <si>
+    <t xml:space="preserve">如何，用现在的样子我们就能更方便地对话了吧，老师？</t>
+  </si>
+  <si>
+    <t xml:space="preserve">知道你还记得自己以前的样子，让我放心多了，索林。</t>
+  </si>
+  <si>
+    <t xml:space="preserve">真是讽刺。无论我是否记得自己从前的样子，我都从未拥有过你所期待的人性。
+…无所谓了。我可不想给时隔二百年的再会泼冷水。就像以前一样在这个昏暗的房间里聊聊…关于「魔石」的事吧。</t>
+  </si>
+  <si>
+    <t xml:space="preserve">看起来，我的到来和我的来意，都早被你看穿了。</t>
+  </si>
+  <si>
+    <t xml:space="preserve">…钢铁龙「歌罗贡」。过去被帕罗米亚王授予魔石的伟大之龙，在二十年前被屠龙者「托兰」消灭。但是愚蠢的托兰并没有带回魔石，后来魔石的下落便不知所踪。
+…直到最近，你们找到了歌罗贡的遗孤。</t>
+  </si>
+  <si>
+    <t xml:space="preserve">听到龙之子传闻的那天，我就找到了它。这对我来说易如反掌。原本我只需杀了龙之子，再夺取魔石即可。然而，我却看到了在龙之子身旁的你。
+于是，我就在这个城里等着你的到来。我知道，如果是你的话一定会来这里。</t>
+  </si>
+  <si>
+    <t xml:space="preserve">好了，说来听听吧，老师。你对那个龙之子…还有龙体内的魔石到底有何打算？
+你早在几百年前就同意了我的计划。难道这期间有什么让你改变了心意？　毕竟你没有带龙之子来见我，也就是说你已经不打算继续协助我了吧。</t>
+  </si>
+  <si>
+    <t xml:space="preserve">正如你所说，我不能交出歌罗贡。在我说出理由前，有一件事我要问你，索林。你还在继续研究魔石吗？</t>
+  </si>
+  <si>
+    <t xml:space="preserve">哼，那是当然的。灵魂被束缚在腐臭的躯体里，还要背上暗之畸形这样忌讳的名号在朽烂阴暗的古城中生活，难道我甘愿这样还能是有什么其他理由？</t>
+  </si>
+  <si>
+    <t xml:space="preserve">我必须揭开魔石的秘密。
+…诸神离去，神秘正从这个世界中逐渐消失。「古老的存在」也都在缓缓地步入衰亡。这一切都意味着魔法的终结。
+没错，我是必须得到魔石。让这个世界继续存在下去，依靠魔石的力量，将诸神再度呼唤回大地。</t>
+  </si>
+  <si>
+    <t xml:space="preserve">如你所知，如今的世界，无论是「古老的存在」们，还是神秘的根源——魔法，都在无声地消失。
+我不清楚这一切消亡的终点是会在百年后还是千年后。但是自从诸神离开之后，这个结果就已经是我们无法逃离的宿命了。</t>
+  </si>
+  <si>
+    <t xml:space="preserve">正是如此…这样下去再过不久神话就会变成睡前讲的陈年故事，元素精灵也将不复存在，变成只能从书中插画才看得到的东西。
+但是，你有没有这样想过，也许这才是世界回到了原本的样子？</t>
+  </si>
+  <si>
+    <t xml:space="preserve">原本那个无聊、野蛮、连生存价值都没有的世界吗？
+…你所说的这种变化如今已经有所预示了。曾席卷整个西埃尔·泰尔的古代艾沃达纳失去了昔日的荣光，倒是在东方出现了一支以科学为势的新王国耶鲁正在日益兴盛。魔法正在被降格为单纯的学问，古老的种族大多都面临被人类灭亡或奴役的命运。</t>
+  </si>
+  <si>
+    <t xml:space="preserve">是的，人的时代正在到来。而且，如果回顾这个星球的整个历史你就会明白…正如艾斯·泰尔或是莱姆·伊德的下场一样，人类迟早会仓促地走向灭亡之路。而他们甚至不会理解自己夺走和破坏之物的价值。</t>
+  </si>
+  <si>
+    <t xml:space="preserve">无论什么文明，终结都不可避免。然而有毁灭，就会有新生。你不觉得这才是超越了我们善恶观的真理吗，索林？</t>
+  </si>
+  <si>
+    <t xml:space="preserve">哼，这话题就到此为止吧，别再拐弯抹角了。
+人类的盛衰，善恶…这些都是该诸神去考虑的事情，与我无关。我只是不想失去我的力量。能够摆布世界的魔法之力就是我的一切。我无论如何都不能容忍它被夺走。</t>
+  </si>
+  <si>
+    <t xml:space="preserve">…老师啊，二百年前，你为什么没有杀我呢？　我还以为我们是坐在同一条船上。
+难道说你来这座城堡，是为了弥补二百年前没有对我下手的遗憾吗？　可惜我的力量早已今非昔比，也远远超过了你。</t>
+  </si>
+  <si>
+    <t xml:space="preserve">魔石是原初时代众神所创之物…只要解析它的力量，就能将诸神重新唤回大地，阻止这个世界的「退化」。
+…我要杀了龙之子得到魔石。就算你想阻止也是徒劳的。</t>
+  </si>
+  <si>
+    <t xml:space="preserve">索林，你误会一件事情。</t>
+  </si>
+  <si>
+    <t xml:space="preserve">误会…？</t>
+  </si>
+  <si>
+    <t xml:space="preserve">你的魔石研究，已经完成了。你恐怕已经把魔石的力量「全部激发出来了」。</t>
+  </si>
+  <si>
+    <t xml:space="preserve">研究已经完成？　开什么玩笑。魔石之力岂会仅有如此程度…</t>
+  </si>
+  <si>
+    <t xml:space="preserve">你已经掌握了魔石的力量。但是…没错，正如你所察觉的那样，很遗憾，那个魔石…不，就算你拿到另外两个魔石，也远远无法达到你所期望的力量。</t>
+  </si>
+  <si>
+    <t xml:space="preserve">哼，还以为你要说什么…老师啊，连魔石都没有的你究竟懂什么？
+确实，你对魔石的研究之深令人匪夷所思，但那都是陈年旧事了。如今的你的知识不可能比得过在这件事上倾注了二百年时间的我。
+魔石蕴藏的力量，可以打开众神领域的大门，把众神唤回大地…</t>
+  </si>
+  <si>
+    <t xml:space="preserve">…如果是真正的魔石，那或许可以。但是，你所拥有的不过是魔石的伪造品。</t>
+  </si>
+  <si>
+    <t xml:space="preserve">真是胡说八道…呵呵，你就是为了说这种蠢话才特意来找我的？</t>
+  </si>
+  <si>
+    <t xml:space="preserve">索林，你的魔石，是我做的。</t>
+  </si>
+  <si>
+    <t xml:space="preserve">老师啊，你是什么时候学会说这种笑话的…</t>
+  </si>
+  <si>
+    <t xml:space="preserve">你不信吗…也难怪。
+那就来看看我的眼睛吧，索林。看看我眼中被刻下的永恒的诅咒。</t>
+  </si>
+  <si>
+    <t xml:space="preserve">你一定听说过《奥拉的石晶》的传说吧，这才是真正的魔石啊，索林。
+你和歌罗贡手中魔石，不过是很久以前，我模仿石晶制作的仿品。</t>
+  </si>
+  <si>
+    <t xml:space="preserve">不可能…《奥拉的石晶》…永恒之瞳…？　那只是神话故事里的…</t>
+  </si>
+  <si>
+    <t xml:space="preserve">神话……　是…是…真的…？　是吗，是这样啊…</t>
+  </si>
+  <si>
+    <t xml:space="preserve">呵呵…呵呵呵…我竟然也会犯下这种错…原来如此，原来是这样啊…</t>
+  </si>
+  <si>
+    <t xml:space="preserve">「最初的炼金术师」…。这样啊，你才是一切的起点。
+人类在这个时代发出第一声啼哭时，你就已经活着了。不，应该说是没能死成吧。现在我明白了。你眼睛的秘密，还有你没有杀我的理由。
+呼，请坐吧，老师。我们似乎还有很多话要说。</t>
+  </si>
+  <si>
+    <t xml:space="preserve">那么，那个传说就应该是真的了。
+…她还身为森林的精灵时的名字是奥拉。
+爱上了人类男子，将自己囚禁在石棺中的她，最终与向往天空的雏鸟一起展翅高飞，升格为了女神。没错，这就是璐璐薇诞生的神话。</t>
+  </si>
+  <si>
+    <t xml:space="preserve">虽然这段神话很有名，但几乎没有记录有关那人类男子之后命运的书籍留存下来。
+有一种说法是，奥拉…不对，是璐璐薇。为了把自己曾倾心于人类这件事当作教训，就给予了那男人残酷的命运。为了让那男人再也看不到她的身影，她夺走了他的双眼，还对他施加了不死的诅咒。因为她知道那个男人今后也会爱着自己，所以这样就可以让他承受永远的痛苦。</t>
+  </si>
+  <si>
+    <t xml:space="preserve">…女神璐璐薇诞生于上古时代，那是被人们称作「起源的时代」的第二纪。那之后到底是经过了多少的岁月？　数千万年，不，数亿年…？
+哼哼，真没想到…老师啊，也不知这世界上无数的秘密还会有多少与你有关？</t>
+  </si>
+  <si>
+    <t xml:space="preserve">可以确定的是，那都不会是让人羡慕的经历。
+那传说毫无疑问也是我本人写的，但流传至今会不会出现偏差就另当别论了。</t>
+  </si>
+  <si>
+    <t xml:space="preserve">没错，我在那片森林里…「偶然」遇见了已经成为女神的她。
+当她转向我的瞬间，我的眼睛就被刻上了这石晶。感情也好，言语也罢，什么都没有了。在那以后，我曾在永恒的黑暗中追寻过她的声音，她却再也没有在我面前出现过。
+这眼睛，也算不上什么惩罚，只是她随性而起的决定罢了。对于已经成为女神的璐璐薇，我不过是风中的一粒尘埃，根本不是什么值得让她留意的东西。</t>
+  </si>
+  <si>
+    <t xml:space="preserve">…话虽如此，这双眼睛却成了我与璐璐薇唯一的联系。只要解开这双眼睛的秘密，或许就能再一次得到她的垂怜。我就是怀揣着这份微弱的希望，开始不分昼夜地探寻晶石的秘密，也是这份热忱最终驱使我踏上了仿造晶石的道路。</t>
+  </si>
+  <si>
+    <t xml:space="preserve">不知不觉中我就被称为了伟大的炼金术师。但是人的智慧还是难以企及神的奇迹。我创造的无数魔石中没有一个能拥有和这双眼一样的力量。
+…最终我放弃了，赝品的魔石也被埋藏进了历史的尘埃之中。</t>
+  </si>
+  <si>
+    <t xml:space="preserve">…然而，你所创造的那三块魔石却在经过漫长时间的考验后又出现在了这个时代。是这样吗？</t>
+  </si>
+  <si>
+    <t xml:space="preserve">…嗯，没错。</t>
+  </si>
+  <si>
+    <t xml:space="preserve">你在得知弟子拿到魔石，成了那股力量的俘虏时，就来到了我所在的城堡。你一向对弟子关爱有加，所以你是为了拯救我的灵魂，来杀我的。
+但当你知道我的计划时…你犹豫了。</t>
+  </si>
+  <si>
+    <t xml:space="preserve">你想到如果把我强大的魔力与魔石结合起来，也许真的可以把众神唤回大地。
+这样一来或许你就能和璐璐薇重逢，好知晓你眼中诅咒的真正含义。</t>
+  </si>
+  <si>
+    <t xml:space="preserve">…这双眼睛的含义吗。其实这件事已经无所谓了。
+索林，我只是想再见一次璐璐薇。</t>
+  </si>
+  <si>
+    <t xml:space="preserve">呵呵，呵呵呵…老师啊，看来你我之间终于能找到一个共同点了。
+在你内心的深处，也有一股理性和道德都无法压制的黑暗火焰在燃烧着。你和我一样，都有着无论这个世界变得怎样也没法放下的强烈愿望。</t>
+  </si>
+  <si>
+    <t xml:space="preserve">…而成为你这股黑暗热情牺牲品的，就是我的身体吗。
+让我变成污秽的怪物，去渴求伪造的魔石。这可真是…太好笑了。</t>
+  </si>
+  <si>
+    <t xml:space="preserve">…抱歉，索林。</t>
+  </si>
+  <si>
+    <t xml:space="preserve">不，老师。
+…讽刺的是，这污秽的身体除了延长了我可悲的生命之外，也还是有点别的用处的。
+倒不如说在魔石研究之路被断绝的现在，靠这幅身体所得到的知识才成了我最后的希望。</t>
+  </si>
+  <si>
+    <t xml:space="preserve">你是什么意思，索林？</t>
+  </si>
+  <si>
+    <t xml:space="preserve">死者的世界里，是有活人无从知晓的秘密的。
+但在谈论这秘密之前，有一件事情我们必须说清楚。即使夺取龙之子的假魔石对我而言几乎没有意义…但也只是「几乎」而已。多拿一块魔石对我是没有坏处的。
+毕竟交涉筹码还是在拥有夺取魔石力量的我手中。 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">你的意思是…有事情想让我做吗？</t>
+  </si>
+  <si>
+    <t xml:space="preserve">你如此通情达理真是太好了。其实也没什么，只是想让你帮忙做一件小事。</t>
+  </si>
+  <si>
+    <t xml:space="preserve">在离这座古城稍有距离的沼泽地里，有一个无人靠近的洞窟。在那个被称为「死者的洞窟」之处的深处，有着被死者守护，但死者无法接近的「黑潭」。
+…拿好这个瓶子。
+我希望你把这个瓶子里的液体滴一滴到那个「黑潭」里。
+…怎么样，很简单吧？</t>
+  </si>
+  <si>
+    <t xml:space="preserve">当然，要进入死者洞窟的深层也需要相当的实力。和跟你在一起的冒险者商量一下就好了吧。
+呵呵，你看起来一脸诧异呢…但我不会告诉你更多的秘密了。
+那一滴显现效果只会是在几百年后了。至少我可以保证这件事绝对不会危害到你的同伴。我认为用这件事换来龙之子的性命还是很划算的，你觉得呢，老师？</t>
+  </si>
+  <si>
+    <t xml:space="preserve">啊…是凯特尔。</t>
+  </si>
+  <si>
+    <t xml:space="preserve">欢迎回来，凯特尔！</t>
+  </si>
+  <si>
+    <t xml:space="preserve">我回来了，库罗茨亚，歌罗贡。</t>
+  </si>
+  <si>
+    <t xml:space="preserve">闷闷不乐的表情呢…怎么了？　果然是…</t>
+  </si>
+  <si>
+    <t xml:space="preserve">不是的，不是坏消息。只是…
+是啊，首先，能叫大家来吗，库罗茨亚？</t>
+  </si>
+  <si>
+    <t xml:space="preserve">姆啾…</t>
+  </si>
+  <si>
+    <t xml:space="preserve">…事情就是这样了。</t>
+  </si>
+  <si>
+    <t xml:space="preserve">原来如此，作为保证歌罗贡安全的交换条件，要向那个「黑潭」里面滴一滴液体吗。</t>
+  </si>
+  <si>
+    <t xml:space="preserve">嗯…探索洞窟时肯定少不了#pc的帮助。不过也就是滴一滴液体而已，好像也没什么危险，这听起来是笔不错的买卖？</t>
+  </si>
+  <si>
+    <t xml:space="preserve">不行。绝对不能把那瓶子里的液体和「黑潭」混合！</t>
+  </si>
+  <si>
+    <t xml:space="preserve">可是，法莉斯小姐…</t>
+  </si>
+  <si>
+    <t xml:space="preserve">不，听我说，罗伊特尔大人。我觉得这事情没有那么简单，甚至可能有邪恶的阴谋。
+关于死者的洞窟，其实流传着这样一种传说。
+那洞窟中曾有一个「污秽不净之人」，在里面不断重复着令人毛骨悚然的可怕仪式。尽管足以威胁大地与天界的异形最终被诸神消灭了，但污秽不净之人的血肉却溶入了洞窟的最深处，变成了绝对不会干涸的黑色淤积物。
+罗伊特尔大人，那「黑潭」是凡人绝不能接触的东西。</t>
+  </si>
+  <si>
+    <t xml:space="preserve">原来如此，真是可怕的传说…等等，原来是这样，我懂了。
+将瓶中的东西滴一滴到淤积物里，在数百年后让邪恶发芽…一个连众神都无法忽视的邪恶…就能成为让众神回归地上的诱饵。这一定就是他的打算吧。
+确实，如果听了伊斯西泽尔的要求，肯定会给后世留下不得了的诅咒之物。</t>
+  </si>
+  <si>
+    <t xml:space="preserve">可…按照凯特尔所说的，伊斯西泽尔是十分强大的魔法师。如果我们拒绝了这笔交易，光靠自己的力量能从他手中守住这只小不点龙么？</t>
+  </si>
+  <si>
+    <t xml:space="preserve">不是的，不需要拒绝这笔交易。我有一样东西，罗伊特尔大人。
+就拿这个瓶子代替吧。</t>
+  </si>
+  <si>
+    <t xml:space="preserve">代替？　这是哪来的瓶子？　确实很像伊斯西泽尔交给我们的瓶子…</t>
+  </si>
+  <si>
+    <t xml:space="preserve">嗯…但是，这个瓶子里是股清爽的香味。里面装的是哪种圣水吗？
+我懂了，你是想利用圣水把「黑潭」净化掉吗。不愧是法莉斯小姐…可是这样的东西到底是哪里来的？</t>
+  </si>
+  <si>
+    <t xml:space="preserve">不过…这味道还真是让人舒服。清香又清爽，…对了，简直就像刚洗好的…</t>
+  </si>
+  <si>
+    <t xml:space="preserve">难道说这里面是…呃，算了，刨根问底就有点不识趣了。我觉得这主意不错，法莉斯小姐。</t>
+  </si>
+  <si>
+    <t xml:space="preserve">至少，这瓶子里的一滴液体不至于把邪神唤回这个世界。</t>
+  </si>
+  <si>
+    <t xml:space="preserve">是…是啊。</t>
+  </si>
+  <si>
+    <t xml:space="preserve">嗯，咳咳…事情就是这样了，#pc。  
+这个决断对我而言太沉重了，还是交给你吧。
+前往死者的洞窟，找到「黑潭」。至于在那里是用伊斯西泽尔的瓶子，还是用法莉斯小姐交给我们的「圣水」…就看你的了。
+…不过放心吧，我也和你一起去。让你独自承担责任也太残酷了。</t>
+  </si>
+  <si>
+    <t xml:space="preserve">这就是「黑潭」吗。
+漆黑又浑浊…只是凝视着就仿佛要被吞噬一样。</t>
+  </si>
+  <si>
+    <t xml:space="preserve">真是个恶心的地方。办完伊斯西泽尔的事，就早点离开吧。</t>
+  </si>
+  <si>
+    <t xml:space="preserve">这点我完全赞同。
+向这「黑潭」滴下一滴液体…简单的工作。</t>
+  </si>
+  <si>
+    <t xml:space="preserve">那么，#pc，要用哪个瓶子呢？是伊斯西泽尔给的那个可疑的瓶子，还是法莉斯小姐特制的洗…圣水呢。
+（…喂，#pc，听得到吗？）
+（法莉斯小姐虽然也跟来了，不过放心吧，不管你怎么选，我都不会让她知道的。我尊重你的决定。）</t>
+  </si>
+  <si>
+    <t xml:space="preserve">使用伊斯西泽尔的瓶子</t>
+  </si>
+  <si>
+    <t xml:space="preserve">使用法莉斯的瓶子</t>
+  </si>
+  <si>
+    <t xml:space="preserve">…伊斯西泽尔的瓶子没错吧？
+这污秽至极的气味。恐怕只要一滴，就能孕育出邪恶之物。</t>
+  </si>
+  <si>
+    <t xml:space="preserve">是的</t>
+  </si>
+  <si>
+    <t xml:space="preserve">不是</t>
+  </si>
+  <si>
+    <t xml:space="preserve">…法莉斯小姐的瓶子没错吧？
+十分…好闻的味道。只是很难想象这一滴下去会发生什么啊。</t>
+  </si>
+  <si>
+    <t xml:space="preserve">好了。那么我就把这瓶子里的液体滴一滴到「黑潭」里吧。
+不，#pc，这里就交给我吧。不能把重担压在你一个人身上。</t>
+  </si>
+  <si>
+    <t xml:space="preserve">…一想到这一滴或许会改变世界的命运，就让人感到窒息。
+而且这地板好像变得…有点黏糊糊的…</t>
+  </si>
+  <si>
+    <t xml:space="preserve">啊！</t>
+  </si>
+  <si>
+    <t xml:space="preserve">冷、冷静点，我没事！
+…呼，全身都湿透了，真恶心啊，还好这「黑潭」没有多深。
+哈啊…瓶子…那两个瓶子去哪里了？</t>
+  </si>
+  <si>
+    <t xml:space="preserve">…罗伊特尔大人…！！</t>
+  </si>
+  <si>
+    <t xml:space="preserve">法莉斯小姐，冷静点…</t>
+  </si>
+  <si>
+    <t xml:space="preserve">后面，你后面！</t>
+  </si>
+  <si>
+    <t xml:space="preserve">什么…</t>
+  </si>
+  <si>
+    <t xml:space="preserve">虽然我根本不知道它在说什么，但是看上去相当生气啊。</t>
+  </si>
+  <si>
+    <t xml:space="preserve">哦哦…污秽不净之人安茨拉西祖鲁…曾令世间陷入恐惧，被众神封印的邪神…！</t>
+  </si>
+  <si>
+    <t xml:space="preserve">…这个「黑潭」的真面目，就是迟早萌芽的灾厄之种吗。正好，这种东西，就该趁现在彻底斩草除根。
+呼，就算是邪神，在那清新的香气下也无法发挥全部力量。
+来吧，#pc，接下来就交给你了！</t>
+  </si>
+  <si>
+    <t xml:space="preserve">哦哦，做得好，#pc！</t>
+  </si>
+  <si>
+    <t xml:space="preserve">干得漂亮，#player大人。</t>
+  </si>
+  <si>
+    <t xml:space="preserve">在那怪物出来的时候，我还以为完蛋了呢…嗯，不过最终还是船到桥头自然直。</t>
+  </si>
+  <si>
+    <t xml:space="preserve">伊斯西泽尔这家伙…真是个疯子。居然为了自己的野心，打算在将来放这样的家伙出来。
+可是这下麻烦了啊。这样一来我们就无法实现和他的约定了。</t>
+  </si>
+  <si>
+    <t xml:space="preserve">我们什么都没看到，这里什么都没发生…没错吧，罗伊特尔大人？</t>
+  </si>
+  <si>
+    <t xml:space="preserve">…嗯。虽然我觉得他不会这么轻易就相信，但也没别的办法了。
+好了，总之我们先回到据点，等待伊斯西泽尔吧。</t>
+  </si>
+  <si>
+    <t xml:space="preserve">凯特尔…有时间吗？</t>
+  </si>
+  <si>
+    <t xml:space="preserve">怎么了，库罗茨亚？</t>
+  </si>
+  <si>
+    <t xml:space="preserve">刚才有个我们没见过的黑袍男孩，他一直盯着我和歌罗贡看。正打算和他搭话的时候，迪米塔斯突然气势汹汹地插了进来，和他吵了起来…</t>
+  </si>
+  <si>
+    <t xml:space="preserve">…是吗，我也觉得他差不多该出现了呢。
+那个穿黑袍的叫索林，是伊斯西泽尔的人类形态。迪米塔斯和他在过去曾有些因缘。</t>
+  </si>
+  <si>
+    <t xml:space="preserve">那孩子是…伊斯西泽尔？</t>
+  </si>
+  <si>
+    <t xml:space="preserve">没什么好怕的，库罗茨亚。我们在死者的洞窟已经完成了与他的约定。
+没错吧，罗伊特尔？</t>
+  </si>
+  <si>
+    <t xml:space="preserve">…那个，凯特尔…</t>
+  </si>
+  <si>
+    <t xml:space="preserve">怎么了？</t>
+  </si>
+  <si>
+    <t xml:space="preserve">没、没什么，确实危险已经过去了…不过以防万一还是问一下。如果伊斯西泽尔发怒的话…会发生什么？</t>
+  </si>
+  <si>
+    <t xml:space="preserve">像他这样的魔法师，如果有那个意愿，力量足以轻松毁灭一个国家。他应该是这个时代里，我们最不该去惹怒的一个人了。
+但是，不用担心，罗伊特尔。要说为什么的话，呵呵，如果你做了什么「让他发怒」的事情的话，你早就已经在地下长眠了。</t>
+  </si>
+  <si>
+    <t xml:space="preserve">…哈…哈哈哈，这样啊…！</t>
+  </si>
+  <si>
+    <t xml:space="preserve">（交头接耳）法莉斯小姐，「黑潭」发生的事情，绝对不能让他知道。凯特尔都开始起疑心了。</t>
+  </si>
+  <si>
+    <t xml:space="preserve">（交头接耳）好的，罗伊特尔大人…不能把它编成歌曲真是遗憾，但这次也是不得已了啊。</t>
+  </si>
+  <si>
+    <t xml:space="preserve">…好了，迪米塔斯这会儿应该也冷静下来了。我们去听听他要说什么吧。</t>
+  </si>
+  <si>
+    <t xml:space="preserve">…那么，可以认为约定已经顺利完成了吧？
+没事，只是确认下而已。对「黑潭」的干涉，我也能立刻感受到。只是…</t>
+  </si>
+  <si>
+    <t xml:space="preserve">只是…？</t>
+  </si>
+  <si>
+    <t xml:space="preserve">只是从那时起，我就失去了部分魔力。准确来说，我失去了「伊斯西泽尔」的不死之躯。
+哼，当然，这也意味着「黑潭」再次开始活动，无疑是令我欣喜的证据。
+无须担心。只要「黑潭」中那位的力量增长，我的魔力也会随之恢复。</t>
+  </si>
+  <si>
+    <t xml:space="preserve">你失去了魔力吗？　真是太好…不对，真是灾难啊！
+那么，歌罗贡和库罗茨亚已经不会再面临危险了吧。</t>
+  </si>
+  <si>
+    <t xml:space="preserve">…老师啊，为了让这里的这群愚钝之人也能理解，您最好还是好好教教他们。对魔法师而言，话语是多么沉重的东西。
+我决定遵守约定。即便我现在依然留有足够的魔力，可以仅因那个男人触怒了我而将此地化为地狱。</t>
+  </si>
+  <si>
+    <t xml:space="preserve">…哼，也罢。 反正我与大多数在场者，今后都不会再相见了。 
+看到了龙与魔女这种稀罕物，和老朋友来了场充实又融洽的交流，看来是不虚此行了。
+那么再会了，老师。</t>
+  </si>
+  <si>
+    <t xml:space="preserve">…索林，你真的打算以这样的身体返回那古城吗？
+我并无恶意，之前拜访的时候，那里看起来可不像是「人类」能够放松休息的地方啊。</t>
+  </si>
+  <si>
+    <t xml:space="preserve">呵呵，别摆出那么可怕的表情啦。我换个说法吧。
+为什么不在你的魔力恢复之前，试着在这里生活呢，索林？</t>
+  </si>
+  <si>
+    <t xml:space="preserve">（嘶…）</t>
+  </si>
+  <si>
+    <t xml:space="preserve">这可真是…意外的邀请啊，老师。</t>
+  </si>
+  <si>
+    <t xml:space="preserve">…而这对我来说也很有利。
+龙之子与魔女邂逅的意义， 被命运之线所牵引的冒险者，还有最重要的是，老师，在知晓了魔石的秘密后，对于你这个存在本身，我实在难以放下好奇心啊。</t>
+  </si>
+  <si>
+    <t xml:space="preserve">当然，我不打算免费住下。
+你希望从我这里得到什么作为回报呢？ 是失落的上古魔法书，长生不老的灵药，还是说，想要制造一批不眠不休能一直劳作的死者军团呢？</t>
+  </si>
+  <si>
+    <t xml:space="preserve">回报吗，对了，被歌罗贡弄坏的锅就拜托你修理吧。
+不过首先，还是要欢迎你的留宿。
+还有索林，如果你还称呼我为老师的话，就记住一点。不管是你也好…我也好，无论我们活了多久，在这世上都仍有很多需要学习的事物。</t>
   </si>
 </sst>
 </file>
@@ -1281,7 +3543,7 @@
     <numFmt numFmtId="164" formatCode="General"/>
     <numFmt numFmtId="165" formatCode="@"/>
   </numFmts>
-  <fonts count="13">
+  <fonts count="17">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -1367,6 +3629,31 @@
       <family val="3"/>
       <charset val="128"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="ヒラギノ角ゴ ProN W3"/>
+      <family val="2"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="游ゴシック"/>
+      <family val="2"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family/>
+      <charset val="128"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -1416,7 +3703,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="25">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="0">
       <alignment/>
       <protection locked="1"/>
@@ -1470,6 +3757,50 @@
       <protection locked="1"/>
     </xf>
     <xf numFmtId="164" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment wrapText="1"/>
+      <protection locked="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1" applyProtection="1">
+      <alignment vertical="top"/>
+      <protection locked="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment/>
+      <protection locked="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1" applyProtection="1">
+      <alignment/>
+      <protection locked="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment/>
+      <protection locked="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment wrapText="1"/>
+      <protection locked="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="0">
+      <alignment/>
+      <protection locked="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+      <protection locked="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment wrapText="1"/>
+      <protection locked="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+      <protection locked="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment wrapText="1"/>
+      <protection locked="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment wrapText="1"/>
       <protection locked="1"/>
     </xf>
@@ -1671,12 +4002,12 @@
   <sheetPr>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M150"/>
+  <dimension ref="A1:IX451"/>
   <sheetViews>
-    <sheetView tabSelected="1" showOutlineSymbols="1" defaultGridColor="1" topLeftCell="D1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A112" activePane="bottomLeft" state="frozen"/>
-      <selection activeCell="L146" sqref="L146"/>
-      <selection pane="bottomLeft" activeCell="K117" sqref="K117"/>
+    <sheetView tabSelected="1" showOutlineSymbols="1" defaultGridColor="1" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <pane ySplit="2" topLeftCell="A433" activePane="bottomLeft" state="frozen"/>
+      <selection activeCell="L446" sqref="L446"/>
+      <selection pane="bottomLeft" activeCell="J444" sqref="J444"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8"/>
@@ -1689,7 +4020,7 @@
     <col min="7" max="7" width="8.85" style="1" customWidth="1"/>
     <col min="8" max="9" width="7.09" style="1" customWidth="1"/>
     <col min="10" max="10" width="60.76" style="1" customWidth="1"/>
-    <col min="11" max="11" width="53.28" style="1" customWidth="1"/>
+    <col min="11" max="11" width="62.33" style="1" customWidth="1"/>
     <col min="12" max="12" width="9.06" style="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1734,7 +4065,7 @@
     <row r="2" ht="12.8">
       <c r="I2" s="1">
         <f>MAX(I4:I1048576)</f>
-        <v>89</v>
+        <v>281</v>
       </c>
     </row>
     <row r="5" ht="12.8">
@@ -1758,7 +4089,7 @@
         <v>15</v>
       </c>
       <c r="L8" t="s">
-        <v>200</v>
+        <v>523</v>
       </c>
     </row>
     <row r="9" ht="12.8">
@@ -1785,7 +4116,7 @@
         <v>20</v>
       </c>
       <c r="L10" t="s">
-        <v>201</v>
+        <v>524</v>
       </c>
     </row>
     <row r="11" ht="12.8">
@@ -1820,7 +4151,7 @@
         <v>26</v>
       </c>
       <c r="L15" t="s">
-        <v>202</v>
+        <v>525</v>
       </c>
     </row>
     <row r="16" ht="12.8">
@@ -1840,7 +4171,7 @@
         <v>29</v>
       </c>
       <c r="L16" t="s">
-        <v>203</v>
+        <v>526</v>
       </c>
     </row>
     <row r="17" ht="12.8">
@@ -1863,7 +4194,7 @@
         <v>33</v>
       </c>
       <c r="L17" t="s">
-        <v>204</v>
+        <v>527</v>
       </c>
     </row>
     <row r="18" ht="12.8">
@@ -1883,7 +4214,7 @@
         <v>35</v>
       </c>
       <c r="L18" t="s">
-        <v>205</v>
+        <v>528</v>
       </c>
     </row>
     <row r="19" ht="12.8">
@@ -1910,7 +4241,7 @@
         <v>37</v>
       </c>
       <c r="L22" t="s">
-        <v>206</v>
+        <v>529</v>
       </c>
     </row>
     <row r="23" ht="74.6">
@@ -1924,7 +4255,7 @@
         <v>39</v>
       </c>
       <c r="L23" t="s">
-        <v>207</v>
+        <v>530</v>
       </c>
     </row>
     <row r="24" ht="12.8">
@@ -1948,7 +4279,7 @@
         <v>42</v>
       </c>
       <c r="L27" t="s">
-        <v>208</v>
+        <v>531</v>
       </c>
     </row>
     <row r="28" ht="74.6">
@@ -1962,7 +4293,7 @@
         <v>44</v>
       </c>
       <c r="L28" t="s">
-        <v>209</v>
+        <v>532</v>
       </c>
     </row>
     <row r="29" ht="12.8">
@@ -2002,7 +4333,7 @@
         <v>51</v>
       </c>
       <c r="L34" t="s">
-        <v>210</v>
+        <v>533</v>
       </c>
     </row>
     <row r="35" ht="13.8">
@@ -2019,7 +4350,7 @@
         <v>53</v>
       </c>
       <c r="L35" t="s">
-        <v>211</v>
+        <v>534</v>
       </c>
     </row>
     <row r="36" ht="23.85">
@@ -2033,7 +4364,7 @@
         <v>55</v>
       </c>
       <c r="L36" t="s">
-        <v>212</v>
+        <v>535</v>
       </c>
     </row>
     <row r="37" ht="13.8">
@@ -2050,7 +4381,7 @@
         <v>57</v>
       </c>
       <c r="L37" t="s">
-        <v>213</v>
+        <v>536</v>
       </c>
     </row>
     <row r="38" ht="13.8">
@@ -2064,7 +4395,7 @@
         <v>59</v>
       </c>
       <c r="L38" t="s">
-        <v>214</v>
+        <v>537</v>
       </c>
     </row>
     <row r="39" ht="13.8">
@@ -2105,7 +4436,7 @@
         <v>64</v>
       </c>
       <c r="L41" t="s">
-        <v>215</v>
+        <v>538</v>
       </c>
     </row>
     <row r="42" ht="91">
@@ -2119,7 +4450,7 @@
         <v>66</v>
       </c>
       <c r="L42" t="s">
-        <v>216</v>
+        <v>539</v>
       </c>
     </row>
     <row r="43" ht="23.85">
@@ -2136,7 +4467,7 @@
         <v>68</v>
       </c>
       <c r="L43" t="s">
-        <v>217</v>
+        <v>540</v>
       </c>
     </row>
     <row r="44" ht="57.45">
@@ -2150,7 +4481,7 @@
         <v>70</v>
       </c>
       <c r="L44" t="s">
-        <v>218</v>
+        <v>541</v>
       </c>
     </row>
     <row r="45" ht="102.2">
@@ -2164,7 +4495,7 @@
         <v>72</v>
       </c>
       <c r="L45" t="s">
-        <v>219</v>
+        <v>542</v>
       </c>
       <c r="M45" s="1"/>
     </row>
@@ -2182,7 +4513,7 @@
         <v>74</v>
       </c>
       <c r="L46" t="s">
-        <v>220</v>
+        <v>543</v>
       </c>
     </row>
     <row r="47" ht="12.8">
@@ -2312,7 +4643,7 @@
         <v>87</v>
       </c>
       <c r="L59" t="s">
-        <v>221</v>
+        <v>544</v>
       </c>
     </row>
     <row r="60" ht="13.8">
@@ -2329,7 +4660,7 @@
         <v>90</v>
       </c>
       <c r="L60" t="s">
-        <v>222</v>
+        <v>545</v>
       </c>
     </row>
     <row r="61" ht="46.25">
@@ -2346,7 +4677,7 @@
         <v>92</v>
       </c>
       <c r="L61" t="s">
-        <v>223</v>
+        <v>546</v>
       </c>
     </row>
     <row r="62" ht="35.05">
@@ -2360,7 +4691,7 @@
         <v>94</v>
       </c>
       <c r="L62" t="s">
-        <v>224</v>
+        <v>547</v>
       </c>
     </row>
     <row r="63" ht="46.25">
@@ -2374,7 +4705,7 @@
         <v>96</v>
       </c>
       <c r="L63" t="s">
-        <v>225</v>
+        <v>548</v>
       </c>
     </row>
     <row r="64" ht="13.8">
@@ -2391,7 +4722,7 @@
         <v>98</v>
       </c>
       <c r="L64" t="s">
-        <v>226</v>
+        <v>549</v>
       </c>
     </row>
     <row r="65" ht="13.8">
@@ -2414,7 +4745,7 @@
         <v>100</v>
       </c>
       <c r="L66" t="s">
-        <v>227</v>
+        <v>550</v>
       </c>
     </row>
     <row r="67" ht="23.85">
@@ -2430,7 +4761,7 @@
         <v>102</v>
       </c>
       <c r="L67" t="s">
-        <v>228</v>
+        <v>551</v>
       </c>
     </row>
     <row r="68" ht="13.8">
@@ -2461,7 +4792,7 @@
         <v>104</v>
       </c>
       <c r="L70" t="s">
-        <v>229</v>
+        <v>552</v>
       </c>
     </row>
     <row r="71" ht="13.8">
@@ -2484,7 +4815,7 @@
         <v>106</v>
       </c>
       <c r="L72" t="s">
-        <v>230</v>
+        <v>553</v>
       </c>
     </row>
     <row r="73" ht="13.8">
@@ -2513,7 +4844,7 @@
         <v>109</v>
       </c>
       <c r="L74" t="s">
-        <v>231</v>
+        <v>554</v>
       </c>
     </row>
     <row r="75" ht="13.8">
@@ -2534,7 +4865,7 @@
         <v>111</v>
       </c>
       <c r="L76" t="s">
-        <v>232</v>
+        <v>555</v>
       </c>
     </row>
     <row r="77" ht="13.8">
@@ -2569,7 +4900,7 @@
         <v>114</v>
       </c>
       <c r="L79" t="s">
-        <v>233</v>
+        <v>556</v>
       </c>
     </row>
     <row r="80" ht="13.8">
@@ -2583,7 +4914,7 @@
         <v>116</v>
       </c>
       <c r="L80" t="s">
-        <v>234</v>
+        <v>557</v>
       </c>
     </row>
     <row r="81" ht="57.45">
@@ -2600,7 +4931,7 @@
         <v>118</v>
       </c>
       <c r="L81" t="s">
-        <v>235</v>
+        <v>558</v>
       </c>
     </row>
     <row r="82" ht="13.8">
@@ -2631,7 +4962,7 @@
         <v>120</v>
       </c>
       <c r="L83" t="s">
-        <v>236</v>
+        <v>559</v>
       </c>
     </row>
     <row r="84" ht="53.7">
@@ -2648,7 +4979,7 @@
         <v>122</v>
       </c>
       <c r="L84" t="s">
-        <v>237</v>
+        <v>560</v>
       </c>
     </row>
     <row r="85" ht="13.8">
@@ -2792,7 +5123,7 @@
         <v>127</v>
       </c>
       <c r="L99" t="s">
-        <v>238</v>
+        <v>561</v>
       </c>
     </row>
     <row r="100" ht="13.8">
@@ -2809,7 +5140,7 @@
         <v>130</v>
       </c>
       <c r="L100" t="s">
-        <v>239</v>
+        <v>562</v>
       </c>
     </row>
     <row r="101" ht="13.8">
@@ -2826,7 +5157,7 @@
         <v>132</v>
       </c>
       <c r="L101" t="s">
-        <v>240</v>
+        <v>563</v>
       </c>
     </row>
     <row r="102" ht="61.15">
@@ -2843,7 +5174,7 @@
         <v>134</v>
       </c>
       <c r="L102" t="s">
-        <v>241</v>
+        <v>564</v>
       </c>
     </row>
     <row r="103" ht="13.8">
@@ -2897,7 +5228,7 @@
         <v>137</v>
       </c>
       <c r="L107" t="s">
-        <v>242</v>
+        <v>565</v>
       </c>
     </row>
     <row r="108" ht="37.3">
@@ -2916,7 +5247,7 @@
         <v>140</v>
       </c>
       <c r="L108" t="s">
-        <v>243</v>
+        <v>566</v>
       </c>
     </row>
     <row r="109" ht="13.8">
@@ -2941,7 +5272,7 @@
         <v>106</v>
       </c>
       <c r="L110" t="s">
-        <v>230</v>
+        <v>553</v>
       </c>
     </row>
     <row r="111" ht="13.8">
@@ -2960,7 +5291,7 @@
         <v>142</v>
       </c>
       <c r="L111" t="s">
-        <v>244</v>
+        <v>567</v>
       </c>
     </row>
     <row r="112" ht="49.25">
@@ -2977,7 +5308,7 @@
         <v>144</v>
       </c>
       <c r="L112" t="s">
-        <v>245</v>
+        <v>568</v>
       </c>
     </row>
     <row r="113" ht="13.8">
@@ -2994,7 +5325,7 @@
         <v>146</v>
       </c>
       <c r="L113" t="s">
-        <v>246</v>
+        <v>569</v>
       </c>
     </row>
     <row r="114" ht="46.25">
@@ -3011,7 +5342,7 @@
         <v>148</v>
       </c>
       <c r="L114" t="s">
-        <v>247</v>
+        <v>570</v>
       </c>
     </row>
     <row r="115" ht="113.4">
@@ -3028,7 +5359,7 @@
         <v>150</v>
       </c>
       <c r="L115" t="s">
-        <v>248</v>
+        <v>571</v>
       </c>
     </row>
     <row r="116" ht="13.8">
@@ -3045,7 +5376,7 @@
         <v>152</v>
       </c>
       <c r="L116" t="s">
-        <v>249</v>
+        <v>572</v>
       </c>
     </row>
     <row r="117" ht="73.1">
@@ -3062,7 +5393,7 @@
         <v>154</v>
       </c>
       <c r="L117" t="s">
-        <v>250</v>
+        <v>573</v>
       </c>
     </row>
     <row r="118" ht="13.8">
@@ -3104,7 +5435,7 @@
         <v>156</v>
       </c>
       <c r="L120" t="s">
-        <v>251</v>
+        <v>574</v>
       </c>
     </row>
     <row r="121" ht="37.3">
@@ -3121,7 +5452,7 @@
         <v>158</v>
       </c>
       <c r="L121" t="s">
-        <v>252</v>
+        <v>575</v>
       </c>
     </row>
     <row r="122" ht="57.45">
@@ -3138,7 +5469,7 @@
         <v>160</v>
       </c>
       <c r="L122" t="s">
-        <v>253</v>
+        <v>576</v>
       </c>
     </row>
     <row r="123" ht="25.35">
@@ -3155,7 +5486,7 @@
         <v>162</v>
       </c>
       <c r="L123" t="s">
-        <v>254</v>
+        <v>577</v>
       </c>
     </row>
     <row r="124" ht="13.8">
@@ -3182,7 +5513,7 @@
         <v>164</v>
       </c>
       <c r="L125" t="s">
-        <v>255</v>
+        <v>578</v>
       </c>
     </row>
     <row r="126" ht="13.8">
@@ -3223,7 +5554,7 @@
         <v>167</v>
       </c>
       <c r="L129" t="s">
-        <v>256</v>
+        <v>579</v>
       </c>
     </row>
     <row r="130" ht="13.8">
@@ -3240,7 +5571,7 @@
         <v>169</v>
       </c>
       <c r="L130" t="s">
-        <v>257</v>
+        <v>580</v>
       </c>
     </row>
     <row r="131" ht="13.8">
@@ -3257,7 +5588,7 @@
         <v>171</v>
       </c>
       <c r="L131" t="s">
-        <v>258</v>
+        <v>581</v>
       </c>
     </row>
     <row r="132" ht="61.15">
@@ -3274,7 +5605,7 @@
         <v>173</v>
       </c>
       <c r="L132" t="s">
-        <v>259</v>
+        <v>582</v>
       </c>
     </row>
     <row r="133" ht="13.8">
@@ -3291,7 +5622,7 @@
         <v>175</v>
       </c>
       <c r="L133" t="s">
-        <v>260</v>
+        <v>583</v>
       </c>
     </row>
     <row r="134" ht="37.3">
@@ -3308,7 +5639,7 @@
         <v>177</v>
       </c>
       <c r="L134" t="s">
-        <v>261</v>
+        <v>584</v>
       </c>
     </row>
     <row r="135" ht="85.05">
@@ -3325,7 +5656,7 @@
         <v>179</v>
       </c>
       <c r="L135" t="s">
-        <v>262</v>
+        <v>585</v>
       </c>
     </row>
     <row r="136" s="1" customFormat="1" ht="13.8">
@@ -3342,7 +5673,7 @@
         <v>169</v>
       </c>
       <c r="L136" t="s">
-        <v>257</v>
+        <v>580</v>
       </c>
     </row>
     <row r="137" ht="53.7">
@@ -3359,7 +5690,7 @@
         <v>181</v>
       </c>
       <c r="L137" t="s">
-        <v>263</v>
+        <v>586</v>
       </c>
     </row>
     <row r="138" ht="13.8">
@@ -3376,7 +5707,7 @@
         <v>184</v>
       </c>
       <c r="L138" t="s">
-        <v>264</v>
+        <v>587</v>
       </c>
     </row>
     <row r="139" ht="13.8">
@@ -3410,7 +5741,7 @@
         <v>186</v>
       </c>
       <c r="L140" t="s">
-        <v>265</v>
+        <v>588</v>
       </c>
     </row>
     <row r="141" ht="13.8">
@@ -3424,7 +5755,7 @@
         <v>188</v>
       </c>
       <c r="L141" t="s">
-        <v>266</v>
+        <v>589</v>
       </c>
     </row>
     <row r="142" s="1" customFormat="1" ht="13.8">
@@ -3441,7 +5772,7 @@
         <v>190</v>
       </c>
       <c r="L142" t="s">
-        <v>267</v>
+        <v>590</v>
       </c>
     </row>
     <row r="143" s="1" customFormat="1" ht="13.8">
@@ -3458,7 +5789,7 @@
         <v>192</v>
       </c>
       <c r="L143" t="s">
-        <v>268</v>
+        <v>591</v>
       </c>
     </row>
     <row r="144" ht="61.15">
@@ -3475,7 +5806,7 @@
         <v>194</v>
       </c>
       <c r="L144" t="s">
-        <v>269</v>
+        <v>592</v>
       </c>
     </row>
     <row r="145" ht="58.2">
@@ -3492,7 +5823,7 @@
         <v>196</v>
       </c>
       <c r="L145" t="s">
-        <v>270</v>
+        <v>593</v>
       </c>
     </row>
     <row r="146" ht="53.7">
@@ -3509,7 +5840,7 @@
         <v>198</v>
       </c>
       <c r="L146" t="s">
-        <v>271</v>
+        <v>594</v>
       </c>
     </row>
     <row r="147" ht="13.8">
@@ -3527,9 +5858,5387 @@
         <v>76</v>
       </c>
     </row>
+    <row r="154" ht="12.8">
+      <c r="A154" s="1" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="155" ht="12.8">
+      <c r="E155" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="F155" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="J155" s="14"/>
+      <c r="K155" s="14"/>
+    </row>
+    <row r="156" ht="12.8">
+      <c r="E156" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="F156" s="1" t="s">
+        <v>201</v>
+      </c>
+      <c r="J156" s="14"/>
+      <c r="K156" s="14"/>
+    </row>
+    <row r="157" ht="12.8">
+      <c r="E157" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="F157" s="1">
+        <v>13</v>
+      </c>
+      <c r="J157" s="14"/>
+      <c r="K157" s="14"/>
+      <c r="M157" s="1"/>
+      <c r="N157" s="1"/>
+      <c r="O157" s="1"/>
+      <c r="P157" s="1"/>
+      <c r="Q157" s="1"/>
+      <c r="R157" s="1"/>
+      <c r="S157" s="1"/>
+      <c r="T157" s="1"/>
+      <c r="U157" s="1"/>
+      <c r="V157" s="1"/>
+      <c r="W157" s="1"/>
+      <c r="X157" s="1"/>
+      <c r="Y157" s="1"/>
+      <c r="Z157" s="1"/>
+      <c r="AA157" s="1"/>
+      <c r="AB157" s="1"/>
+      <c r="AC157" s="1"/>
+      <c r="AD157" s="1"/>
+      <c r="AE157" s="1"/>
+      <c r="AF157" s="1"/>
+      <c r="AG157" s="1"/>
+      <c r="AH157" s="1"/>
+      <c r="AI157" s="1"/>
+      <c r="AJ157" s="1"/>
+      <c r="AK157" s="1"/>
+      <c r="AL157" s="1"/>
+      <c r="AM157" s="1"/>
+      <c r="AN157" s="1"/>
+      <c r="AO157" s="1"/>
+      <c r="AP157" s="1"/>
+      <c r="AQ157" s="1"/>
+      <c r="AR157" s="1"/>
+      <c r="AS157" s="1"/>
+      <c r="AT157" s="1"/>
+      <c r="AU157" s="1"/>
+      <c r="AV157" s="1"/>
+      <c r="AW157" s="1"/>
+      <c r="AX157" s="1"/>
+      <c r="AY157" s="1"/>
+      <c r="AZ157" s="1"/>
+      <c r="BA157" s="1"/>
+      <c r="BB157" s="1"/>
+      <c r="BC157" s="1"/>
+      <c r="BD157" s="1"/>
+      <c r="BE157" s="1"/>
+      <c r="BF157" s="1"/>
+      <c r="BG157" s="1"/>
+      <c r="BH157" s="1"/>
+      <c r="BI157" s="1"/>
+      <c r="BJ157" s="1"/>
+      <c r="BK157" s="1"/>
+      <c r="BL157" s="1"/>
+      <c r="BM157" s="1"/>
+      <c r="BN157" s="1"/>
+      <c r="BO157" s="1"/>
+      <c r="BP157" s="1"/>
+      <c r="BQ157" s="1"/>
+      <c r="BR157" s="1"/>
+      <c r="BS157" s="1"/>
+      <c r="BT157" s="1"/>
+      <c r="BU157" s="1"/>
+      <c r="BV157" s="1"/>
+      <c r="BW157" s="1"/>
+      <c r="BX157" s="1"/>
+      <c r="BY157" s="1"/>
+      <c r="BZ157" s="1"/>
+      <c r="CA157" s="1"/>
+      <c r="CB157" s="1"/>
+      <c r="CC157" s="1"/>
+      <c r="CD157" s="1"/>
+      <c r="CE157" s="1"/>
+      <c r="CF157" s="1"/>
+      <c r="CG157" s="1"/>
+      <c r="CH157" s="1"/>
+      <c r="CI157" s="1"/>
+      <c r="CJ157" s="1"/>
+      <c r="CK157" s="1"/>
+      <c r="CL157" s="1"/>
+      <c r="CM157" s="1"/>
+      <c r="CN157" s="1"/>
+      <c r="CO157" s="1"/>
+      <c r="CP157" s="1"/>
+      <c r="CQ157" s="1"/>
+      <c r="CR157" s="1"/>
+      <c r="CS157" s="1"/>
+      <c r="CT157" s="1"/>
+      <c r="CU157" s="1"/>
+      <c r="CV157" s="1"/>
+      <c r="CW157" s="1"/>
+      <c r="CX157" s="1"/>
+      <c r="CY157" s="1"/>
+      <c r="CZ157" s="1"/>
+      <c r="DA157" s="1"/>
+      <c r="DB157" s="1"/>
+      <c r="DC157" s="1"/>
+      <c r="DD157" s="1"/>
+      <c r="DE157" s="1"/>
+      <c r="DF157" s="1"/>
+      <c r="DG157" s="1"/>
+      <c r="DH157" s="1"/>
+      <c r="DI157" s="1"/>
+      <c r="DJ157" s="1"/>
+      <c r="DK157" s="1"/>
+      <c r="DL157" s="1"/>
+      <c r="DM157" s="1"/>
+      <c r="DN157" s="1"/>
+      <c r="DO157" s="1"/>
+      <c r="DP157" s="1"/>
+      <c r="DQ157" s="1"/>
+      <c r="DR157" s="1"/>
+      <c r="DS157" s="1"/>
+      <c r="DT157" s="1"/>
+      <c r="DU157" s="1"/>
+      <c r="DV157" s="1"/>
+      <c r="DW157" s="1"/>
+      <c r="DX157" s="1"/>
+      <c r="DY157" s="1"/>
+      <c r="DZ157" s="1"/>
+      <c r="EA157" s="1"/>
+      <c r="EB157" s="1"/>
+      <c r="EC157" s="1"/>
+      <c r="ED157" s="1"/>
+      <c r="EE157" s="1"/>
+      <c r="EF157" s="1"/>
+      <c r="EG157" s="1"/>
+      <c r="EH157" s="1"/>
+      <c r="EI157" s="1"/>
+      <c r="EJ157" s="1"/>
+      <c r="EK157" s="1"/>
+      <c r="EL157" s="1"/>
+      <c r="EM157" s="1"/>
+      <c r="EN157" s="1"/>
+      <c r="EO157" s="1"/>
+      <c r="EP157" s="1"/>
+      <c r="EQ157" s="1"/>
+      <c r="ER157" s="1"/>
+      <c r="ES157" s="1"/>
+      <c r="ET157" s="1"/>
+      <c r="EU157" s="1"/>
+      <c r="EV157" s="1"/>
+      <c r="EW157" s="1"/>
+      <c r="EX157" s="1"/>
+      <c r="EY157" s="1"/>
+      <c r="EZ157" s="1"/>
+      <c r="FA157" s="1"/>
+      <c r="FB157" s="1"/>
+      <c r="FC157" s="1"/>
+      <c r="FD157" s="1"/>
+      <c r="FE157" s="1"/>
+      <c r="FF157" s="1"/>
+      <c r="FG157" s="1"/>
+      <c r="FH157" s="1"/>
+      <c r="FI157" s="1"/>
+      <c r="FJ157" s="1"/>
+      <c r="FK157" s="1"/>
+      <c r="FL157" s="1"/>
+      <c r="FM157" s="1"/>
+      <c r="FN157" s="1"/>
+      <c r="FO157" s="1"/>
+      <c r="FP157" s="1"/>
+      <c r="FQ157" s="1"/>
+      <c r="FR157" s="1"/>
+      <c r="FS157" s="1"/>
+      <c r="FT157" s="1"/>
+      <c r="FU157" s="1"/>
+      <c r="FV157" s="1"/>
+      <c r="FW157" s="1"/>
+      <c r="FX157" s="1"/>
+      <c r="FY157" s="1"/>
+      <c r="FZ157" s="1"/>
+      <c r="GA157" s="1"/>
+      <c r="GB157" s="1"/>
+      <c r="GC157" s="1"/>
+      <c r="GD157" s="1"/>
+      <c r="GE157" s="1"/>
+      <c r="GF157" s="1"/>
+      <c r="GG157" s="1"/>
+      <c r="GH157" s="1"/>
+      <c r="GI157" s="1"/>
+      <c r="GJ157" s="1"/>
+      <c r="GK157" s="1"/>
+      <c r="GL157" s="1"/>
+      <c r="GM157" s="1"/>
+      <c r="GN157" s="1"/>
+      <c r="GO157" s="1"/>
+      <c r="GP157" s="1"/>
+      <c r="GQ157" s="1"/>
+      <c r="GR157" s="1"/>
+      <c r="GS157" s="1"/>
+      <c r="GT157" s="1"/>
+      <c r="GU157" s="1"/>
+      <c r="GV157" s="1"/>
+      <c r="GW157" s="1"/>
+      <c r="GX157" s="1"/>
+      <c r="GY157" s="1"/>
+      <c r="GZ157" s="1"/>
+      <c r="HA157" s="1"/>
+      <c r="HB157" s="1"/>
+      <c r="HC157" s="1"/>
+      <c r="HD157" s="1"/>
+      <c r="HE157" s="1"/>
+      <c r="HF157" s="1"/>
+      <c r="HG157" s="1"/>
+      <c r="HH157" s="1"/>
+      <c r="HI157" s="1"/>
+      <c r="HJ157" s="1"/>
+      <c r="HK157" s="1"/>
+      <c r="HL157" s="1"/>
+      <c r="HM157" s="1"/>
+      <c r="HN157" s="1"/>
+      <c r="HO157" s="1"/>
+      <c r="HP157" s="1"/>
+      <c r="HQ157" s="1"/>
+      <c r="HR157" s="1"/>
+      <c r="HS157" s="1"/>
+      <c r="HT157" s="1"/>
+      <c r="HU157" s="1"/>
+      <c r="HV157" s="1"/>
+      <c r="HW157" s="1"/>
+      <c r="HX157" s="1"/>
+      <c r="HY157" s="1"/>
+      <c r="HZ157" s="1"/>
+      <c r="IA157" s="1"/>
+      <c r="IB157" s="1"/>
+      <c r="IC157" s="1"/>
+      <c r="ID157" s="1"/>
+      <c r="IE157" s="1"/>
+      <c r="IF157" s="1"/>
+      <c r="IG157" s="1"/>
+      <c r="IH157" s="1"/>
+      <c r="II157" s="1"/>
+      <c r="IJ157" s="1"/>
+      <c r="IK157" s="1"/>
+      <c r="IL157" s="1"/>
+      <c r="IM157" s="1"/>
+      <c r="IN157" s="1"/>
+      <c r="IO157" s="1"/>
+      <c r="IP157" s="1"/>
+      <c r="IQ157" s="1"/>
+      <c r="IR157" s="1"/>
+      <c r="IS157" s="1"/>
+      <c r="IT157" s="1"/>
+      <c r="IU157" s="1"/>
+      <c r="IV157" s="1"/>
+      <c r="IW157" s="1"/>
+      <c r="IX157" s="1"/>
+    </row>
+    <row r="158" ht="12.8">
+      <c r="E158" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="F158" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="J158" s="14"/>
+      <c r="K158" s="14"/>
+    </row>
+    <row r="159" ht="12.8">
+      <c r="G159" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="I159" s="1">
+        <v>90</v>
+      </c>
+      <c r="J159" s="14" t="s">
+        <v>202</v>
+      </c>
+      <c r="K159" s="14" t="s">
+        <v>203</v>
+      </c>
+      <c r="L159" t="s">
+        <v>202</v>
+      </c>
+      <c r="M159" s="1"/>
+      <c r="N159" s="1"/>
+      <c r="O159" s="1"/>
+      <c r="P159" s="1"/>
+      <c r="Q159" s="1"/>
+      <c r="R159" s="1"/>
+      <c r="S159" s="1"/>
+      <c r="T159" s="1"/>
+      <c r="U159" s="1"/>
+      <c r="V159" s="1"/>
+      <c r="W159" s="1"/>
+      <c r="X159" s="1"/>
+      <c r="Y159" s="1"/>
+      <c r="Z159" s="1"/>
+      <c r="AA159" s="1"/>
+      <c r="AB159" s="1"/>
+      <c r="AC159" s="1"/>
+      <c r="AD159" s="1"/>
+      <c r="AE159" s="1"/>
+      <c r="AF159" s="1"/>
+      <c r="AG159" s="1"/>
+      <c r="AH159" s="1"/>
+      <c r="AI159" s="1"/>
+      <c r="AJ159" s="1"/>
+      <c r="AK159" s="1"/>
+      <c r="AL159" s="1"/>
+      <c r="AM159" s="1"/>
+      <c r="AN159" s="1"/>
+      <c r="AO159" s="1"/>
+      <c r="AP159" s="1"/>
+      <c r="AQ159" s="1"/>
+      <c r="AR159" s="1"/>
+      <c r="AS159" s="1"/>
+      <c r="AT159" s="1"/>
+      <c r="AU159" s="1"/>
+      <c r="AV159" s="1"/>
+      <c r="AW159" s="1"/>
+      <c r="AX159" s="1"/>
+      <c r="AY159" s="1"/>
+      <c r="AZ159" s="1"/>
+      <c r="BA159" s="1"/>
+      <c r="BB159" s="1"/>
+      <c r="BC159" s="1"/>
+      <c r="BD159" s="1"/>
+      <c r="BE159" s="1"/>
+      <c r="BF159" s="1"/>
+      <c r="BG159" s="1"/>
+      <c r="BH159" s="1"/>
+      <c r="BI159" s="1"/>
+      <c r="BJ159" s="1"/>
+      <c r="BK159" s="1"/>
+      <c r="BL159" s="1"/>
+      <c r="BM159" s="1"/>
+      <c r="BN159" s="1"/>
+      <c r="BO159" s="1"/>
+      <c r="BP159" s="1"/>
+      <c r="BQ159" s="1"/>
+      <c r="BR159" s="1"/>
+      <c r="BS159" s="1"/>
+      <c r="BT159" s="1"/>
+      <c r="BU159" s="1"/>
+      <c r="BV159" s="1"/>
+      <c r="BW159" s="1"/>
+      <c r="BX159" s="1"/>
+      <c r="BY159" s="1"/>
+      <c r="BZ159" s="1"/>
+      <c r="CA159" s="1"/>
+      <c r="CB159" s="1"/>
+      <c r="CC159" s="1"/>
+      <c r="CD159" s="1"/>
+      <c r="CE159" s="1"/>
+      <c r="CF159" s="1"/>
+      <c r="CG159" s="1"/>
+      <c r="CH159" s="1"/>
+      <c r="CI159" s="1"/>
+      <c r="CJ159" s="1"/>
+      <c r="CK159" s="1"/>
+      <c r="CL159" s="1"/>
+      <c r="CM159" s="1"/>
+      <c r="CN159" s="1"/>
+      <c r="CO159" s="1"/>
+      <c r="CP159" s="1"/>
+      <c r="CQ159" s="1"/>
+      <c r="CR159" s="1"/>
+      <c r="CS159" s="1"/>
+      <c r="CT159" s="1"/>
+      <c r="CU159" s="1"/>
+      <c r="CV159" s="1"/>
+      <c r="CW159" s="1"/>
+      <c r="CX159" s="1"/>
+      <c r="CY159" s="1"/>
+      <c r="CZ159" s="1"/>
+      <c r="DA159" s="1"/>
+      <c r="DB159" s="1"/>
+      <c r="DC159" s="1"/>
+      <c r="DD159" s="1"/>
+      <c r="DE159" s="1"/>
+      <c r="DF159" s="1"/>
+      <c r="DG159" s="1"/>
+      <c r="DH159" s="1"/>
+      <c r="DI159" s="1"/>
+      <c r="DJ159" s="1"/>
+      <c r="DK159" s="1"/>
+      <c r="DL159" s="1"/>
+      <c r="DM159" s="1"/>
+      <c r="DN159" s="1"/>
+      <c r="DO159" s="1"/>
+      <c r="DP159" s="1"/>
+      <c r="DQ159" s="1"/>
+      <c r="DR159" s="1"/>
+      <c r="DS159" s="1"/>
+      <c r="DT159" s="1"/>
+      <c r="DU159" s="1"/>
+      <c r="DV159" s="1"/>
+      <c r="DW159" s="1"/>
+      <c r="DX159" s="1"/>
+      <c r="DY159" s="1"/>
+      <c r="DZ159" s="1"/>
+      <c r="EA159" s="1"/>
+      <c r="EB159" s="1"/>
+      <c r="EC159" s="1"/>
+      <c r="ED159" s="1"/>
+      <c r="EE159" s="1"/>
+      <c r="EF159" s="1"/>
+      <c r="EG159" s="1"/>
+      <c r="EH159" s="1"/>
+      <c r="EI159" s="1"/>
+      <c r="EJ159" s="1"/>
+      <c r="EK159" s="1"/>
+      <c r="EL159" s="1"/>
+      <c r="EM159" s="1"/>
+      <c r="EN159" s="1"/>
+      <c r="EO159" s="1"/>
+      <c r="EP159" s="1"/>
+      <c r="EQ159" s="1"/>
+      <c r="ER159" s="1"/>
+      <c r="ES159" s="1"/>
+      <c r="ET159" s="1"/>
+      <c r="EU159" s="1"/>
+      <c r="EV159" s="1"/>
+      <c r="EW159" s="1"/>
+      <c r="EX159" s="1"/>
+      <c r="EY159" s="1"/>
+      <c r="EZ159" s="1"/>
+      <c r="FA159" s="1"/>
+      <c r="FB159" s="1"/>
+      <c r="FC159" s="1"/>
+      <c r="FD159" s="1"/>
+      <c r="FE159" s="1"/>
+      <c r="FF159" s="1"/>
+      <c r="FG159" s="1"/>
+      <c r="FH159" s="1"/>
+      <c r="FI159" s="1"/>
+      <c r="FJ159" s="1"/>
+      <c r="FK159" s="1"/>
+      <c r="FL159" s="1"/>
+      <c r="FM159" s="1"/>
+      <c r="FN159" s="1"/>
+      <c r="FO159" s="1"/>
+      <c r="FP159" s="1"/>
+      <c r="FQ159" s="1"/>
+      <c r="FR159" s="1"/>
+      <c r="FS159" s="1"/>
+      <c r="FT159" s="1"/>
+      <c r="FU159" s="1"/>
+      <c r="FV159" s="1"/>
+      <c r="FW159" s="1"/>
+      <c r="FX159" s="1"/>
+      <c r="FY159" s="1"/>
+      <c r="FZ159" s="1"/>
+      <c r="GA159" s="1"/>
+      <c r="GB159" s="1"/>
+      <c r="GC159" s="1"/>
+      <c r="GD159" s="1"/>
+      <c r="GE159" s="1"/>
+      <c r="GF159" s="1"/>
+      <c r="GG159" s="1"/>
+      <c r="GH159" s="1"/>
+      <c r="GI159" s="1"/>
+      <c r="GJ159" s="1"/>
+      <c r="GK159" s="1"/>
+      <c r="GL159" s="1"/>
+      <c r="GM159" s="1"/>
+      <c r="GN159" s="1"/>
+      <c r="GO159" s="1"/>
+      <c r="GP159" s="1"/>
+      <c r="GQ159" s="1"/>
+      <c r="GR159" s="1"/>
+      <c r="GS159" s="1"/>
+      <c r="GT159" s="1"/>
+      <c r="GU159" s="1"/>
+      <c r="GV159" s="1"/>
+      <c r="GW159" s="1"/>
+      <c r="GX159" s="1"/>
+      <c r="GY159" s="1"/>
+      <c r="GZ159" s="1"/>
+      <c r="HA159" s="1"/>
+      <c r="HB159" s="1"/>
+      <c r="HC159" s="1"/>
+      <c r="HD159" s="1"/>
+      <c r="HE159" s="1"/>
+      <c r="HF159" s="1"/>
+      <c r="HG159" s="1"/>
+      <c r="HH159" s="1"/>
+      <c r="HI159" s="1"/>
+      <c r="HJ159" s="1"/>
+      <c r="HK159" s="1"/>
+      <c r="HL159" s="1"/>
+      <c r="HM159" s="1"/>
+      <c r="HN159" s="1"/>
+      <c r="HO159" s="1"/>
+      <c r="HP159" s="1"/>
+      <c r="HQ159" s="1"/>
+      <c r="HR159" s="1"/>
+      <c r="HS159" s="1"/>
+      <c r="HT159" s="1"/>
+      <c r="HU159" s="1"/>
+      <c r="HV159" s="1"/>
+      <c r="HW159" s="1"/>
+      <c r="HX159" s="1"/>
+      <c r="HY159" s="1"/>
+      <c r="HZ159" s="1"/>
+      <c r="IA159" s="1"/>
+      <c r="IB159" s="1"/>
+      <c r="IC159" s="1"/>
+      <c r="ID159" s="1"/>
+      <c r="IE159" s="1"/>
+      <c r="IF159" s="1"/>
+      <c r="IG159" s="1"/>
+      <c r="IH159" s="1"/>
+      <c r="II159" s="1"/>
+      <c r="IJ159" s="1"/>
+      <c r="IK159" s="1"/>
+      <c r="IL159" s="1"/>
+      <c r="IM159" s="1"/>
+      <c r="IN159" s="1"/>
+      <c r="IO159" s="1"/>
+      <c r="IP159" s="1"/>
+      <c r="IQ159" s="1"/>
+      <c r="IR159" s="1"/>
+      <c r="IS159" s="1"/>
+      <c r="IT159" s="1"/>
+      <c r="IU159" s="1"/>
+      <c r="IV159" s="1"/>
+      <c r="IW159" s="1"/>
+      <c r="IX159" s="1"/>
+    </row>
+    <row r="160" ht="12.8">
+      <c r="M160" s="1"/>
+    </row>
+    <row r="161" ht="23.85">
+      <c r="G161" s="6" t="s">
+        <v>125</v>
+      </c>
+      <c r="I161" s="1">
+        <v>91</v>
+      </c>
+      <c r="J161" s="7" t="s">
+        <v>204</v>
+      </c>
+      <c r="K161" s="9" t="s">
+        <v>205</v>
+      </c>
+      <c r="L161" t="s">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="162" ht="13.8">
+      <c r="G162" s="6" t="s">
+        <v>125</v>
+      </c>
+      <c r="I162" s="1">
+        <v>92</v>
+      </c>
+      <c r="J162" s="7" t="s">
+        <v>206</v>
+      </c>
+      <c r="K162" s="9" t="s">
+        <v>207</v>
+      </c>
+      <c r="L162" t="s">
+        <v>596</v>
+      </c>
+    </row>
+    <row r="163" ht="13.8">
+      <c r="G163" s="6" t="s">
+        <v>208</v>
+      </c>
+      <c r="I163" s="1">
+        <v>93</v>
+      </c>
+      <c r="J163" s="12" t="s">
+        <v>209</v>
+      </c>
+      <c r="K163" s="9" t="s">
+        <v>210</v>
+      </c>
+      <c r="L163" t="s">
+        <v>597</v>
+      </c>
+    </row>
+    <row r="164" ht="13.8">
+      <c r="G164" s="6" t="s">
+        <v>125</v>
+      </c>
+      <c r="I164" s="1">
+        <v>94</v>
+      </c>
+      <c r="J164" s="12" t="s">
+        <v>60</v>
+      </c>
+      <c r="K164" s="9" t="s">
+        <v>112</v>
+      </c>
+      <c r="L164" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="165" ht="13.8">
+      <c r="G165" s="6" t="s">
+        <v>208</v>
+      </c>
+      <c r="I165" s="1">
+        <v>95</v>
+      </c>
+      <c r="J165" s="12" t="s">
+        <v>209</v>
+      </c>
+      <c r="K165" s="9" t="s">
+        <v>210</v>
+      </c>
+      <c r="L165" t="s">
+        <v>597</v>
+      </c>
+    </row>
+    <row r="166" ht="13.8">
+      <c r="G166" s="6" t="s">
+        <v>125</v>
+      </c>
+      <c r="I166" s="1">
+        <v>96</v>
+      </c>
+      <c r="J166" s="7" t="s">
+        <v>211</v>
+      </c>
+      <c r="K166" s="9" t="s">
+        <v>212</v>
+      </c>
+      <c r="L166" t="s">
+        <v>598</v>
+      </c>
+    </row>
+    <row r="167" ht="13.8">
+      <c r="G167" s="6" t="s">
+        <v>208</v>
+      </c>
+      <c r="I167" s="1">
+        <v>97</v>
+      </c>
+      <c r="J167" s="12" t="s">
+        <v>209</v>
+      </c>
+      <c r="K167" s="9" t="s">
+        <v>210</v>
+      </c>
+      <c r="L167" t="s">
+        <v>597</v>
+      </c>
+    </row>
+    <row r="168" ht="13.8">
+      <c r="G168" s="6" t="s">
+        <v>125</v>
+      </c>
+      <c r="I168" s="1">
+        <v>98</v>
+      </c>
+      <c r="J168" s="7" t="s">
+        <v>213</v>
+      </c>
+      <c r="K168" s="9" t="s">
+        <v>214</v>
+      </c>
+      <c r="L168" t="s">
+        <v>599</v>
+      </c>
+    </row>
+    <row r="169" ht="13.8">
+      <c r="G169" s="6" t="s">
+        <v>208</v>
+      </c>
+      <c r="I169" s="1">
+        <v>99</v>
+      </c>
+      <c r="J169" s="12" t="s">
+        <v>60</v>
+      </c>
+      <c r="K169" s="9" t="s">
+        <v>112</v>
+      </c>
+      <c r="L169" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="170" ht="13.8">
+      <c r="E170" s="6" t="s">
+        <v>81</v>
+      </c>
+      <c r="F170" s="6">
+        <v>1</v>
+      </c>
+      <c r="J170" s="7"/>
+      <c r="K170" s="9"/>
+    </row>
+    <row r="171" ht="13.8">
+      <c r="E171" s="6"/>
+      <c r="F171" s="10"/>
+      <c r="J171" s="7"/>
+      <c r="K171" s="9"/>
+    </row>
+    <row r="172" ht="13.8">
+      <c r="E172" s="6" t="s">
+        <v>85</v>
+      </c>
+      <c r="F172" s="6">
+        <v>3</v>
+      </c>
+      <c r="G172" s="6"/>
+      <c r="J172" s="7"/>
+      <c r="K172" s="9"/>
+    </row>
+    <row r="173" ht="13.8">
+      <c r="E173" s="6"/>
+      <c r="F173" s="6"/>
+      <c r="G173" s="6" t="s">
+        <v>215</v>
+      </c>
+      <c r="I173" s="1">
+        <v>100</v>
+      </c>
+      <c r="J173" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="K173" s="9" t="s">
+        <v>112</v>
+      </c>
+      <c r="L173" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="174" ht="13.8">
+      <c r="E174" s="6"/>
+      <c r="F174" s="6"/>
+      <c r="G174" s="6" t="s">
+        <v>215</v>
+      </c>
+      <c r="I174" s="1">
+        <v>101</v>
+      </c>
+      <c r="J174" s="7" t="s">
+        <v>216</v>
+      </c>
+      <c r="K174" s="9" t="s">
+        <v>217</v>
+      </c>
+      <c r="L174" t="s">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="175" ht="13.8">
+      <c r="E175" s="6"/>
+      <c r="F175" s="6"/>
+      <c r="G175" s="6" t="s">
+        <v>215</v>
+      </c>
+      <c r="I175" s="1">
+        <v>102</v>
+      </c>
+      <c r="J175" s="7" t="s">
+        <v>218</v>
+      </c>
+      <c r="K175" s="9" t="s">
+        <v>219</v>
+      </c>
+      <c r="L175" t="s">
+        <v>601</v>
+      </c>
+    </row>
+    <row r="176" ht="23.85">
+      <c r="E176" s="6"/>
+      <c r="F176" s="6"/>
+      <c r="G176" s="6" t="s">
+        <v>125</v>
+      </c>
+      <c r="I176" s="1">
+        <v>103</v>
+      </c>
+      <c r="J176" s="7" t="s">
+        <v>220</v>
+      </c>
+      <c r="K176" s="9" t="s">
+        <v>221</v>
+      </c>
+      <c r="L176" t="s">
+        <v>602</v>
+      </c>
+    </row>
+    <row r="177" ht="79.85">
+      <c r="E177" s="6"/>
+      <c r="F177" s="6"/>
+      <c r="G177" s="6" t="s">
+        <v>222</v>
+      </c>
+      <c r="I177" s="1">
+        <v>104</v>
+      </c>
+      <c r="J177" s="7" t="s">
+        <v>223</v>
+      </c>
+      <c r="K177" s="9" t="s">
+        <v>224</v>
+      </c>
+      <c r="L177" t="s">
+        <v>603</v>
+      </c>
+    </row>
+    <row r="178" ht="23.85">
+      <c r="E178" s="6"/>
+      <c r="F178" s="6"/>
+      <c r="G178" s="6" t="s">
+        <v>125</v>
+      </c>
+      <c r="I178" s="1">
+        <v>105</v>
+      </c>
+      <c r="J178" s="7" t="s">
+        <v>225</v>
+      </c>
+      <c r="K178" s="9" t="s">
+        <v>226</v>
+      </c>
+      <c r="L178" t="s">
+        <v>604</v>
+      </c>
+    </row>
+    <row r="179" ht="68.65">
+      <c r="E179" s="6"/>
+      <c r="F179" s="6"/>
+      <c r="G179" s="6" t="s">
+        <v>222</v>
+      </c>
+      <c r="I179" s="1">
+        <v>106</v>
+      </c>
+      <c r="J179" s="7" t="s">
+        <v>227</v>
+      </c>
+      <c r="K179" s="9" t="s">
+        <v>228</v>
+      </c>
+      <c r="L179" t="s">
+        <v>605</v>
+      </c>
+    </row>
+    <row r="180" ht="79.85">
+      <c r="E180" s="6"/>
+      <c r="F180" s="6"/>
+      <c r="G180" s="6" t="s">
+        <v>222</v>
+      </c>
+      <c r="I180" s="1">
+        <v>107</v>
+      </c>
+      <c r="J180" s="7" t="s">
+        <v>229</v>
+      </c>
+      <c r="K180" s="9" t="s">
+        <v>230</v>
+      </c>
+      <c r="L180" t="s">
+        <v>606</v>
+      </c>
+    </row>
+    <row r="181" ht="79.85">
+      <c r="E181" s="6"/>
+      <c r="F181" s="6"/>
+      <c r="G181" s="6" t="s">
+        <v>222</v>
+      </c>
+      <c r="I181" s="1">
+        <v>108</v>
+      </c>
+      <c r="J181" s="7" t="s">
+        <v>231</v>
+      </c>
+      <c r="K181" s="9" t="s">
+        <v>232</v>
+      </c>
+      <c r="L181" t="s">
+        <v>607</v>
+      </c>
+    </row>
+    <row r="182" ht="35.05">
+      <c r="E182" s="6"/>
+      <c r="F182" s="6"/>
+      <c r="G182" s="6" t="s">
+        <v>125</v>
+      </c>
+      <c r="I182" s="1">
+        <v>109</v>
+      </c>
+      <c r="J182" s="7" t="s">
+        <v>233</v>
+      </c>
+      <c r="K182" s="9" t="s">
+        <v>234</v>
+      </c>
+      <c r="L182" t="s">
+        <v>608</v>
+      </c>
+    </row>
+    <row r="183" ht="35.05">
+      <c r="E183" s="6"/>
+      <c r="F183" s="6"/>
+      <c r="G183" s="6" t="s">
+        <v>222</v>
+      </c>
+      <c r="I183" s="1">
+        <v>110</v>
+      </c>
+      <c r="J183" s="7" t="s">
+        <v>235</v>
+      </c>
+      <c r="K183" s="9" t="s">
+        <v>236</v>
+      </c>
+      <c r="L183" t="s">
+        <v>609</v>
+      </c>
+    </row>
+    <row r="184" ht="102.2">
+      <c r="E184" s="6"/>
+      <c r="F184" s="6"/>
+      <c r="G184" s="6" t="s">
+        <v>222</v>
+      </c>
+      <c r="I184" s="1">
+        <v>111</v>
+      </c>
+      <c r="J184" s="7" t="s">
+        <v>237</v>
+      </c>
+      <c r="K184" s="9" t="s">
+        <v>238</v>
+      </c>
+      <c r="L184" t="s">
+        <v>610</v>
+      </c>
+    </row>
+    <row r="185" ht="13.8">
+      <c r="E185" s="6"/>
+      <c r="F185" s="6"/>
+      <c r="G185" s="6"/>
+      <c r="J185" s="7"/>
+      <c r="K185" s="9"/>
+    </row>
+    <row r="186" ht="13.8">
+      <c r="E186" s="6" t="s">
+        <v>81</v>
+      </c>
+      <c r="F186" s="6">
+        <v>3</v>
+      </c>
+      <c r="G186" s="6"/>
+      <c r="J186" s="12"/>
+      <c r="K186" s="9"/>
+    </row>
+    <row r="187" ht="13.8">
+      <c r="E187" s="1" t="s">
+        <v>239</v>
+      </c>
+      <c r="F187" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="G187" s="6"/>
+      <c r="J187" s="12"/>
+      <c r="K187" s="9"/>
+    </row>
+    <row r="188" ht="13.8">
+      <c r="E188" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="G188" s="6"/>
+      <c r="J188" s="12"/>
+      <c r="K188" s="9"/>
+    </row>
+    <row r="191" ht="12.8">
+      <c r="A191" s="1" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="192" ht="12.8">
+      <c r="E192" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="F192" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="J192" s="14"/>
+      <c r="K192" s="14"/>
+    </row>
+    <row r="193" ht="12.8">
+      <c r="E193" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="F193" s="1" t="s">
+        <v>201</v>
+      </c>
+      <c r="J193" s="14"/>
+      <c r="K193" s="14"/>
+    </row>
+    <row r="194" ht="12.8">
+      <c r="E194" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="F194" s="1">
+        <v>13</v>
+      </c>
+      <c r="J194" s="14"/>
+      <c r="K194" s="14"/>
+      <c r="M194" s="1"/>
+      <c r="N194" s="1"/>
+      <c r="O194" s="1"/>
+      <c r="P194" s="1"/>
+      <c r="Q194" s="1"/>
+      <c r="R194" s="1"/>
+      <c r="S194" s="1"/>
+      <c r="T194" s="1"/>
+      <c r="U194" s="1"/>
+      <c r="V194" s="1"/>
+      <c r="W194" s="1"/>
+      <c r="X194" s="1"/>
+      <c r="Y194" s="1"/>
+      <c r="Z194" s="1"/>
+      <c r="AA194" s="1"/>
+      <c r="AB194" s="1"/>
+      <c r="AC194" s="1"/>
+      <c r="AD194" s="1"/>
+      <c r="AE194" s="1"/>
+      <c r="AF194" s="1"/>
+      <c r="AG194" s="1"/>
+      <c r="AH194" s="1"/>
+      <c r="AI194" s="1"/>
+      <c r="AJ194" s="1"/>
+      <c r="AK194" s="1"/>
+      <c r="AL194" s="1"/>
+      <c r="AM194" s="1"/>
+      <c r="AN194" s="1"/>
+      <c r="AO194" s="1"/>
+      <c r="AP194" s="1"/>
+      <c r="AQ194" s="1"/>
+      <c r="AR194" s="1"/>
+      <c r="AS194" s="1"/>
+      <c r="AT194" s="1"/>
+      <c r="AU194" s="1"/>
+      <c r="AV194" s="1"/>
+      <c r="AW194" s="1"/>
+      <c r="AX194" s="1"/>
+      <c r="AY194" s="1"/>
+      <c r="AZ194" s="1"/>
+      <c r="BA194" s="1"/>
+      <c r="BB194" s="1"/>
+      <c r="BC194" s="1"/>
+      <c r="BD194" s="1"/>
+      <c r="BE194" s="1"/>
+      <c r="BF194" s="1"/>
+      <c r="BG194" s="1"/>
+      <c r="BH194" s="1"/>
+      <c r="BI194" s="1"/>
+      <c r="BJ194" s="1"/>
+      <c r="BK194" s="1"/>
+      <c r="BL194" s="1"/>
+      <c r="BM194" s="1"/>
+      <c r="BN194" s="1"/>
+      <c r="BO194" s="1"/>
+      <c r="BP194" s="1"/>
+      <c r="BQ194" s="1"/>
+      <c r="BR194" s="1"/>
+      <c r="BS194" s="1"/>
+      <c r="BT194" s="1"/>
+      <c r="BU194" s="1"/>
+      <c r="BV194" s="1"/>
+      <c r="BW194" s="1"/>
+      <c r="BX194" s="1"/>
+      <c r="BY194" s="1"/>
+      <c r="BZ194" s="1"/>
+      <c r="CA194" s="1"/>
+      <c r="CB194" s="1"/>
+      <c r="CC194" s="1"/>
+      <c r="CD194" s="1"/>
+      <c r="CE194" s="1"/>
+      <c r="CF194" s="1"/>
+      <c r="CG194" s="1"/>
+      <c r="CH194" s="1"/>
+      <c r="CI194" s="1"/>
+      <c r="CJ194" s="1"/>
+      <c r="CK194" s="1"/>
+      <c r="CL194" s="1"/>
+      <c r="CM194" s="1"/>
+      <c r="CN194" s="1"/>
+      <c r="CO194" s="1"/>
+      <c r="CP194" s="1"/>
+      <c r="CQ194" s="1"/>
+      <c r="CR194" s="1"/>
+      <c r="CS194" s="1"/>
+      <c r="CT194" s="1"/>
+      <c r="CU194" s="1"/>
+      <c r="CV194" s="1"/>
+      <c r="CW194" s="1"/>
+      <c r="CX194" s="1"/>
+      <c r="CY194" s="1"/>
+      <c r="CZ194" s="1"/>
+      <c r="DA194" s="1"/>
+      <c r="DB194" s="1"/>
+      <c r="DC194" s="1"/>
+      <c r="DD194" s="1"/>
+      <c r="DE194" s="1"/>
+      <c r="DF194" s="1"/>
+      <c r="DG194" s="1"/>
+      <c r="DH194" s="1"/>
+      <c r="DI194" s="1"/>
+      <c r="DJ194" s="1"/>
+      <c r="DK194" s="1"/>
+      <c r="DL194" s="1"/>
+      <c r="DM194" s="1"/>
+      <c r="DN194" s="1"/>
+      <c r="DO194" s="1"/>
+      <c r="DP194" s="1"/>
+      <c r="DQ194" s="1"/>
+      <c r="DR194" s="1"/>
+      <c r="DS194" s="1"/>
+      <c r="DT194" s="1"/>
+      <c r="DU194" s="1"/>
+      <c r="DV194" s="1"/>
+      <c r="DW194" s="1"/>
+      <c r="DX194" s="1"/>
+      <c r="DY194" s="1"/>
+      <c r="DZ194" s="1"/>
+      <c r="EA194" s="1"/>
+      <c r="EB194" s="1"/>
+      <c r="EC194" s="1"/>
+      <c r="ED194" s="1"/>
+      <c r="EE194" s="1"/>
+      <c r="EF194" s="1"/>
+      <c r="EG194" s="1"/>
+      <c r="EH194" s="1"/>
+      <c r="EI194" s="1"/>
+      <c r="EJ194" s="1"/>
+      <c r="EK194" s="1"/>
+      <c r="EL194" s="1"/>
+      <c r="EM194" s="1"/>
+      <c r="EN194" s="1"/>
+      <c r="EO194" s="1"/>
+      <c r="EP194" s="1"/>
+      <c r="EQ194" s="1"/>
+      <c r="ER194" s="1"/>
+      <c r="ES194" s="1"/>
+      <c r="ET194" s="1"/>
+      <c r="EU194" s="1"/>
+      <c r="EV194" s="1"/>
+      <c r="EW194" s="1"/>
+      <c r="EX194" s="1"/>
+      <c r="EY194" s="1"/>
+      <c r="EZ194" s="1"/>
+      <c r="FA194" s="1"/>
+      <c r="FB194" s="1"/>
+      <c r="FC194" s="1"/>
+      <c r="FD194" s="1"/>
+      <c r="FE194" s="1"/>
+      <c r="FF194" s="1"/>
+      <c r="FG194" s="1"/>
+      <c r="FH194" s="1"/>
+      <c r="FI194" s="1"/>
+      <c r="FJ194" s="1"/>
+      <c r="FK194" s="1"/>
+      <c r="FL194" s="1"/>
+      <c r="FM194" s="1"/>
+      <c r="FN194" s="1"/>
+      <c r="FO194" s="1"/>
+      <c r="FP194" s="1"/>
+      <c r="FQ194" s="1"/>
+      <c r="FR194" s="1"/>
+      <c r="FS194" s="1"/>
+      <c r="FT194" s="1"/>
+      <c r="FU194" s="1"/>
+      <c r="FV194" s="1"/>
+      <c r="FW194" s="1"/>
+      <c r="FX194" s="1"/>
+      <c r="FY194" s="1"/>
+      <c r="FZ194" s="1"/>
+      <c r="GA194" s="1"/>
+      <c r="GB194" s="1"/>
+      <c r="GC194" s="1"/>
+      <c r="GD194" s="1"/>
+      <c r="GE194" s="1"/>
+      <c r="GF194" s="1"/>
+      <c r="GG194" s="1"/>
+      <c r="GH194" s="1"/>
+      <c r="GI194" s="1"/>
+      <c r="GJ194" s="1"/>
+      <c r="GK194" s="1"/>
+      <c r="GL194" s="1"/>
+      <c r="GM194" s="1"/>
+      <c r="GN194" s="1"/>
+      <c r="GO194" s="1"/>
+      <c r="GP194" s="1"/>
+      <c r="GQ194" s="1"/>
+      <c r="GR194" s="1"/>
+      <c r="GS194" s="1"/>
+      <c r="GT194" s="1"/>
+      <c r="GU194" s="1"/>
+      <c r="GV194" s="1"/>
+      <c r="GW194" s="1"/>
+      <c r="GX194" s="1"/>
+      <c r="GY194" s="1"/>
+      <c r="GZ194" s="1"/>
+      <c r="HA194" s="1"/>
+      <c r="HB194" s="1"/>
+      <c r="HC194" s="1"/>
+      <c r="HD194" s="1"/>
+      <c r="HE194" s="1"/>
+      <c r="HF194" s="1"/>
+      <c r="HG194" s="1"/>
+      <c r="HH194" s="1"/>
+      <c r="HI194" s="1"/>
+      <c r="HJ194" s="1"/>
+      <c r="HK194" s="1"/>
+      <c r="HL194" s="1"/>
+      <c r="HM194" s="1"/>
+      <c r="HN194" s="1"/>
+      <c r="HO194" s="1"/>
+      <c r="HP194" s="1"/>
+      <c r="HQ194" s="1"/>
+      <c r="HR194" s="1"/>
+      <c r="HS194" s="1"/>
+      <c r="HT194" s="1"/>
+      <c r="HU194" s="1"/>
+      <c r="HV194" s="1"/>
+      <c r="HW194" s="1"/>
+      <c r="HX194" s="1"/>
+      <c r="HY194" s="1"/>
+      <c r="HZ194" s="1"/>
+      <c r="IA194" s="1"/>
+      <c r="IB194" s="1"/>
+      <c r="IC194" s="1"/>
+      <c r="ID194" s="1"/>
+      <c r="IE194" s="1"/>
+      <c r="IF194" s="1"/>
+      <c r="IG194" s="1"/>
+      <c r="IH194" s="1"/>
+      <c r="II194" s="1"/>
+      <c r="IJ194" s="1"/>
+      <c r="IK194" s="1"/>
+      <c r="IL194" s="1"/>
+      <c r="IM194" s="1"/>
+      <c r="IN194" s="1"/>
+      <c r="IO194" s="1"/>
+      <c r="IP194" s="1"/>
+      <c r="IQ194" s="1"/>
+      <c r="IR194" s="1"/>
+      <c r="IS194" s="1"/>
+      <c r="IT194" s="1"/>
+      <c r="IU194" s="1"/>
+      <c r="IV194" s="1"/>
+      <c r="IW194" s="1"/>
+      <c r="IX194" s="1"/>
+    </row>
+    <row r="195" ht="12.8">
+      <c r="E195" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="F195" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="J195" s="14"/>
+      <c r="K195" s="14"/>
+    </row>
+    <row r="196" ht="12.8">
+      <c r="G196" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="I196" s="1">
+        <v>112</v>
+      </c>
+      <c r="J196" s="14" t="s">
+        <v>202</v>
+      </c>
+      <c r="K196" s="14" t="s">
+        <v>203</v>
+      </c>
+      <c r="L196" t="s">
+        <v>202</v>
+      </c>
+      <c r="M196" s="1"/>
+      <c r="N196" s="1"/>
+      <c r="O196" s="1"/>
+      <c r="P196" s="1"/>
+      <c r="Q196" s="1"/>
+      <c r="R196" s="1"/>
+      <c r="S196" s="1"/>
+      <c r="T196" s="1"/>
+      <c r="U196" s="1"/>
+      <c r="V196" s="1"/>
+      <c r="W196" s="1"/>
+      <c r="X196" s="1"/>
+      <c r="Y196" s="1"/>
+      <c r="Z196" s="1"/>
+      <c r="AA196" s="1"/>
+      <c r="AB196" s="1"/>
+      <c r="AC196" s="1"/>
+      <c r="AD196" s="1"/>
+      <c r="AE196" s="1"/>
+      <c r="AF196" s="1"/>
+      <c r="AG196" s="1"/>
+      <c r="AH196" s="1"/>
+      <c r="AI196" s="1"/>
+      <c r="AJ196" s="1"/>
+      <c r="AK196" s="1"/>
+      <c r="AL196" s="1"/>
+      <c r="AM196" s="1"/>
+      <c r="AN196" s="1"/>
+      <c r="AO196" s="1"/>
+      <c r="AP196" s="1"/>
+      <c r="AQ196" s="1"/>
+      <c r="AR196" s="1"/>
+      <c r="AS196" s="1"/>
+      <c r="AT196" s="1"/>
+      <c r="AU196" s="1"/>
+      <c r="AV196" s="1"/>
+      <c r="AW196" s="1"/>
+      <c r="AX196" s="1"/>
+      <c r="AY196" s="1"/>
+      <c r="AZ196" s="1"/>
+      <c r="BA196" s="1"/>
+      <c r="BB196" s="1"/>
+      <c r="BC196" s="1"/>
+      <c r="BD196" s="1"/>
+      <c r="BE196" s="1"/>
+      <c r="BF196" s="1"/>
+      <c r="BG196" s="1"/>
+      <c r="BH196" s="1"/>
+      <c r="BI196" s="1"/>
+      <c r="BJ196" s="1"/>
+      <c r="BK196" s="1"/>
+      <c r="BL196" s="1"/>
+      <c r="BM196" s="1"/>
+      <c r="BN196" s="1"/>
+      <c r="BO196" s="1"/>
+      <c r="BP196" s="1"/>
+      <c r="BQ196" s="1"/>
+      <c r="BR196" s="1"/>
+      <c r="BS196" s="1"/>
+      <c r="BT196" s="1"/>
+      <c r="BU196" s="1"/>
+      <c r="BV196" s="1"/>
+      <c r="BW196" s="1"/>
+      <c r="BX196" s="1"/>
+      <c r="BY196" s="1"/>
+      <c r="BZ196" s="1"/>
+      <c r="CA196" s="1"/>
+      <c r="CB196" s="1"/>
+      <c r="CC196" s="1"/>
+      <c r="CD196" s="1"/>
+      <c r="CE196" s="1"/>
+      <c r="CF196" s="1"/>
+      <c r="CG196" s="1"/>
+      <c r="CH196" s="1"/>
+      <c r="CI196" s="1"/>
+      <c r="CJ196" s="1"/>
+      <c r="CK196" s="1"/>
+      <c r="CL196" s="1"/>
+      <c r="CM196" s="1"/>
+      <c r="CN196" s="1"/>
+      <c r="CO196" s="1"/>
+      <c r="CP196" s="1"/>
+      <c r="CQ196" s="1"/>
+      <c r="CR196" s="1"/>
+      <c r="CS196" s="1"/>
+      <c r="CT196" s="1"/>
+      <c r="CU196" s="1"/>
+      <c r="CV196" s="1"/>
+      <c r="CW196" s="1"/>
+      <c r="CX196" s="1"/>
+      <c r="CY196" s="1"/>
+      <c r="CZ196" s="1"/>
+      <c r="DA196" s="1"/>
+      <c r="DB196" s="1"/>
+      <c r="DC196" s="1"/>
+      <c r="DD196" s="1"/>
+      <c r="DE196" s="1"/>
+      <c r="DF196" s="1"/>
+      <c r="DG196" s="1"/>
+      <c r="DH196" s="1"/>
+      <c r="DI196" s="1"/>
+      <c r="DJ196" s="1"/>
+      <c r="DK196" s="1"/>
+      <c r="DL196" s="1"/>
+      <c r="DM196" s="1"/>
+      <c r="DN196" s="1"/>
+      <c r="DO196" s="1"/>
+      <c r="DP196" s="1"/>
+      <c r="DQ196" s="1"/>
+      <c r="DR196" s="1"/>
+      <c r="DS196" s="1"/>
+      <c r="DT196" s="1"/>
+      <c r="DU196" s="1"/>
+      <c r="DV196" s="1"/>
+      <c r="DW196" s="1"/>
+      <c r="DX196" s="1"/>
+      <c r="DY196" s="1"/>
+      <c r="DZ196" s="1"/>
+      <c r="EA196" s="1"/>
+      <c r="EB196" s="1"/>
+      <c r="EC196" s="1"/>
+      <c r="ED196" s="1"/>
+      <c r="EE196" s="1"/>
+      <c r="EF196" s="1"/>
+      <c r="EG196" s="1"/>
+      <c r="EH196" s="1"/>
+      <c r="EI196" s="1"/>
+      <c r="EJ196" s="1"/>
+      <c r="EK196" s="1"/>
+      <c r="EL196" s="1"/>
+      <c r="EM196" s="1"/>
+      <c r="EN196" s="1"/>
+      <c r="EO196" s="1"/>
+      <c r="EP196" s="1"/>
+      <c r="EQ196" s="1"/>
+      <c r="ER196" s="1"/>
+      <c r="ES196" s="1"/>
+      <c r="ET196" s="1"/>
+      <c r="EU196" s="1"/>
+      <c r="EV196" s="1"/>
+      <c r="EW196" s="1"/>
+      <c r="EX196" s="1"/>
+      <c r="EY196" s="1"/>
+      <c r="EZ196" s="1"/>
+      <c r="FA196" s="1"/>
+      <c r="FB196" s="1"/>
+      <c r="FC196" s="1"/>
+      <c r="FD196" s="1"/>
+      <c r="FE196" s="1"/>
+      <c r="FF196" s="1"/>
+      <c r="FG196" s="1"/>
+      <c r="FH196" s="1"/>
+      <c r="FI196" s="1"/>
+      <c r="FJ196" s="1"/>
+      <c r="FK196" s="1"/>
+      <c r="FL196" s="1"/>
+      <c r="FM196" s="1"/>
+      <c r="FN196" s="1"/>
+      <c r="FO196" s="1"/>
+      <c r="FP196" s="1"/>
+      <c r="FQ196" s="1"/>
+      <c r="FR196" s="1"/>
+      <c r="FS196" s="1"/>
+      <c r="FT196" s="1"/>
+      <c r="FU196" s="1"/>
+      <c r="FV196" s="1"/>
+      <c r="FW196" s="1"/>
+      <c r="FX196" s="1"/>
+      <c r="FY196" s="1"/>
+      <c r="FZ196" s="1"/>
+      <c r="GA196" s="1"/>
+      <c r="GB196" s="1"/>
+      <c r="GC196" s="1"/>
+      <c r="GD196" s="1"/>
+      <c r="GE196" s="1"/>
+      <c r="GF196" s="1"/>
+      <c r="GG196" s="1"/>
+      <c r="GH196" s="1"/>
+      <c r="GI196" s="1"/>
+      <c r="GJ196" s="1"/>
+      <c r="GK196" s="1"/>
+      <c r="GL196" s="1"/>
+      <c r="GM196" s="1"/>
+      <c r="GN196" s="1"/>
+      <c r="GO196" s="1"/>
+      <c r="GP196" s="1"/>
+      <c r="GQ196" s="1"/>
+      <c r="GR196" s="1"/>
+      <c r="GS196" s="1"/>
+      <c r="GT196" s="1"/>
+      <c r="GU196" s="1"/>
+      <c r="GV196" s="1"/>
+      <c r="GW196" s="1"/>
+      <c r="GX196" s="1"/>
+      <c r="GY196" s="1"/>
+      <c r="GZ196" s="1"/>
+      <c r="HA196" s="1"/>
+      <c r="HB196" s="1"/>
+      <c r="HC196" s="1"/>
+      <c r="HD196" s="1"/>
+      <c r="HE196" s="1"/>
+      <c r="HF196" s="1"/>
+      <c r="HG196" s="1"/>
+      <c r="HH196" s="1"/>
+      <c r="HI196" s="1"/>
+      <c r="HJ196" s="1"/>
+      <c r="HK196" s="1"/>
+      <c r="HL196" s="1"/>
+      <c r="HM196" s="1"/>
+      <c r="HN196" s="1"/>
+      <c r="HO196" s="1"/>
+      <c r="HP196" s="1"/>
+      <c r="HQ196" s="1"/>
+      <c r="HR196" s="1"/>
+      <c r="HS196" s="1"/>
+      <c r="HT196" s="1"/>
+      <c r="HU196" s="1"/>
+      <c r="HV196" s="1"/>
+      <c r="HW196" s="1"/>
+      <c r="HX196" s="1"/>
+      <c r="HY196" s="1"/>
+      <c r="HZ196" s="1"/>
+      <c r="IA196" s="1"/>
+      <c r="IB196" s="1"/>
+      <c r="IC196" s="1"/>
+      <c r="ID196" s="1"/>
+      <c r="IE196" s="1"/>
+      <c r="IF196" s="1"/>
+      <c r="IG196" s="1"/>
+      <c r="IH196" s="1"/>
+      <c r="II196" s="1"/>
+      <c r="IJ196" s="1"/>
+      <c r="IK196" s="1"/>
+      <c r="IL196" s="1"/>
+      <c r="IM196" s="1"/>
+      <c r="IN196" s="1"/>
+      <c r="IO196" s="1"/>
+      <c r="IP196" s="1"/>
+      <c r="IQ196" s="1"/>
+      <c r="IR196" s="1"/>
+      <c r="IS196" s="1"/>
+      <c r="IT196" s="1"/>
+      <c r="IU196" s="1"/>
+      <c r="IV196" s="1"/>
+      <c r="IW196" s="1"/>
+      <c r="IX196" s="1"/>
+    </row>
+    <row r="197" ht="12.8">
+      <c r="M197" s="1"/>
+    </row>
+    <row r="198" ht="68.65">
+      <c r="G198" s="6" t="s">
+        <v>222</v>
+      </c>
+      <c r="I198" s="1">
+        <v>113</v>
+      </c>
+      <c r="J198" s="7" t="s">
+        <v>241</v>
+      </c>
+      <c r="K198" s="9" t="s">
+        <v>242</v>
+      </c>
+      <c r="L198" t="s">
+        <v>611</v>
+      </c>
+    </row>
+    <row r="199" ht="57.45">
+      <c r="G199" s="6" t="s">
+        <v>125</v>
+      </c>
+      <c r="I199" s="1">
+        <v>114</v>
+      </c>
+      <c r="J199" s="7" t="s">
+        <v>243</v>
+      </c>
+      <c r="K199" s="9" t="s">
+        <v>244</v>
+      </c>
+      <c r="L199" t="s">
+        <v>612</v>
+      </c>
+    </row>
+    <row r="200" ht="79.85">
+      <c r="G200" s="6" t="s">
+        <v>222</v>
+      </c>
+      <c r="I200" s="1">
+        <v>115</v>
+      </c>
+      <c r="J200" s="7" t="s">
+        <v>245</v>
+      </c>
+      <c r="K200" s="9" t="s">
+        <v>246</v>
+      </c>
+      <c r="L200" t="s">
+        <v>613</v>
+      </c>
+    </row>
+    <row r="201" ht="46.25">
+      <c r="G201" s="6" t="s">
+        <v>222</v>
+      </c>
+      <c r="I201" s="1">
+        <v>116</v>
+      </c>
+      <c r="J201" s="7" t="s">
+        <v>247</v>
+      </c>
+      <c r="K201" s="9" t="s">
+        <v>248</v>
+      </c>
+      <c r="L201" t="s">
+        <v>614</v>
+      </c>
+    </row>
+    <row r="202" ht="35.05">
+      <c r="G202" s="6" t="s">
+        <v>125</v>
+      </c>
+      <c r="I202" s="1">
+        <v>117</v>
+      </c>
+      <c r="J202" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="K202" s="9" t="s">
+        <v>250</v>
+      </c>
+      <c r="L202" t="s">
+        <v>615</v>
+      </c>
+    </row>
+    <row r="203" ht="68.65">
+      <c r="G203" s="6" t="s">
+        <v>222</v>
+      </c>
+      <c r="I203" s="1">
+        <v>118</v>
+      </c>
+      <c r="J203" s="7" t="s">
+        <v>251</v>
+      </c>
+      <c r="K203" s="9" t="s">
+        <v>252</v>
+      </c>
+      <c r="L203" t="s">
+        <v>616</v>
+      </c>
+    </row>
+    <row r="204" ht="68.65">
+      <c r="G204" s="6" t="s">
+        <v>222</v>
+      </c>
+      <c r="I204" s="1">
+        <v>119</v>
+      </c>
+      <c r="J204" s="7" t="s">
+        <v>253</v>
+      </c>
+      <c r="K204" s="9" t="s">
+        <v>254</v>
+      </c>
+      <c r="L204" t="s">
+        <v>617</v>
+      </c>
+    </row>
+    <row r="205" ht="67.9">
+      <c r="G205" s="6" t="s">
+        <v>222</v>
+      </c>
+      <c r="I205" s="1">
+        <v>120</v>
+      </c>
+      <c r="J205" s="7" t="s">
+        <v>255</v>
+      </c>
+      <c r="K205" s="9" t="s">
+        <v>256</v>
+      </c>
+      <c r="L205" t="s">
+        <v>618</v>
+      </c>
+    </row>
+    <row r="206" ht="13.8">
+      <c r="G206" s="6" t="s">
+        <v>125</v>
+      </c>
+      <c r="I206" s="1">
+        <v>121</v>
+      </c>
+      <c r="J206" s="7" t="s">
+        <v>257</v>
+      </c>
+      <c r="K206" s="9" t="s">
+        <v>258</v>
+      </c>
+      <c r="L206" t="s">
+        <v>619</v>
+      </c>
+    </row>
+    <row r="207" ht="13.8">
+      <c r="G207" s="6" t="s">
+        <v>222</v>
+      </c>
+      <c r="I207" s="1">
+        <v>122</v>
+      </c>
+      <c r="J207" s="7" t="s">
+        <v>259</v>
+      </c>
+      <c r="K207" s="9" t="s">
+        <v>260</v>
+      </c>
+      <c r="L207" t="s">
+        <v>620</v>
+      </c>
+    </row>
+    <row r="208" ht="23.85">
+      <c r="G208" s="6" t="s">
+        <v>125</v>
+      </c>
+      <c r="I208" s="1">
+        <v>123</v>
+      </c>
+      <c r="J208" s="7" t="s">
+        <v>261</v>
+      </c>
+      <c r="K208" s="9" t="s">
+        <v>262</v>
+      </c>
+      <c r="L208" t="s">
+        <v>621</v>
+      </c>
+    </row>
+    <row r="209" ht="23.85">
+      <c r="G209" s="6" t="s">
+        <v>222</v>
+      </c>
+      <c r="I209" s="1">
+        <v>124</v>
+      </c>
+      <c r="J209" s="7" t="s">
+        <v>263</v>
+      </c>
+      <c r="K209" s="9" t="s">
+        <v>264</v>
+      </c>
+      <c r="L209" t="s">
+        <v>622</v>
+      </c>
+    </row>
+    <row r="210" ht="35.05">
+      <c r="G210" s="6" t="s">
+        <v>125</v>
+      </c>
+      <c r="I210" s="1">
+        <v>125</v>
+      </c>
+      <c r="J210" s="7" t="s">
+        <v>265</v>
+      </c>
+      <c r="K210" s="9" t="s">
+        <v>266</v>
+      </c>
+      <c r="L210" t="s">
+        <v>623</v>
+      </c>
+    </row>
+    <row r="211" ht="102.2">
+      <c r="G211" s="6" t="s">
+        <v>222</v>
+      </c>
+      <c r="I211" s="1">
+        <v>126</v>
+      </c>
+      <c r="J211" s="7" t="s">
+        <v>267</v>
+      </c>
+      <c r="K211" s="9" t="s">
+        <v>268</v>
+      </c>
+      <c r="L211" t="s">
+        <v>624</v>
+      </c>
+    </row>
+    <row r="212" ht="23.85">
+      <c r="G212" s="6" t="s">
+        <v>125</v>
+      </c>
+      <c r="I212" s="1">
+        <v>127</v>
+      </c>
+      <c r="J212" s="7" t="s">
+        <v>269</v>
+      </c>
+      <c r="K212" s="9" t="s">
+        <v>270</v>
+      </c>
+      <c r="L212" t="s">
+        <v>625</v>
+      </c>
+    </row>
+    <row r="213" ht="23.85">
+      <c r="G213" s="6" t="s">
+        <v>222</v>
+      </c>
+      <c r="I213" s="1">
+        <v>128</v>
+      </c>
+      <c r="J213" s="7" t="s">
+        <v>271</v>
+      </c>
+      <c r="K213" s="9" t="s">
+        <v>272</v>
+      </c>
+      <c r="L213" t="s">
+        <v>626</v>
+      </c>
+    </row>
+    <row r="214" ht="13.8">
+      <c r="G214" s="6" t="s">
+        <v>125</v>
+      </c>
+      <c r="I214" s="1">
+        <v>129</v>
+      </c>
+      <c r="J214" s="7" t="s">
+        <v>273</v>
+      </c>
+      <c r="K214" s="9" t="s">
+        <v>274</v>
+      </c>
+      <c r="L214" t="s">
+        <v>627</v>
+      </c>
+    </row>
+    <row r="215" ht="13.8">
+      <c r="G215" s="6" t="s">
+        <v>222</v>
+      </c>
+      <c r="I215" s="1">
+        <v>130</v>
+      </c>
+      <c r="J215" s="15" t="s">
+        <v>60</v>
+      </c>
+      <c r="K215" s="9" t="s">
+        <v>112</v>
+      </c>
+      <c r="L215" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="216" ht="13.8">
+      <c r="G216" s="6" t="s">
+        <v>222</v>
+      </c>
+      <c r="I216" s="1">
+        <v>131</v>
+      </c>
+      <c r="J216" s="7" t="s">
+        <v>275</v>
+      </c>
+      <c r="K216" s="9" t="s">
+        <v>276</v>
+      </c>
+      <c r="L216" t="s">
+        <v>628</v>
+      </c>
+    </row>
+    <row r="217" ht="46.25">
+      <c r="G217" s="6" t="s">
+        <v>125</v>
+      </c>
+      <c r="I217" s="1">
+        <v>132</v>
+      </c>
+      <c r="J217" s="7" t="s">
+        <v>277</v>
+      </c>
+      <c r="K217" s="9" t="s">
+        <v>278</v>
+      </c>
+      <c r="L217" t="s">
+        <v>629</v>
+      </c>
+    </row>
+    <row r="218" ht="13.8">
+      <c r="G218" s="6"/>
+      <c r="J218" s="7"/>
+      <c r="K218" s="9"/>
+    </row>
+    <row r="219" ht="13.8">
+      <c r="E219" s="6" t="s">
+        <v>81</v>
+      </c>
+      <c r="F219" s="6">
+        <v>1</v>
+      </c>
+      <c r="J219" s="7"/>
+      <c r="K219" s="9"/>
+    </row>
+    <row r="220" ht="13.8">
+      <c r="E220" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="F220" s="1">
+        <v>35</v>
+      </c>
+      <c r="J220" s="7"/>
+      <c r="K220" s="9"/>
+    </row>
+    <row r="221" ht="13.8">
+      <c r="E221" s="6" t="s">
+        <v>85</v>
+      </c>
+      <c r="F221" s="6">
+        <v>3</v>
+      </c>
+      <c r="G221" s="6"/>
+      <c r="J221" s="7"/>
+      <c r="K221" s="9"/>
+    </row>
+    <row r="222" ht="13.8">
+      <c r="E222" s="6"/>
+      <c r="F222" s="6"/>
+      <c r="G222" s="6" t="s">
+        <v>222</v>
+      </c>
+      <c r="I222" s="1">
+        <v>133</v>
+      </c>
+      <c r="J222" s="7" t="s">
+        <v>279</v>
+      </c>
+      <c r="K222" s="9" t="s">
+        <v>280</v>
+      </c>
+      <c r="L222" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="223" ht="57.45">
+      <c r="E223" s="6"/>
+      <c r="F223" s="6"/>
+      <c r="G223" s="6" t="s">
+        <v>281</v>
+      </c>
+      <c r="I223" s="1">
+        <v>134</v>
+      </c>
+      <c r="J223" s="7" t="s">
+        <v>282</v>
+      </c>
+      <c r="K223" s="9" t="s">
+        <v>283</v>
+      </c>
+      <c r="L223" t="s">
+        <v>630</v>
+      </c>
+    </row>
+    <row r="224" ht="23.85">
+      <c r="E224" s="6"/>
+      <c r="F224" s="6"/>
+      <c r="G224" s="6" t="s">
+        <v>222</v>
+      </c>
+      <c r="I224" s="1">
+        <v>135</v>
+      </c>
+      <c r="J224" s="7" t="s">
+        <v>284</v>
+      </c>
+      <c r="K224" s="9" t="s">
+        <v>285</v>
+      </c>
+      <c r="L224" t="s">
+        <v>631</v>
+      </c>
+    </row>
+    <row r="225" ht="13.8">
+      <c r="E225" s="6"/>
+      <c r="F225" s="6"/>
+      <c r="G225" s="6" t="s">
+        <v>222</v>
+      </c>
+      <c r="I225" s="1">
+        <v>136</v>
+      </c>
+      <c r="J225" s="7" t="s">
+        <v>286</v>
+      </c>
+      <c r="K225" s="9" t="s">
+        <v>287</v>
+      </c>
+      <c r="L225" t="s">
+        <v>632</v>
+      </c>
+    </row>
+    <row r="226" ht="13.8">
+      <c r="E226" s="6"/>
+      <c r="F226" s="6"/>
+      <c r="G226" s="6" t="s">
+        <v>222</v>
+      </c>
+      <c r="I226" s="1">
+        <v>137</v>
+      </c>
+      <c r="J226" s="15" t="s">
+        <v>288</v>
+      </c>
+      <c r="K226" s="9" t="s">
+        <v>289</v>
+      </c>
+      <c r="L226" t="s">
+        <v>633</v>
+      </c>
+    </row>
+    <row r="227" ht="102.2">
+      <c r="E227" s="6"/>
+      <c r="F227" s="6"/>
+      <c r="G227" s="6" t="s">
+        <v>222</v>
+      </c>
+      <c r="I227" s="1">
+        <v>138</v>
+      </c>
+      <c r="J227" s="5" t="s">
+        <v>290</v>
+      </c>
+      <c r="K227" s="9" t="s">
+        <v>291</v>
+      </c>
+      <c r="L227" t="s">
+        <v>634</v>
+      </c>
+    </row>
+    <row r="228" ht="13.8">
+      <c r="E228" s="6"/>
+      <c r="F228" s="6"/>
+      <c r="G228" s="6"/>
+      <c r="J228" s="7"/>
+      <c r="K228" s="9"/>
+    </row>
+    <row r="229" ht="13.8">
+      <c r="E229" s="6" t="s">
+        <v>81</v>
+      </c>
+      <c r="F229" s="6">
+        <v>3</v>
+      </c>
+      <c r="G229" s="6"/>
+      <c r="J229" s="12"/>
+      <c r="K229" s="9"/>
+    </row>
+    <row r="230" ht="13.8">
+      <c r="E230" s="1" t="s">
+        <v>239</v>
+      </c>
+      <c r="F230" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="G230" s="6"/>
+      <c r="J230" s="12"/>
+      <c r="K230" s="9"/>
+    </row>
+    <row r="231" ht="13.8">
+      <c r="G231" s="6"/>
+      <c r="J231" s="12"/>
+      <c r="K231" s="9"/>
+    </row>
+    <row r="232" ht="12.8">
+      <c r="E232" s="1" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="234" ht="12.8">
+      <c r="A234" s="1" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="235" ht="12.8">
+      <c r="E235" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="F235" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="J235" s="14"/>
+      <c r="K235" s="14"/>
+    </row>
+    <row r="236" ht="12.8">
+      <c r="E236" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="F236" s="1" t="s">
+        <v>201</v>
+      </c>
+      <c r="J236" s="14"/>
+      <c r="K236" s="14"/>
+    </row>
+    <row r="237" ht="12.8">
+      <c r="E237" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="F237" s="1">
+        <v>13</v>
+      </c>
+      <c r="J237" s="14"/>
+      <c r="K237" s="14"/>
+      <c r="M237" s="1"/>
+      <c r="N237" s="1"/>
+      <c r="O237" s="1"/>
+      <c r="P237" s="1"/>
+      <c r="Q237" s="1"/>
+      <c r="R237" s="1"/>
+      <c r="S237" s="1"/>
+      <c r="T237" s="1"/>
+      <c r="U237" s="1"/>
+      <c r="V237" s="1"/>
+      <c r="W237" s="1"/>
+      <c r="X237" s="1"/>
+      <c r="Y237" s="1"/>
+      <c r="Z237" s="1"/>
+      <c r="AA237" s="1"/>
+      <c r="AB237" s="1"/>
+      <c r="AC237" s="1"/>
+      <c r="AD237" s="1"/>
+      <c r="AE237" s="1"/>
+      <c r="AF237" s="1"/>
+      <c r="AG237" s="1"/>
+      <c r="AH237" s="1"/>
+      <c r="AI237" s="1"/>
+      <c r="AJ237" s="1"/>
+      <c r="AK237" s="1"/>
+      <c r="AL237" s="1"/>
+      <c r="AM237" s="1"/>
+      <c r="AN237" s="1"/>
+      <c r="AO237" s="1"/>
+      <c r="AP237" s="1"/>
+      <c r="AQ237" s="1"/>
+      <c r="AR237" s="1"/>
+      <c r="AS237" s="1"/>
+      <c r="AT237" s="1"/>
+      <c r="AU237" s="1"/>
+      <c r="AV237" s="1"/>
+      <c r="AW237" s="1"/>
+      <c r="AX237" s="1"/>
+      <c r="AY237" s="1"/>
+      <c r="AZ237" s="1"/>
+      <c r="BA237" s="1"/>
+      <c r="BB237" s="1"/>
+      <c r="BC237" s="1"/>
+      <c r="BD237" s="1"/>
+      <c r="BE237" s="1"/>
+      <c r="BF237" s="1"/>
+      <c r="BG237" s="1"/>
+      <c r="BH237" s="1"/>
+      <c r="BI237" s="1"/>
+      <c r="BJ237" s="1"/>
+      <c r="BK237" s="1"/>
+      <c r="BL237" s="1"/>
+      <c r="BM237" s="1"/>
+      <c r="BN237" s="1"/>
+      <c r="BO237" s="1"/>
+      <c r="BP237" s="1"/>
+      <c r="BQ237" s="1"/>
+      <c r="BR237" s="1"/>
+      <c r="BS237" s="1"/>
+      <c r="BT237" s="1"/>
+      <c r="BU237" s="1"/>
+      <c r="BV237" s="1"/>
+      <c r="BW237" s="1"/>
+      <c r="BX237" s="1"/>
+      <c r="BY237" s="1"/>
+      <c r="BZ237" s="1"/>
+      <c r="CA237" s="1"/>
+      <c r="CB237" s="1"/>
+      <c r="CC237" s="1"/>
+      <c r="CD237" s="1"/>
+      <c r="CE237" s="1"/>
+      <c r="CF237" s="1"/>
+      <c r="CG237" s="1"/>
+      <c r="CH237" s="1"/>
+      <c r="CI237" s="1"/>
+      <c r="CJ237" s="1"/>
+      <c r="CK237" s="1"/>
+      <c r="CL237" s="1"/>
+      <c r="CM237" s="1"/>
+      <c r="CN237" s="1"/>
+      <c r="CO237" s="1"/>
+      <c r="CP237" s="1"/>
+      <c r="CQ237" s="1"/>
+      <c r="CR237" s="1"/>
+      <c r="CS237" s="1"/>
+      <c r="CT237" s="1"/>
+      <c r="CU237" s="1"/>
+      <c r="CV237" s="1"/>
+      <c r="CW237" s="1"/>
+      <c r="CX237" s="1"/>
+      <c r="CY237" s="1"/>
+      <c r="CZ237" s="1"/>
+      <c r="DA237" s="1"/>
+      <c r="DB237" s="1"/>
+      <c r="DC237" s="1"/>
+      <c r="DD237" s="1"/>
+      <c r="DE237" s="1"/>
+      <c r="DF237" s="1"/>
+      <c r="DG237" s="1"/>
+      <c r="DH237" s="1"/>
+      <c r="DI237" s="1"/>
+      <c r="DJ237" s="1"/>
+      <c r="DK237" s="1"/>
+      <c r="DL237" s="1"/>
+      <c r="DM237" s="1"/>
+      <c r="DN237" s="1"/>
+      <c r="DO237" s="1"/>
+      <c r="DP237" s="1"/>
+      <c r="DQ237" s="1"/>
+      <c r="DR237" s="1"/>
+      <c r="DS237" s="1"/>
+      <c r="DT237" s="1"/>
+      <c r="DU237" s="1"/>
+      <c r="DV237" s="1"/>
+      <c r="DW237" s="1"/>
+      <c r="DX237" s="1"/>
+      <c r="DY237" s="1"/>
+      <c r="DZ237" s="1"/>
+      <c r="EA237" s="1"/>
+      <c r="EB237" s="1"/>
+      <c r="EC237" s="1"/>
+      <c r="ED237" s="1"/>
+      <c r="EE237" s="1"/>
+      <c r="EF237" s="1"/>
+      <c r="EG237" s="1"/>
+      <c r="EH237" s="1"/>
+      <c r="EI237" s="1"/>
+      <c r="EJ237" s="1"/>
+      <c r="EK237" s="1"/>
+      <c r="EL237" s="1"/>
+      <c r="EM237" s="1"/>
+      <c r="EN237" s="1"/>
+      <c r="EO237" s="1"/>
+      <c r="EP237" s="1"/>
+      <c r="EQ237" s="1"/>
+      <c r="ER237" s="1"/>
+      <c r="ES237" s="1"/>
+      <c r="ET237" s="1"/>
+      <c r="EU237" s="1"/>
+      <c r="EV237" s="1"/>
+      <c r="EW237" s="1"/>
+      <c r="EX237" s="1"/>
+      <c r="EY237" s="1"/>
+      <c r="EZ237" s="1"/>
+      <c r="FA237" s="1"/>
+      <c r="FB237" s="1"/>
+      <c r="FC237" s="1"/>
+      <c r="FD237" s="1"/>
+      <c r="FE237" s="1"/>
+      <c r="FF237" s="1"/>
+      <c r="FG237" s="1"/>
+      <c r="FH237" s="1"/>
+      <c r="FI237" s="1"/>
+      <c r="FJ237" s="1"/>
+      <c r="FK237" s="1"/>
+      <c r="FL237" s="1"/>
+      <c r="FM237" s="1"/>
+      <c r="FN237" s="1"/>
+      <c r="FO237" s="1"/>
+      <c r="FP237" s="1"/>
+      <c r="FQ237" s="1"/>
+      <c r="FR237" s="1"/>
+      <c r="FS237" s="1"/>
+      <c r="FT237" s="1"/>
+      <c r="FU237" s="1"/>
+      <c r="FV237" s="1"/>
+      <c r="FW237" s="1"/>
+      <c r="FX237" s="1"/>
+      <c r="FY237" s="1"/>
+      <c r="FZ237" s="1"/>
+      <c r="GA237" s="1"/>
+      <c r="GB237" s="1"/>
+      <c r="GC237" s="1"/>
+      <c r="GD237" s="1"/>
+      <c r="GE237" s="1"/>
+      <c r="GF237" s="1"/>
+      <c r="GG237" s="1"/>
+      <c r="GH237" s="1"/>
+      <c r="GI237" s="1"/>
+      <c r="GJ237" s="1"/>
+      <c r="GK237" s="1"/>
+      <c r="GL237" s="1"/>
+      <c r="GM237" s="1"/>
+      <c r="GN237" s="1"/>
+      <c r="GO237" s="1"/>
+      <c r="GP237" s="1"/>
+      <c r="GQ237" s="1"/>
+      <c r="GR237" s="1"/>
+      <c r="GS237" s="1"/>
+      <c r="GT237" s="1"/>
+      <c r="GU237" s="1"/>
+      <c r="GV237" s="1"/>
+      <c r="GW237" s="1"/>
+      <c r="GX237" s="1"/>
+      <c r="GY237" s="1"/>
+      <c r="GZ237" s="1"/>
+      <c r="HA237" s="1"/>
+      <c r="HB237" s="1"/>
+      <c r="HC237" s="1"/>
+      <c r="HD237" s="1"/>
+      <c r="HE237" s="1"/>
+      <c r="HF237" s="1"/>
+      <c r="HG237" s="1"/>
+      <c r="HH237" s="1"/>
+      <c r="HI237" s="1"/>
+      <c r="HJ237" s="1"/>
+      <c r="HK237" s="1"/>
+      <c r="HL237" s="1"/>
+      <c r="HM237" s="1"/>
+      <c r="HN237" s="1"/>
+      <c r="HO237" s="1"/>
+      <c r="HP237" s="1"/>
+      <c r="HQ237" s="1"/>
+      <c r="HR237" s="1"/>
+      <c r="HS237" s="1"/>
+      <c r="HT237" s="1"/>
+      <c r="HU237" s="1"/>
+      <c r="HV237" s="1"/>
+      <c r="HW237" s="1"/>
+      <c r="HX237" s="1"/>
+      <c r="HY237" s="1"/>
+      <c r="HZ237" s="1"/>
+      <c r="IA237" s="1"/>
+      <c r="IB237" s="1"/>
+      <c r="IC237" s="1"/>
+      <c r="ID237" s="1"/>
+      <c r="IE237" s="1"/>
+      <c r="IF237" s="1"/>
+      <c r="IG237" s="1"/>
+      <c r="IH237" s="1"/>
+      <c r="II237" s="1"/>
+      <c r="IJ237" s="1"/>
+      <c r="IK237" s="1"/>
+      <c r="IL237" s="1"/>
+      <c r="IM237" s="1"/>
+      <c r="IN237" s="1"/>
+      <c r="IO237" s="1"/>
+      <c r="IP237" s="1"/>
+      <c r="IQ237" s="1"/>
+      <c r="IR237" s="1"/>
+      <c r="IS237" s="1"/>
+      <c r="IT237" s="1"/>
+      <c r="IU237" s="1"/>
+      <c r="IV237" s="1"/>
+      <c r="IW237" s="1"/>
+      <c r="IX237" s="1"/>
+    </row>
+    <row r="238" ht="12.8">
+      <c r="E238" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="F238" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="J238" s="14"/>
+      <c r="K238" s="14"/>
+    </row>
+    <row r="239" ht="12.8">
+      <c r="G239" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="I239" s="1">
+        <v>139</v>
+      </c>
+      <c r="J239" s="14" t="s">
+        <v>202</v>
+      </c>
+      <c r="K239" s="14" t="s">
+        <v>203</v>
+      </c>
+      <c r="L239" t="s">
+        <v>202</v>
+      </c>
+      <c r="M239" s="1"/>
+      <c r="N239" s="1"/>
+      <c r="O239" s="1"/>
+      <c r="P239" s="1"/>
+      <c r="Q239" s="1"/>
+      <c r="R239" s="1"/>
+      <c r="S239" s="1"/>
+      <c r="T239" s="1"/>
+      <c r="U239" s="1"/>
+      <c r="V239" s="1"/>
+      <c r="W239" s="1"/>
+      <c r="X239" s="1"/>
+      <c r="Y239" s="1"/>
+      <c r="Z239" s="1"/>
+      <c r="AA239" s="1"/>
+      <c r="AB239" s="1"/>
+      <c r="AC239" s="1"/>
+      <c r="AD239" s="1"/>
+      <c r="AE239" s="1"/>
+      <c r="AF239" s="1"/>
+      <c r="AG239" s="1"/>
+      <c r="AH239" s="1"/>
+      <c r="AI239" s="1"/>
+      <c r="AJ239" s="1"/>
+      <c r="AK239" s="1"/>
+      <c r="AL239" s="1"/>
+      <c r="AM239" s="1"/>
+      <c r="AN239" s="1"/>
+      <c r="AO239" s="1"/>
+      <c r="AP239" s="1"/>
+      <c r="AQ239" s="1"/>
+      <c r="AR239" s="1"/>
+      <c r="AS239" s="1"/>
+      <c r="AT239" s="1"/>
+      <c r="AU239" s="1"/>
+      <c r="AV239" s="1"/>
+      <c r="AW239" s="1"/>
+      <c r="AX239" s="1"/>
+      <c r="AY239" s="1"/>
+      <c r="AZ239" s="1"/>
+      <c r="BA239" s="1"/>
+      <c r="BB239" s="1"/>
+      <c r="BC239" s="1"/>
+      <c r="BD239" s="1"/>
+      <c r="BE239" s="1"/>
+      <c r="BF239" s="1"/>
+      <c r="BG239" s="1"/>
+      <c r="BH239" s="1"/>
+      <c r="BI239" s="1"/>
+      <c r="BJ239" s="1"/>
+      <c r="BK239" s="1"/>
+      <c r="BL239" s="1"/>
+      <c r="BM239" s="1"/>
+      <c r="BN239" s="1"/>
+      <c r="BO239" s="1"/>
+      <c r="BP239" s="1"/>
+      <c r="BQ239" s="1"/>
+      <c r="BR239" s="1"/>
+      <c r="BS239" s="1"/>
+      <c r="BT239" s="1"/>
+      <c r="BU239" s="1"/>
+      <c r="BV239" s="1"/>
+      <c r="BW239" s="1"/>
+      <c r="BX239" s="1"/>
+      <c r="BY239" s="1"/>
+      <c r="BZ239" s="1"/>
+      <c r="CA239" s="1"/>
+      <c r="CB239" s="1"/>
+      <c r="CC239" s="1"/>
+      <c r="CD239" s="1"/>
+      <c r="CE239" s="1"/>
+      <c r="CF239" s="1"/>
+      <c r="CG239" s="1"/>
+      <c r="CH239" s="1"/>
+      <c r="CI239" s="1"/>
+      <c r="CJ239" s="1"/>
+      <c r="CK239" s="1"/>
+      <c r="CL239" s="1"/>
+      <c r="CM239" s="1"/>
+      <c r="CN239" s="1"/>
+      <c r="CO239" s="1"/>
+      <c r="CP239" s="1"/>
+      <c r="CQ239" s="1"/>
+      <c r="CR239" s="1"/>
+      <c r="CS239" s="1"/>
+      <c r="CT239" s="1"/>
+      <c r="CU239" s="1"/>
+      <c r="CV239" s="1"/>
+      <c r="CW239" s="1"/>
+      <c r="CX239" s="1"/>
+      <c r="CY239" s="1"/>
+      <c r="CZ239" s="1"/>
+      <c r="DA239" s="1"/>
+      <c r="DB239" s="1"/>
+      <c r="DC239" s="1"/>
+      <c r="DD239" s="1"/>
+      <c r="DE239" s="1"/>
+      <c r="DF239" s="1"/>
+      <c r="DG239" s="1"/>
+      <c r="DH239" s="1"/>
+      <c r="DI239" s="1"/>
+      <c r="DJ239" s="1"/>
+      <c r="DK239" s="1"/>
+      <c r="DL239" s="1"/>
+      <c r="DM239" s="1"/>
+      <c r="DN239" s="1"/>
+      <c r="DO239" s="1"/>
+      <c r="DP239" s="1"/>
+      <c r="DQ239" s="1"/>
+      <c r="DR239" s="1"/>
+      <c r="DS239" s="1"/>
+      <c r="DT239" s="1"/>
+      <c r="DU239" s="1"/>
+      <c r="DV239" s="1"/>
+      <c r="DW239" s="1"/>
+      <c r="DX239" s="1"/>
+      <c r="DY239" s="1"/>
+      <c r="DZ239" s="1"/>
+      <c r="EA239" s="1"/>
+      <c r="EB239" s="1"/>
+      <c r="EC239" s="1"/>
+      <c r="ED239" s="1"/>
+      <c r="EE239" s="1"/>
+      <c r="EF239" s="1"/>
+      <c r="EG239" s="1"/>
+      <c r="EH239" s="1"/>
+      <c r="EI239" s="1"/>
+      <c r="EJ239" s="1"/>
+      <c r="EK239" s="1"/>
+      <c r="EL239" s="1"/>
+      <c r="EM239" s="1"/>
+      <c r="EN239" s="1"/>
+      <c r="EO239" s="1"/>
+      <c r="EP239" s="1"/>
+      <c r="EQ239" s="1"/>
+      <c r="ER239" s="1"/>
+      <c r="ES239" s="1"/>
+      <c r="ET239" s="1"/>
+      <c r="EU239" s="1"/>
+      <c r="EV239" s="1"/>
+      <c r="EW239" s="1"/>
+      <c r="EX239" s="1"/>
+      <c r="EY239" s="1"/>
+      <c r="EZ239" s="1"/>
+      <c r="FA239" s="1"/>
+      <c r="FB239" s="1"/>
+      <c r="FC239" s="1"/>
+      <c r="FD239" s="1"/>
+      <c r="FE239" s="1"/>
+      <c r="FF239" s="1"/>
+      <c r="FG239" s="1"/>
+      <c r="FH239" s="1"/>
+      <c r="FI239" s="1"/>
+      <c r="FJ239" s="1"/>
+      <c r="FK239" s="1"/>
+      <c r="FL239" s="1"/>
+      <c r="FM239" s="1"/>
+      <c r="FN239" s="1"/>
+      <c r="FO239" s="1"/>
+      <c r="FP239" s="1"/>
+      <c r="FQ239" s="1"/>
+      <c r="FR239" s="1"/>
+      <c r="FS239" s="1"/>
+      <c r="FT239" s="1"/>
+      <c r="FU239" s="1"/>
+      <c r="FV239" s="1"/>
+      <c r="FW239" s="1"/>
+      <c r="FX239" s="1"/>
+      <c r="FY239" s="1"/>
+      <c r="FZ239" s="1"/>
+      <c r="GA239" s="1"/>
+      <c r="GB239" s="1"/>
+      <c r="GC239" s="1"/>
+      <c r="GD239" s="1"/>
+      <c r="GE239" s="1"/>
+      <c r="GF239" s="1"/>
+      <c r="GG239" s="1"/>
+      <c r="GH239" s="1"/>
+      <c r="GI239" s="1"/>
+      <c r="GJ239" s="1"/>
+      <c r="GK239" s="1"/>
+      <c r="GL239" s="1"/>
+      <c r="GM239" s="1"/>
+      <c r="GN239" s="1"/>
+      <c r="GO239" s="1"/>
+      <c r="GP239" s="1"/>
+      <c r="GQ239" s="1"/>
+      <c r="GR239" s="1"/>
+      <c r="GS239" s="1"/>
+      <c r="GT239" s="1"/>
+      <c r="GU239" s="1"/>
+      <c r="GV239" s="1"/>
+      <c r="GW239" s="1"/>
+      <c r="GX239" s="1"/>
+      <c r="GY239" s="1"/>
+      <c r="GZ239" s="1"/>
+      <c r="HA239" s="1"/>
+      <c r="HB239" s="1"/>
+      <c r="HC239" s="1"/>
+      <c r="HD239" s="1"/>
+      <c r="HE239" s="1"/>
+      <c r="HF239" s="1"/>
+      <c r="HG239" s="1"/>
+      <c r="HH239" s="1"/>
+      <c r="HI239" s="1"/>
+      <c r="HJ239" s="1"/>
+      <c r="HK239" s="1"/>
+      <c r="HL239" s="1"/>
+      <c r="HM239" s="1"/>
+      <c r="HN239" s="1"/>
+      <c r="HO239" s="1"/>
+      <c r="HP239" s="1"/>
+      <c r="HQ239" s="1"/>
+      <c r="HR239" s="1"/>
+      <c r="HS239" s="1"/>
+      <c r="HT239" s="1"/>
+      <c r="HU239" s="1"/>
+      <c r="HV239" s="1"/>
+      <c r="HW239" s="1"/>
+      <c r="HX239" s="1"/>
+      <c r="HY239" s="1"/>
+      <c r="HZ239" s="1"/>
+      <c r="IA239" s="1"/>
+      <c r="IB239" s="1"/>
+      <c r="IC239" s="1"/>
+      <c r="ID239" s="1"/>
+      <c r="IE239" s="1"/>
+      <c r="IF239" s="1"/>
+      <c r="IG239" s="1"/>
+      <c r="IH239" s="1"/>
+      <c r="II239" s="1"/>
+      <c r="IJ239" s="1"/>
+      <c r="IK239" s="1"/>
+      <c r="IL239" s="1"/>
+      <c r="IM239" s="1"/>
+      <c r="IN239" s="1"/>
+      <c r="IO239" s="1"/>
+      <c r="IP239" s="1"/>
+      <c r="IQ239" s="1"/>
+      <c r="IR239" s="1"/>
+      <c r="IS239" s="1"/>
+      <c r="IT239" s="1"/>
+      <c r="IU239" s="1"/>
+      <c r="IV239" s="1"/>
+      <c r="IW239" s="1"/>
+      <c r="IX239" s="1"/>
+    </row>
+    <row r="240" ht="12.8">
+      <c r="M240" s="1"/>
+    </row>
+    <row r="241" ht="79.85">
+      <c r="G241" s="6" t="s">
+        <v>222</v>
+      </c>
+      <c r="I241" s="1">
+        <v>140</v>
+      </c>
+      <c r="J241" s="7" t="s">
+        <v>293</v>
+      </c>
+      <c r="K241" s="9" t="s">
+        <v>294</v>
+      </c>
+      <c r="L241" t="s">
+        <v>635</v>
+      </c>
+    </row>
+    <row r="242" ht="91">
+      <c r="G242" s="6" t="s">
+        <v>222</v>
+      </c>
+      <c r="I242" s="1">
+        <v>141</v>
+      </c>
+      <c r="J242" s="7" t="s">
+        <v>295</v>
+      </c>
+      <c r="K242" s="9" t="s">
+        <v>296</v>
+      </c>
+      <c r="L242" t="s">
+        <v>636</v>
+      </c>
+    </row>
+    <row r="243" ht="68.65">
+      <c r="G243" s="6" t="s">
+        <v>222</v>
+      </c>
+      <c r="I243" s="1">
+        <v>142</v>
+      </c>
+      <c r="J243" s="7" t="s">
+        <v>297</v>
+      </c>
+      <c r="K243" s="9" t="s">
+        <v>298</v>
+      </c>
+      <c r="L243" t="s">
+        <v>637</v>
+      </c>
+    </row>
+    <row r="244" ht="46.25">
+      <c r="G244" s="6" t="s">
+        <v>125</v>
+      </c>
+      <c r="I244" s="1">
+        <v>143</v>
+      </c>
+      <c r="J244" s="7" t="s">
+        <v>299</v>
+      </c>
+      <c r="K244" s="9" t="s">
+        <v>300</v>
+      </c>
+      <c r="L244" t="s">
+        <v>638</v>
+      </c>
+    </row>
+    <row r="245" ht="113.4">
+      <c r="G245" s="6" t="s">
+        <v>125</v>
+      </c>
+      <c r="I245" s="1">
+        <v>144</v>
+      </c>
+      <c r="J245" s="7" t="s">
+        <v>301</v>
+      </c>
+      <c r="K245" s="9" t="s">
+        <v>302</v>
+      </c>
+      <c r="L245" t="s">
+        <v>639</v>
+      </c>
+    </row>
+    <row r="246" ht="46.25">
+      <c r="G246" s="6" t="s">
+        <v>125</v>
+      </c>
+      <c r="I246" s="1">
+        <v>145</v>
+      </c>
+      <c r="J246" s="7" t="s">
+        <v>303</v>
+      </c>
+      <c r="K246" s="9" t="s">
+        <v>304</v>
+      </c>
+      <c r="L246" t="s">
+        <v>640</v>
+      </c>
+    </row>
+    <row r="247" ht="68.65">
+      <c r="G247" s="6" t="s">
+        <v>125</v>
+      </c>
+      <c r="I247" s="1">
+        <v>146</v>
+      </c>
+      <c r="J247" s="7" t="s">
+        <v>305</v>
+      </c>
+      <c r="K247" s="9" t="s">
+        <v>306</v>
+      </c>
+      <c r="L247" t="s">
+        <v>641</v>
+      </c>
+    </row>
+    <row r="248" ht="23.85">
+      <c r="G248" s="6" t="s">
+        <v>222</v>
+      </c>
+      <c r="I248" s="1">
+        <v>147</v>
+      </c>
+      <c r="J248" s="7" t="s">
+        <v>307</v>
+      </c>
+      <c r="K248" s="9" t="s">
+        <v>308</v>
+      </c>
+      <c r="L248" t="s">
+        <v>642</v>
+      </c>
+    </row>
+    <row r="249" ht="13.8">
+      <c r="G249" s="6" t="s">
+        <v>125</v>
+      </c>
+      <c r="I249" s="1">
+        <v>148</v>
+      </c>
+      <c r="J249" s="7" t="s">
+        <v>309</v>
+      </c>
+      <c r="K249" s="9" t="s">
+        <v>310</v>
+      </c>
+      <c r="L249" t="s">
+        <v>643</v>
+      </c>
+    </row>
+    <row r="250" ht="57.45">
+      <c r="G250" s="6" t="s">
+        <v>222</v>
+      </c>
+      <c r="I250" s="1">
+        <v>149</v>
+      </c>
+      <c r="J250" s="7" t="s">
+        <v>311</v>
+      </c>
+      <c r="K250" s="9" t="s">
+        <v>312</v>
+      </c>
+      <c r="L250" t="s">
+        <v>644</v>
+      </c>
+    </row>
+    <row r="251" ht="57.45">
+      <c r="G251" s="6" t="s">
+        <v>222</v>
+      </c>
+      <c r="I251" s="1">
+        <v>150</v>
+      </c>
+      <c r="J251" s="7" t="s">
+        <v>313</v>
+      </c>
+      <c r="K251" s="9" t="s">
+        <v>314</v>
+      </c>
+      <c r="L251" t="s">
+        <v>645</v>
+      </c>
+    </row>
+    <row r="252" ht="35.05">
+      <c r="G252" s="6" t="s">
+        <v>125</v>
+      </c>
+      <c r="I252" s="1">
+        <v>151</v>
+      </c>
+      <c r="J252" s="7" t="s">
+        <v>315</v>
+      </c>
+      <c r="K252" s="9" t="s">
+        <v>316</v>
+      </c>
+      <c r="L252" t="s">
+        <v>646</v>
+      </c>
+    </row>
+    <row r="253" ht="13.8">
+      <c r="G253" s="6" t="s">
+        <v>222</v>
+      </c>
+      <c r="I253" s="1">
+        <v>152</v>
+      </c>
+      <c r="J253" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="K253" s="9" t="s">
+        <v>112</v>
+      </c>
+      <c r="L253" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="254" ht="68.65">
+      <c r="G254" s="6" t="s">
+        <v>222</v>
+      </c>
+      <c r="I254" s="1">
+        <v>153</v>
+      </c>
+      <c r="J254" s="7" t="s">
+        <v>317</v>
+      </c>
+      <c r="K254" s="9" t="s">
+        <v>318</v>
+      </c>
+      <c r="L254" t="s">
+        <v>647</v>
+      </c>
+    </row>
+    <row r="255" ht="57.45">
+      <c r="G255" s="6" t="s">
+        <v>222</v>
+      </c>
+      <c r="I255" s="1">
+        <v>154</v>
+      </c>
+      <c r="J255" s="7" t="s">
+        <v>319</v>
+      </c>
+      <c r="K255" s="9" t="s">
+        <v>320</v>
+      </c>
+      <c r="L255" t="s">
+        <v>648</v>
+      </c>
+    </row>
+    <row r="256" ht="13.8">
+      <c r="G256" s="6" t="s">
+        <v>125</v>
+      </c>
+      <c r="I256" s="1">
+        <v>155</v>
+      </c>
+      <c r="J256" s="7" t="s">
+        <v>321</v>
+      </c>
+      <c r="K256" s="9" t="s">
+        <v>322</v>
+      </c>
+      <c r="L256" t="s">
+        <v>649</v>
+      </c>
+    </row>
+    <row r="257" ht="79.85">
+      <c r="G257" s="6" t="s">
+        <v>222</v>
+      </c>
+      <c r="I257" s="1">
+        <v>156</v>
+      </c>
+      <c r="J257" s="7" t="s">
+        <v>323</v>
+      </c>
+      <c r="K257" s="9" t="s">
+        <v>324</v>
+      </c>
+      <c r="L257" t="s">
+        <v>650</v>
+      </c>
+    </row>
+    <row r="258" ht="13.8">
+      <c r="G258" s="6" t="s">
+        <v>125</v>
+      </c>
+      <c r="I258" s="1">
+        <v>157</v>
+      </c>
+      <c r="J258" s="7" t="s">
+        <v>325</v>
+      </c>
+      <c r="K258" s="9" t="s">
+        <v>326</v>
+      </c>
+      <c r="L258" t="s">
+        <v>651</v>
+      </c>
+    </row>
+    <row r="259" ht="113.4">
+      <c r="G259" s="6" t="s">
+        <v>222</v>
+      </c>
+      <c r="I259" s="1">
+        <v>158</v>
+      </c>
+      <c r="J259" s="7" t="s">
+        <v>327</v>
+      </c>
+      <c r="K259" s="9" t="s">
+        <v>328</v>
+      </c>
+      <c r="L259" t="s">
+        <v>652</v>
+      </c>
+    </row>
+    <row r="260" ht="13.8">
+      <c r="G260" s="6" t="s">
+        <v>125</v>
+      </c>
+      <c r="I260" s="1">
+        <v>159</v>
+      </c>
+      <c r="J260" s="7" t="s">
+        <v>329</v>
+      </c>
+      <c r="K260" s="9" t="s">
+        <v>330</v>
+      </c>
+      <c r="L260" t="s">
+        <v>653</v>
+      </c>
+    </row>
+    <row r="261" ht="13.8">
+      <c r="G261" s="6" t="s">
+        <v>222</v>
+      </c>
+      <c r="I261" s="1">
+        <v>160</v>
+      </c>
+      <c r="J261" s="7" t="s">
+        <v>331</v>
+      </c>
+      <c r="K261" s="9" t="s">
+        <v>332</v>
+      </c>
+      <c r="L261" t="s">
+        <v>654</v>
+      </c>
+    </row>
+    <row r="262" ht="113.4">
+      <c r="G262" s="6" t="s">
+        <v>222</v>
+      </c>
+      <c r="I262" s="1">
+        <v>161</v>
+      </c>
+      <c r="J262" s="7" t="s">
+        <v>333</v>
+      </c>
+      <c r="K262" s="9" t="s">
+        <v>334</v>
+      </c>
+      <c r="L262" t="s">
+        <v>655</v>
+      </c>
+    </row>
+    <row r="263" ht="102.2">
+      <c r="G263" s="6" t="s">
+        <v>222</v>
+      </c>
+      <c r="I263" s="1">
+        <v>162</v>
+      </c>
+      <c r="J263" s="7" t="s">
+        <v>335</v>
+      </c>
+      <c r="K263" s="9" t="s">
+        <v>336</v>
+      </c>
+      <c r="L263" t="s">
+        <v>656</v>
+      </c>
+    </row>
+    <row r="264" ht="13.8">
+      <c r="G264" s="6" t="s">
+        <v>125</v>
+      </c>
+      <c r="I264" s="1">
+        <v>163</v>
+      </c>
+      <c r="J264" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="K264" s="9" t="s">
+        <v>112</v>
+      </c>
+      <c r="L264" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="265" ht="13.8">
+      <c r="G265" s="6"/>
+      <c r="J265" s="7"/>
+      <c r="K265" s="9"/>
+    </row>
+    <row r="266" ht="13.8">
+      <c r="G266" s="6"/>
+      <c r="J266" s="7"/>
+      <c r="K266" s="9"/>
+    </row>
+    <row r="267" ht="13.8">
+      <c r="G267" s="6"/>
+      <c r="J267" s="7"/>
+      <c r="K267" s="9"/>
+    </row>
+    <row r="268" ht="13.8">
+      <c r="E268" s="6" t="s">
+        <v>81</v>
+      </c>
+      <c r="F268" s="6">
+        <v>3</v>
+      </c>
+      <c r="G268" s="6"/>
+      <c r="J268" s="12"/>
+      <c r="K268" s="9"/>
+    </row>
+    <row r="269" ht="13.8">
+      <c r="E269" s="1" t="s">
+        <v>239</v>
+      </c>
+      <c r="F269" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="G269" s="6"/>
+      <c r="J269" s="12"/>
+      <c r="K269" s="9"/>
+    </row>
+    <row r="270" ht="13.8">
+      <c r="G270" s="6"/>
+      <c r="J270" s="12"/>
+      <c r="K270" s="9"/>
+    </row>
+    <row r="271" ht="12.8">
+      <c r="E271" s="1" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="274" ht="12.8">
+      <c r="A274" s="1" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="275" ht="12.8">
+      <c r="J275" s="14"/>
+      <c r="K275" s="14"/>
+    </row>
+    <row r="276" ht="12.8">
+      <c r="A276" s="6"/>
+      <c r="B276" s="6"/>
+      <c r="C276" s="6"/>
+      <c r="D276" s="6"/>
+      <c r="E276" s="6" t="s">
+        <v>79</v>
+      </c>
+      <c r="F276" s="10" t="s">
+        <v>80</v>
+      </c>
+      <c r="G276" s="6"/>
+      <c r="H276" s="6"/>
+      <c r="J276" s="6"/>
+      <c r="K276" s="6"/>
+      <c r="L276" s="6"/>
+      <c r="M276" s="1"/>
+    </row>
+    <row r="277" ht="12.8">
+      <c r="A277" s="6"/>
+      <c r="B277" s="6"/>
+      <c r="C277" s="6"/>
+      <c r="D277" s="6"/>
+      <c r="E277" s="6" t="s">
+        <v>81</v>
+      </c>
+      <c r="F277" s="6">
+        <v>2</v>
+      </c>
+      <c r="G277" s="6"/>
+      <c r="H277" s="6"/>
+      <c r="J277" s="6"/>
+      <c r="K277" s="6"/>
+      <c r="L277" s="6"/>
+      <c r="M277" s="1"/>
+    </row>
+    <row r="278" ht="12.8">
+      <c r="A278" s="6"/>
+      <c r="B278" s="6"/>
+      <c r="C278" s="6"/>
+      <c r="D278" s="6"/>
+      <c r="E278" s="6" t="s">
+        <v>82</v>
+      </c>
+      <c r="F278" s="11" t="s">
+        <v>83</v>
+      </c>
+      <c r="G278" s="6"/>
+      <c r="H278" s="6"/>
+      <c r="J278" s="6"/>
+      <c r="K278" s="6"/>
+      <c r="L278" s="6"/>
+      <c r="M278" s="1"/>
+    </row>
+    <row r="279" ht="12.8">
+      <c r="A279" s="6"/>
+      <c r="B279" s="6"/>
+      <c r="C279" s="6"/>
+      <c r="D279" s="6"/>
+      <c r="E279" s="6"/>
+      <c r="F279" s="10"/>
+      <c r="G279" s="6"/>
+      <c r="H279" s="6"/>
+      <c r="J279" s="6"/>
+      <c r="K279" s="6"/>
+      <c r="L279" s="6"/>
+      <c r="M279" s="1"/>
+    </row>
+    <row r="280" ht="12.8">
+      <c r="A280" s="6"/>
+      <c r="B280" s="6"/>
+      <c r="C280" s="6"/>
+      <c r="D280" s="6"/>
+      <c r="E280" s="6" t="s">
+        <v>85</v>
+      </c>
+      <c r="F280" s="6">
+        <v>2</v>
+      </c>
+      <c r="G280" s="6"/>
+      <c r="H280" s="6"/>
+      <c r="J280" s="6"/>
+      <c r="K280" s="6"/>
+      <c r="L280" s="6"/>
+      <c r="M280" s="1"/>
+    </row>
+    <row r="281" ht="12.8">
+      <c r="J281" s="14"/>
+      <c r="K281" s="14"/>
+    </row>
+    <row r="282" ht="12.8">
+      <c r="J282" s="14"/>
+      <c r="K282" s="14"/>
+    </row>
+    <row r="283" ht="12.8">
+      <c r="J283" s="14"/>
+      <c r="K283" s="14"/>
+    </row>
+    <row r="284" ht="13.8">
+      <c r="G284" s="6" t="s">
+        <v>182</v>
+      </c>
+      <c r="I284" s="1">
+        <v>164</v>
+      </c>
+      <c r="J284" s="7" t="s">
+        <v>338</v>
+      </c>
+      <c r="K284" s="9" t="s">
+        <v>339</v>
+      </c>
+      <c r="L284" t="s">
+        <v>657</v>
+      </c>
+    </row>
+    <row r="285" ht="13.8">
+      <c r="G285" s="6" t="s">
+        <v>128</v>
+      </c>
+      <c r="I285" s="1">
+        <v>165</v>
+      </c>
+      <c r="J285" s="7" t="s">
+        <v>129</v>
+      </c>
+      <c r="K285" s="9" t="s">
+        <v>130</v>
+      </c>
+      <c r="L285" t="s">
+        <v>562</v>
+      </c>
+    </row>
+    <row r="286" ht="13.8">
+      <c r="G286" s="6" t="s">
+        <v>182</v>
+      </c>
+      <c r="I286" s="1">
+        <v>166</v>
+      </c>
+      <c r="J286" s="7" t="s">
+        <v>340</v>
+      </c>
+      <c r="K286" s="9" t="s">
+        <v>341</v>
+      </c>
+      <c r="L286" t="s">
+        <v>658</v>
+      </c>
+    </row>
+    <row r="287" ht="13.8">
+      <c r="G287" s="6"/>
+      <c r="I287" s="1">
+        <v>167</v>
+      </c>
+      <c r="J287" s="7" t="s">
+        <v>342</v>
+      </c>
+      <c r="K287" s="9" t="s">
+        <v>343</v>
+      </c>
+      <c r="L287" t="s">
+        <v>659</v>
+      </c>
+    </row>
+    <row r="288" ht="13.8">
+      <c r="G288" s="6" t="s">
+        <v>182</v>
+      </c>
+      <c r="I288" s="1">
+        <v>168</v>
+      </c>
+      <c r="J288" s="7" t="s">
+        <v>344</v>
+      </c>
+      <c r="K288" s="9" t="s">
+        <v>345</v>
+      </c>
+      <c r="L288" t="s">
+        <v>660</v>
+      </c>
+    </row>
+    <row r="289" ht="35.05">
+      <c r="G289" s="6"/>
+      <c r="I289" s="1">
+        <v>169</v>
+      </c>
+      <c r="J289" s="7" t="s">
+        <v>346</v>
+      </c>
+      <c r="K289" s="9" t="s">
+        <v>347</v>
+      </c>
+      <c r="L289" t="s">
+        <v>661</v>
+      </c>
+    </row>
+    <row r="290" ht="13.8">
+      <c r="G290" s="6" t="s">
+        <v>128</v>
+      </c>
+      <c r="I290" s="1">
+        <v>170</v>
+      </c>
+      <c r="J290" s="7" t="s">
+        <v>348</v>
+      </c>
+      <c r="K290" s="9" t="s">
+        <v>349</v>
+      </c>
+      <c r="L290" t="s">
+        <v>662</v>
+      </c>
+    </row>
+    <row r="291" ht="13.8">
+      <c r="G291" s="6"/>
+      <c r="J291" s="7"/>
+      <c r="K291" s="9"/>
+    </row>
+    <row r="292" ht="13.8">
+      <c r="E292" s="6" t="s">
+        <v>81</v>
+      </c>
+      <c r="F292" s="6">
+        <v>2</v>
+      </c>
+      <c r="J292" s="7"/>
+      <c r="K292" s="9"/>
+    </row>
+    <row r="293" ht="13.8">
+      <c r="E293" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="F293" s="1">
+        <v>86</v>
+      </c>
+      <c r="J293" s="7"/>
+      <c r="K293" s="9"/>
+    </row>
+    <row r="294" ht="13.8">
+      <c r="E294" s="6" t="s">
+        <v>85</v>
+      </c>
+      <c r="F294" s="6">
+        <v>2</v>
+      </c>
+      <c r="G294" s="6"/>
+      <c r="J294" s="7"/>
+      <c r="K294" s="9"/>
+    </row>
+    <row r="295" ht="13.8">
+      <c r="G295" s="6"/>
+      <c r="I295" s="1">
+        <v>171</v>
+      </c>
+      <c r="J295" s="7" t="s">
+        <v>350</v>
+      </c>
+      <c r="K295" s="9" t="s">
+        <v>351</v>
+      </c>
+      <c r="L295" t="s">
+        <v>663</v>
+      </c>
+    </row>
+    <row r="296" ht="23.85">
+      <c r="G296" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="I296" s="1">
+        <v>172</v>
+      </c>
+      <c r="J296" s="7" t="s">
+        <v>352</v>
+      </c>
+      <c r="K296" s="9" t="s">
+        <v>353</v>
+      </c>
+      <c r="L296" t="s">
+        <v>664</v>
+      </c>
+    </row>
+    <row r="297" ht="35.05">
+      <c r="G297" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="I297" s="1">
+        <v>173</v>
+      </c>
+      <c r="J297" s="7" t="s">
+        <v>354</v>
+      </c>
+      <c r="K297" s="9" t="s">
+        <v>355</v>
+      </c>
+      <c r="L297" t="s">
+        <v>665</v>
+      </c>
+    </row>
+    <row r="298" ht="23.85">
+      <c r="G298" s="6" t="s">
+        <v>138</v>
+      </c>
+      <c r="I298" s="1">
+        <v>174</v>
+      </c>
+      <c r="J298" s="7" t="s">
+        <v>356</v>
+      </c>
+      <c r="K298" s="9" t="s">
+        <v>357</v>
+      </c>
+      <c r="L298" t="s">
+        <v>666</v>
+      </c>
+    </row>
+    <row r="299" ht="13.8">
+      <c r="G299" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="I299" s="1">
+        <v>175</v>
+      </c>
+      <c r="J299" s="7" t="s">
+        <v>358</v>
+      </c>
+      <c r="K299" s="9" t="s">
+        <v>359</v>
+      </c>
+      <c r="L299" t="s">
+        <v>667</v>
+      </c>
+    </row>
+    <row r="300" ht="135.8">
+      <c r="G300" s="6" t="s">
+        <v>138</v>
+      </c>
+      <c r="I300" s="1">
+        <v>176</v>
+      </c>
+      <c r="J300" s="7" t="s">
+        <v>360</v>
+      </c>
+      <c r="K300" s="9" t="s">
+        <v>361</v>
+      </c>
+      <c r="L300" t="s">
+        <v>668</v>
+      </c>
+    </row>
+    <row r="301" ht="91">
+      <c r="G301" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="I301" s="1">
+        <v>177</v>
+      </c>
+      <c r="J301" s="7" t="s">
+        <v>362</v>
+      </c>
+      <c r="K301" s="9" t="s">
+        <v>363</v>
+      </c>
+      <c r="L301" t="s">
+        <v>669</v>
+      </c>
+    </row>
+    <row r="302" ht="35.05">
+      <c r="G302" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="I302" s="1">
+        <v>178</v>
+      </c>
+      <c r="J302" s="7" t="s">
+        <v>364</v>
+      </c>
+      <c r="K302" s="9" t="s">
+        <v>365</v>
+      </c>
+      <c r="L302" t="s">
+        <v>670</v>
+      </c>
+    </row>
+    <row r="303" ht="13.8">
+      <c r="G303" s="6" t="s">
+        <v>128</v>
+      </c>
+      <c r="I303" s="1">
+        <v>179</v>
+      </c>
+      <c r="J303" s="7" t="s">
+        <v>348</v>
+      </c>
+      <c r="K303" s="9" t="s">
+        <v>349</v>
+      </c>
+      <c r="L303" t="s">
+        <v>662</v>
+      </c>
+    </row>
+    <row r="304" ht="46.25">
+      <c r="G304" s="6" t="s">
+        <v>138</v>
+      </c>
+      <c r="I304" s="1">
+        <v>181</v>
+      </c>
+      <c r="J304" s="7" t="s">
+        <v>366</v>
+      </c>
+      <c r="K304" s="9" t="s">
+        <v>367</v>
+      </c>
+      <c r="L304" t="s">
+        <v>671</v>
+      </c>
+    </row>
+    <row r="305" ht="23.85">
+      <c r="G305" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="I305" s="1">
+        <v>182</v>
+      </c>
+      <c r="J305" s="7" t="s">
+        <v>368</v>
+      </c>
+      <c r="K305" s="9" t="s">
+        <v>369</v>
+      </c>
+      <c r="L305" t="s">
+        <v>672</v>
+      </c>
+    </row>
+    <row r="306" ht="56.7">
+      <c r="G306" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="I306" s="1">
+        <v>183</v>
+      </c>
+      <c r="J306" s="7" t="s">
+        <v>370</v>
+      </c>
+      <c r="K306" s="9" t="s">
+        <v>371</v>
+      </c>
+      <c r="L306" t="s">
+        <v>673</v>
+      </c>
+    </row>
+    <row r="307" ht="13.8">
+      <c r="E307" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="F307" s="16">
+        <v>74</v>
+      </c>
+      <c r="G307" s="6"/>
+      <c r="J307" s="7"/>
+      <c r="K307" s="9"/>
+    </row>
+    <row r="308" ht="13.8">
+      <c r="G308" s="6" t="s">
+        <v>138</v>
+      </c>
+      <c r="I308" s="1">
+        <v>184</v>
+      </c>
+      <c r="J308" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="K308" s="9" t="s">
+        <v>112</v>
+      </c>
+      <c r="L308" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="309" ht="13.8">
+      <c r="F309" s="16"/>
+      <c r="G309" s="6"/>
+      <c r="J309" s="7"/>
+      <c r="K309" s="9"/>
+    </row>
+    <row r="310" ht="23.85">
+      <c r="G310" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="I310" s="1">
+        <v>185</v>
+      </c>
+      <c r="J310" s="7" t="s">
+        <v>372</v>
+      </c>
+      <c r="K310" s="9" t="s">
+        <v>373</v>
+      </c>
+      <c r="L310" t="s">
+        <v>674</v>
+      </c>
+    </row>
+    <row r="311" ht="13.8">
+      <c r="G311" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="I311" s="1">
+        <v>186</v>
+      </c>
+      <c r="J311" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="K311" s="9" t="s">
+        <v>112</v>
+      </c>
+      <c r="L311" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="312" ht="13.8">
+      <c r="G312" s="6" t="s">
+        <v>138</v>
+      </c>
+      <c r="I312" s="1">
+        <v>187</v>
+      </c>
+      <c r="J312" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="K312" s="9" t="s">
+        <v>112</v>
+      </c>
+      <c r="L312" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="313" ht="23.85">
+      <c r="G313" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="I313" s="1">
+        <v>188</v>
+      </c>
+      <c r="J313" s="7" t="s">
+        <v>374</v>
+      </c>
+      <c r="K313" s="9" t="s">
+        <v>375</v>
+      </c>
+      <c r="L313" t="s">
+        <v>675</v>
+      </c>
+    </row>
+    <row r="314" ht="23.85">
+      <c r="G314" s="6" t="s">
+        <v>138</v>
+      </c>
+      <c r="I314" s="1">
+        <v>189</v>
+      </c>
+      <c r="J314" s="7" t="s">
+        <v>376</v>
+      </c>
+      <c r="K314" s="9" t="s">
+        <v>377</v>
+      </c>
+      <c r="L314" t="s">
+        <v>676</v>
+      </c>
+    </row>
+    <row r="315" ht="13.8">
+      <c r="G315" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="I315" s="1">
+        <v>190</v>
+      </c>
+      <c r="J315" s="7" t="s">
+        <v>378</v>
+      </c>
+      <c r="K315" s="9" t="s">
+        <v>379</v>
+      </c>
+      <c r="L315" t="s">
+        <v>677</v>
+      </c>
+    </row>
+    <row r="316" ht="13.8">
+      <c r="G316" s="6" t="s">
+        <v>138</v>
+      </c>
+      <c r="I316" s="1">
+        <v>191</v>
+      </c>
+      <c r="J316" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="K316" s="9" t="s">
+        <v>112</v>
+      </c>
+      <c r="L316" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="317" ht="13.8">
+      <c r="G317" s="6" t="s">
+        <v>380</v>
+      </c>
+      <c r="I317" s="1">
+        <v>192</v>
+      </c>
+      <c r="J317" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="K317" s="9" t="s">
+        <v>112</v>
+      </c>
+      <c r="L317" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="318" ht="113.4">
+      <c r="G318" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="I318" s="1">
+        <v>193</v>
+      </c>
+      <c r="J318" s="7" t="s">
+        <v>381</v>
+      </c>
+      <c r="K318" s="9" t="s">
+        <v>382</v>
+      </c>
+      <c r="L318" t="s">
+        <v>678</v>
+      </c>
+    </row>
+    <row r="319" ht="13.8">
+      <c r="G319" s="6"/>
+      <c r="J319" s="7"/>
+      <c r="K319" s="9"/>
+    </row>
+    <row r="320" ht="13.8">
+      <c r="G320" s="6"/>
+      <c r="J320" s="7"/>
+      <c r="K320" s="9"/>
+    </row>
+    <row r="321" ht="13.8">
+      <c r="E321" s="1" t="s">
+        <v>383</v>
+      </c>
+      <c r="F321" s="17" t="s">
+        <v>384</v>
+      </c>
+      <c r="G321" s="6"/>
+      <c r="J321" s="7"/>
+      <c r="K321" s="9"/>
+    </row>
+    <row r="322" ht="13.8">
+      <c r="E322" s="1" t="s">
+        <v>383</v>
+      </c>
+      <c r="F322" s="17" t="s">
+        <v>385</v>
+      </c>
+      <c r="G322" s="6"/>
+      <c r="J322" s="7"/>
+      <c r="K322" s="9"/>
+    </row>
+    <row r="323" ht="13.8">
+      <c r="G323" s="6"/>
+      <c r="J323" s="7"/>
+      <c r="K323" s="9"/>
+    </row>
+    <row r="324" ht="13.8">
+      <c r="G324" s="6"/>
+      <c r="J324" s="7"/>
+      <c r="K324" s="9"/>
+    </row>
+    <row r="325" ht="13.8">
+      <c r="G325" s="6"/>
+      <c r="J325" s="7"/>
+      <c r="K325" s="9"/>
+    </row>
+    <row r="326" ht="13.8">
+      <c r="E326" s="6" t="s">
+        <v>81</v>
+      </c>
+      <c r="F326" s="6">
+        <v>3</v>
+      </c>
+      <c r="G326" s="6"/>
+      <c r="J326" s="12"/>
+      <c r="K326" s="9"/>
+    </row>
+    <row r="327" ht="13.8">
+      <c r="E327" s="1" t="s">
+        <v>239</v>
+      </c>
+      <c r="F327" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="G327" s="6"/>
+      <c r="J327" s="12"/>
+      <c r="K327" s="9"/>
+    </row>
+    <row r="328" ht="13.8">
+      <c r="G328" s="6"/>
+      <c r="J328" s="12"/>
+      <c r="K328" s="9"/>
+    </row>
+    <row r="329" ht="12.8">
+      <c r="E329" s="1" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="332" ht="12.8">
+      <c r="A332" s="1" t="s">
+        <v>386</v>
+      </c>
+      <c r="F332" s="16"/>
+    </row>
+    <row r="333" ht="12.8">
+      <c r="E333" s="1" t="s">
+        <v>387</v>
+      </c>
+      <c r="F333" s="16">
+        <v>77</v>
+      </c>
+      <c r="J333" s="6"/>
+    </row>
+    <row r="334" ht="12.8">
+      <c r="F334" s="16"/>
+    </row>
+    <row r="335" ht="43.25">
+      <c r="F335" s="16"/>
+      <c r="G335" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="I335" s="1">
+        <v>200</v>
+      </c>
+      <c r="J335" s="7" t="s">
+        <v>388</v>
+      </c>
+      <c r="K335" s="6" t="s">
+        <v>389</v>
+      </c>
+      <c r="L335" t="s">
+        <v>679</v>
+      </c>
+    </row>
+    <row r="336" ht="23.85">
+      <c r="F336" s="16"/>
+      <c r="G336" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="I336" s="1">
+        <v>201</v>
+      </c>
+      <c r="J336" s="7" t="s">
+        <v>390</v>
+      </c>
+      <c r="K336" s="1" t="s">
+        <v>391</v>
+      </c>
+      <c r="L336" t="s">
+        <v>680</v>
+      </c>
+    </row>
+    <row r="337" ht="13.8">
+      <c r="F337" s="16"/>
+      <c r="J337" s="7"/>
+      <c r="K337" s="4"/>
+    </row>
+    <row r="338" ht="35.05">
+      <c r="F338" s="16"/>
+      <c r="G338" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="I338" s="1">
+        <v>202</v>
+      </c>
+      <c r="J338" s="7" t="s">
+        <v>392</v>
+      </c>
+      <c r="K338" s="6" t="s">
+        <v>393</v>
+      </c>
+      <c r="L338" t="s">
+        <v>681</v>
+      </c>
+    </row>
+    <row r="339" ht="13.8">
+      <c r="A339" s="1" t="s">
+        <v>394</v>
+      </c>
+      <c r="F339" s="16"/>
+      <c r="J339" s="7"/>
+      <c r="K339" s="6"/>
+    </row>
+    <row r="340" ht="85.05">
+      <c r="F340" s="16"/>
+      <c r="G340" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="I340" s="1">
+        <v>203</v>
+      </c>
+      <c r="J340" s="7" t="s">
+        <v>395</v>
+      </c>
+      <c r="K340" s="6" t="s">
+        <v>396</v>
+      </c>
+      <c r="L340" t="s">
+        <v>682</v>
+      </c>
+    </row>
+    <row r="341" ht="13.8">
+      <c r="B341" s="1" t="s">
+        <v>397</v>
+      </c>
+      <c r="E341" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="F341" s="16"/>
+      <c r="I341" s="1">
+        <v>204</v>
+      </c>
+      <c r="J341" s="7" t="s">
+        <v>398</v>
+      </c>
+      <c r="K341" s="1" t="s">
+        <v>399</v>
+      </c>
+      <c r="L341" t="s">
+        <v>683</v>
+      </c>
+    </row>
+    <row r="342" ht="13.8">
+      <c r="B342" s="1" t="s">
+        <v>400</v>
+      </c>
+      <c r="E342" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="F342" s="16"/>
+      <c r="I342" s="1">
+        <v>205</v>
+      </c>
+      <c r="J342" s="7" t="s">
+        <v>401</v>
+      </c>
+      <c r="K342" s="1" t="s">
+        <v>402</v>
+      </c>
+      <c r="L342" t="s">
+        <v>684</v>
+      </c>
+    </row>
+    <row r="343" ht="13.8">
+      <c r="A343" s="1" t="s">
+        <v>397</v>
+      </c>
+      <c r="F343" s="16"/>
+      <c r="J343" s="7"/>
+      <c r="K343" s="6"/>
+    </row>
+    <row r="344" ht="46.25">
+      <c r="F344" s="16"/>
+      <c r="G344" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="I344" s="1">
+        <v>206</v>
+      </c>
+      <c r="J344" s="7" t="s">
+        <v>403</v>
+      </c>
+      <c r="K344" s="6" t="s">
+        <v>404</v>
+      </c>
+      <c r="L344" t="s">
+        <v>685</v>
+      </c>
+    </row>
+    <row r="345" ht="13.8">
+      <c r="B345" s="1" t="s">
+        <v>405</v>
+      </c>
+      <c r="E345" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="F345" s="16"/>
+      <c r="I345" s="1">
+        <v>207</v>
+      </c>
+      <c r="J345" s="7" t="s">
+        <v>406</v>
+      </c>
+      <c r="K345" s="1" t="s">
+        <v>407</v>
+      </c>
+      <c r="L345" t="s">
+        <v>686</v>
+      </c>
+    </row>
+    <row r="346" ht="13.8">
+      <c r="B346" s="1" t="s">
+        <v>394</v>
+      </c>
+      <c r="E346" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="F346" s="16"/>
+      <c r="I346" s="1">
+        <v>208</v>
+      </c>
+      <c r="J346" s="7" t="s">
+        <v>408</v>
+      </c>
+      <c r="K346" s="1" t="s">
+        <v>409</v>
+      </c>
+      <c r="L346" t="s">
+        <v>687</v>
+      </c>
+    </row>
+    <row r="347" ht="13.8">
+      <c r="A347" s="1" t="s">
+        <v>400</v>
+      </c>
+      <c r="F347" s="16"/>
+      <c r="J347" s="7"/>
+      <c r="K347" s="6"/>
+    </row>
+    <row r="348" ht="46.25">
+      <c r="F348" s="16"/>
+      <c r="G348" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="I348" s="1">
+        <v>209</v>
+      </c>
+      <c r="J348" s="7" t="s">
+        <v>410</v>
+      </c>
+      <c r="K348" s="6" t="s">
+        <v>411</v>
+      </c>
+      <c r="L348" t="s">
+        <v>688</v>
+      </c>
+    </row>
+    <row r="349" ht="13.8">
+      <c r="B349" s="1" t="s">
+        <v>412</v>
+      </c>
+      <c r="E349" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="F349" s="16"/>
+      <c r="I349" s="1">
+        <v>210</v>
+      </c>
+      <c r="J349" s="7" t="s">
+        <v>406</v>
+      </c>
+      <c r="K349" s="1" t="s">
+        <v>407</v>
+      </c>
+      <c r="L349" t="s">
+        <v>686</v>
+      </c>
+    </row>
+    <row r="350" ht="13.8">
+      <c r="B350" s="1" t="s">
+        <v>394</v>
+      </c>
+      <c r="E350" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="F350" s="16"/>
+      <c r="I350" s="1">
+        <v>211</v>
+      </c>
+      <c r="J350" s="7" t="s">
+        <v>408</v>
+      </c>
+      <c r="K350" s="1" t="s">
+        <v>409</v>
+      </c>
+      <c r="L350" t="s">
+        <v>687</v>
+      </c>
+    </row>
+    <row r="351" ht="13.8">
+      <c r="F351" s="16"/>
+      <c r="J351" s="7"/>
+      <c r="K351" s="6"/>
+    </row>
+    <row r="352" ht="13.8">
+      <c r="A352" s="1" t="s">
+        <v>412</v>
+      </c>
+      <c r="F352" s="16"/>
+      <c r="J352" s="7"/>
+      <c r="K352" s="6"/>
+    </row>
+    <row r="353" ht="13.8">
+      <c r="E353" s="1" t="s">
+        <v>413</v>
+      </c>
+      <c r="F353" s="1" t="s">
+        <v>414</v>
+      </c>
+      <c r="J353" s="7"/>
+      <c r="K353" s="6"/>
+    </row>
+    <row r="354" ht="13.8">
+      <c r="A354" s="1" t="s">
+        <v>405</v>
+      </c>
+      <c r="F354" s="16"/>
+      <c r="J354" s="7"/>
+      <c r="K354" s="6"/>
+    </row>
+    <row r="355" ht="53.7">
+      <c r="F355" s="16"/>
+      <c r="G355" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="I355" s="1">
+        <v>212</v>
+      </c>
+      <c r="J355" s="7" t="s">
+        <v>415</v>
+      </c>
+      <c r="K355" s="6" t="s">
+        <v>416</v>
+      </c>
+      <c r="L355" t="s">
+        <v>689</v>
+      </c>
+    </row>
+    <row r="356" ht="46.25">
+      <c r="F356" s="16"/>
+      <c r="G356" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="I356" s="1">
+        <v>213</v>
+      </c>
+      <c r="J356" s="7" t="s">
+        <v>417</v>
+      </c>
+      <c r="K356" s="6" t="s">
+        <v>418</v>
+      </c>
+      <c r="L356" t="s">
+        <v>690</v>
+      </c>
+    </row>
+    <row r="357" ht="13.8">
+      <c r="E357" s="1" t="s">
+        <v>419</v>
+      </c>
+      <c r="F357" s="16" t="s">
+        <v>420</v>
+      </c>
+      <c r="J357" s="7"/>
+      <c r="K357" s="6"/>
+    </row>
+    <row r="358" ht="13.8">
+      <c r="F358" s="16"/>
+      <c r="G358" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="I358" s="1">
+        <v>214</v>
+      </c>
+      <c r="J358" s="7" t="s">
+        <v>421</v>
+      </c>
+      <c r="K358" s="6" t="s">
+        <v>422</v>
+      </c>
+      <c r="L358" t="s">
+        <v>691</v>
+      </c>
+    </row>
+    <row r="359" ht="13.8">
+      <c r="F359" s="16"/>
+      <c r="J359" s="7"/>
+      <c r="K359" s="6"/>
+    </row>
+    <row r="360" ht="13.8">
+      <c r="F360" s="16"/>
+      <c r="G360" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="I360" s="1">
+        <v>215</v>
+      </c>
+      <c r="J360" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="K360" s="6" t="s">
+        <v>112</v>
+      </c>
+      <c r="L360" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="361" ht="13.8">
+      <c r="F361" s="16"/>
+      <c r="G361" s="1" t="s">
+        <v>380</v>
+      </c>
+      <c r="I361" s="1">
+        <v>216</v>
+      </c>
+      <c r="J361" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="K361" s="6" t="s">
+        <v>112</v>
+      </c>
+      <c r="L361" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="362" ht="13.8">
+      <c r="E362" s="1" t="s">
+        <v>383</v>
+      </c>
+      <c r="F362" s="17" t="s">
+        <v>423</v>
+      </c>
+      <c r="J362" s="7"/>
+      <c r="K362" s="6"/>
+    </row>
+    <row r="363" ht="13.8">
+      <c r="E363" s="1" t="s">
+        <v>383</v>
+      </c>
+      <c r="F363" s="17" t="s">
+        <v>424</v>
+      </c>
+      <c r="J363" s="7"/>
+      <c r="K363" s="6"/>
+    </row>
+    <row r="364" ht="68.65">
+      <c r="F364" s="16"/>
+      <c r="G364" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="I364" s="1">
+        <v>217</v>
+      </c>
+      <c r="J364" s="7" t="s">
+        <v>425</v>
+      </c>
+      <c r="K364" s="6" t="s">
+        <v>426</v>
+      </c>
+      <c r="L364" t="s">
+        <v>692</v>
+      </c>
+    </row>
+    <row r="365" ht="13.8">
+      <c r="F365" s="16"/>
+      <c r="G365" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="I365" s="1">
+        <v>218</v>
+      </c>
+      <c r="J365" s="7" t="s">
+        <v>427</v>
+      </c>
+      <c r="K365" s="6" t="s">
+        <v>428</v>
+      </c>
+      <c r="L365" t="s">
+        <v>693</v>
+      </c>
+    </row>
+    <row r="366" ht="13.8">
+      <c r="F366" s="16"/>
+      <c r="G366" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="I366" s="1">
+        <v>219</v>
+      </c>
+      <c r="J366" s="7" t="s">
+        <v>429</v>
+      </c>
+      <c r="K366" s="6" t="s">
+        <v>430</v>
+      </c>
+      <c r="L366" t="s">
+        <v>694</v>
+      </c>
+    </row>
+    <row r="367" ht="13.8">
+      <c r="F367" s="16"/>
+      <c r="G367" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="I367" s="1">
+        <v>220</v>
+      </c>
+      <c r="J367" s="7" t="s">
+        <v>431</v>
+      </c>
+      <c r="K367" s="6" t="s">
+        <v>432</v>
+      </c>
+      <c r="L367" t="s">
+        <v>695</v>
+      </c>
+    </row>
+    <row r="368" ht="13.8">
+      <c r="F368" s="16"/>
+      <c r="J368" s="7"/>
+      <c r="K368" s="6"/>
+    </row>
+    <row r="369" ht="12.8">
+      <c r="E369" s="1" t="s">
+        <v>433</v>
+      </c>
+      <c r="F369" s="16" t="s">
+        <v>434</v>
+      </c>
+      <c r="J369" s="6"/>
+    </row>
+    <row r="370" ht="12.8">
+      <c r="F370" s="16"/>
+      <c r="J370" s="6"/>
+    </row>
+    <row r="371" ht="13.8">
+      <c r="F371" s="16"/>
+      <c r="J371" s="3"/>
+      <c r="K371" s="4"/>
+    </row>
+    <row r="372" ht="13.8">
+      <c r="E372" s="1" t="s">
+        <v>435</v>
+      </c>
+      <c r="F372" s="16"/>
+      <c r="J372" s="3"/>
+      <c r="K372" s="4"/>
+    </row>
+    <row r="373" ht="13.8">
+      <c r="E373" s="1" t="s">
+        <v>239</v>
+      </c>
+      <c r="F373" s="16" t="s">
+        <v>80</v>
+      </c>
+      <c r="J373" s="3"/>
+      <c r="K373" s="4"/>
+    </row>
+    <row r="374" ht="13.8">
+      <c r="E374" s="1" t="s">
+        <v>387</v>
+      </c>
+      <c r="F374" s="16">
+        <v>107</v>
+      </c>
+      <c r="J374" s="3"/>
+      <c r="K374" s="4"/>
+    </row>
+    <row r="375" ht="12.8">
+      <c r="E375" s="1" t="s">
+        <v>239</v>
+      </c>
+      <c r="F375" s="16" t="s">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="376" ht="45.5">
+      <c r="F376" s="16"/>
+      <c r="G376" s="1" t="s">
+        <v>437</v>
+      </c>
+      <c r="I376" s="1">
+        <v>221</v>
+      </c>
+      <c r="J376" s="6" t="s">
+        <v>438</v>
+      </c>
+      <c r="K376" s="6" t="s">
+        <v>439</v>
+      </c>
+      <c r="L376" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="377" ht="13.8">
+      <c r="F377" s="16"/>
+      <c r="G377" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="I377" s="1">
+        <v>222</v>
+      </c>
+      <c r="J377" s="7" t="s">
+        <v>440</v>
+      </c>
+      <c r="K377" s="6" t="s">
+        <v>441</v>
+      </c>
+      <c r="L377" t="s">
+        <v>696</v>
+      </c>
+    </row>
+    <row r="378" ht="13.8">
+      <c r="F378" s="16"/>
+      <c r="G378" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="I378" s="1">
+        <v>223</v>
+      </c>
+      <c r="J378" s="7" t="s">
+        <v>442</v>
+      </c>
+      <c r="K378" s="6" t="s">
+        <v>443</v>
+      </c>
+      <c r="L378" t="s">
+        <v>697</v>
+      </c>
+    </row>
+    <row r="379" ht="23.85">
+      <c r="F379" s="16"/>
+      <c r="G379" s="1" t="s">
+        <v>437</v>
+      </c>
+      <c r="I379" s="1">
+        <v>224</v>
+      </c>
+      <c r="J379" s="18" t="s">
+        <v>444</v>
+      </c>
+      <c r="K379" s="6" t="s">
+        <v>445</v>
+      </c>
+      <c r="L379" t="s">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="380" ht="23.1">
+      <c r="F380" s="16"/>
+      <c r="G380" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="I380" s="1">
+        <v>225</v>
+      </c>
+      <c r="J380" s="18" t="s">
+        <v>446</v>
+      </c>
+      <c r="K380" s="6" t="s">
+        <v>447</v>
+      </c>
+      <c r="L380" t="s">
+        <v>698</v>
+      </c>
+    </row>
+    <row r="381" ht="79.85">
+      <c r="F381" s="16"/>
+      <c r="G381" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="I381" s="1">
+        <v>226</v>
+      </c>
+      <c r="J381" s="7" t="s">
+        <v>448</v>
+      </c>
+      <c r="K381" s="6" t="s">
+        <v>449</v>
+      </c>
+      <c r="L381" t="s">
+        <v>699</v>
+      </c>
+    </row>
+    <row r="382" ht="12.8">
+      <c r="E382" s="1" t="s">
+        <v>433</v>
+      </c>
+      <c r="F382" s="16" t="s">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="383" ht="12.8">
+      <c r="E383" s="1" t="s">
+        <v>239</v>
+      </c>
+      <c r="F383" s="16" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="384" ht="12.8">
+      <c r="E384" s="1" t="s">
+        <v>433</v>
+      </c>
+      <c r="F384" s="16" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="385" ht="12.8">
+      <c r="E385" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="F385" s="16"/>
+    </row>
+    <row r="386" ht="12.8">
+      <c r="F386" s="16"/>
+    </row>
+    <row r="388" ht="12.8">
+      <c r="A388" s="1" t="s">
+        <v>452</v>
+      </c>
+      <c r="F388" s="16"/>
+    </row>
+    <row r="389" ht="12.8">
+      <c r="E389" s="1" t="s">
+        <v>239</v>
+      </c>
+      <c r="F389" s="16" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="390" ht="12.8">
+      <c r="E390" s="1" t="s">
+        <v>453</v>
+      </c>
+      <c r="F390" s="1">
+        <v>1</v>
+      </c>
+      <c r="G390" s="6"/>
+      <c r="J390" s="6"/>
+    </row>
+    <row r="392" ht="13.8">
+      <c r="G392" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="I392" s="1">
+        <v>230</v>
+      </c>
+      <c r="J392" s="7" t="s">
+        <v>454</v>
+      </c>
+      <c r="K392" s="6" t="s">
+        <v>455</v>
+      </c>
+      <c r="L392" t="s">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="393" ht="12.8">
+      <c r="F393" s="16"/>
+      <c r="G393" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="I393" s="1">
+        <v>231</v>
+      </c>
+      <c r="J393" s="6" t="s">
+        <v>456</v>
+      </c>
+      <c r="K393" s="6" t="s">
+        <v>457</v>
+      </c>
+      <c r="L393" t="s">
+        <v>701</v>
+      </c>
+    </row>
+    <row r="394" ht="22.35">
+      <c r="F394" s="16"/>
+      <c r="G394" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="I394" s="1">
+        <v>232</v>
+      </c>
+      <c r="J394" s="18" t="s">
+        <v>458</v>
+      </c>
+      <c r="K394" s="6" t="s">
+        <v>459</v>
+      </c>
+      <c r="L394" t="s">
+        <v>702</v>
+      </c>
+    </row>
+    <row r="395" ht="53.7">
+      <c r="F395" s="16"/>
+      <c r="G395" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="I395" s="1">
+        <v>233</v>
+      </c>
+      <c r="J395" s="18" t="s">
+        <v>460</v>
+      </c>
+      <c r="K395" s="6" t="s">
+        <v>461</v>
+      </c>
+      <c r="L395" t="s">
+        <v>703</v>
+      </c>
+    </row>
+    <row r="396" ht="23.85">
+      <c r="F396" s="16"/>
+      <c r="G396" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="I396" s="1">
+        <v>234</v>
+      </c>
+      <c r="J396" s="7" t="s">
+        <v>462</v>
+      </c>
+      <c r="K396" s="6" t="s">
+        <v>463</v>
+      </c>
+      <c r="L396" t="s">
+        <v>704</v>
+      </c>
+    </row>
+    <row r="397" ht="43.25">
+      <c r="F397" s="16"/>
+      <c r="G397" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="I397" s="1">
+        <v>235</v>
+      </c>
+      <c r="J397" s="6" t="s">
+        <v>464</v>
+      </c>
+      <c r="K397" s="6" t="s">
+        <v>465</v>
+      </c>
+      <c r="L397" t="s">
+        <v>705</v>
+      </c>
+    </row>
+    <row r="398" ht="12.8">
+      <c r="F398" s="16"/>
+      <c r="J398" s="6"/>
+    </row>
+    <row r="399" ht="12.8">
+      <c r="E399" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="F399" s="16"/>
+    </row>
+    <row r="400" ht="12.8">
+      <c r="F400" s="16"/>
+    </row>
+    <row r="401" ht="12.8">
+      <c r="A401" s="1" t="s">
+        <v>466</v>
+      </c>
+      <c r="F401" s="16"/>
+    </row>
+    <row r="403" ht="12.8">
+      <c r="E403" s="6" t="s">
+        <v>79</v>
+      </c>
+      <c r="F403" s="10" t="s">
+        <v>80</v>
+      </c>
+      <c r="G403" s="6"/>
+      <c r="J403" s="6"/>
+    </row>
+    <row r="404" ht="12.8">
+      <c r="E404" s="6" t="s">
+        <v>81</v>
+      </c>
+      <c r="F404" s="6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="405" ht="13.8">
+      <c r="E405" s="6" t="s">
+        <v>82</v>
+      </c>
+      <c r="F405" s="11" t="s">
+        <v>467</v>
+      </c>
+      <c r="J405" s="7"/>
+      <c r="K405" s="6"/>
+    </row>
+    <row r="406" ht="12.8">
+      <c r="E406" s="6"/>
+      <c r="F406" s="10"/>
+      <c r="J406" s="6"/>
+      <c r="K406" s="6"/>
+    </row>
+    <row r="407" ht="12.8">
+      <c r="E407" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="F407" s="1">
+        <v>41</v>
+      </c>
+      <c r="J407" s="6"/>
+      <c r="K407" s="6"/>
+    </row>
+    <row r="408" ht="12.8">
+      <c r="E408" s="6" t="s">
+        <v>85</v>
+      </c>
+      <c r="F408" s="6">
+        <v>2</v>
+      </c>
+      <c r="J408" s="18"/>
+      <c r="K408" s="6"/>
+    </row>
+    <row r="409" ht="12.8">
+      <c r="J409" s="18"/>
+      <c r="K409" s="6"/>
+    </row>
+    <row r="410" ht="13.8">
+      <c r="G410" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="I410" s="1">
+        <v>250</v>
+      </c>
+      <c r="J410" s="19" t="s">
+        <v>468</v>
+      </c>
+      <c r="K410" s="20" t="s">
+        <v>469</v>
+      </c>
+      <c r="L410" t="s">
+        <v>706</v>
+      </c>
+    </row>
+    <row r="411" ht="13.8">
+      <c r="G411" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="I411" s="1">
+        <v>251</v>
+      </c>
+      <c r="J411" s="7" t="s">
+        <v>470</v>
+      </c>
+      <c r="K411" s="20" t="s">
+        <v>471</v>
+      </c>
+      <c r="L411" t="s">
+        <v>707</v>
+      </c>
+    </row>
+    <row r="412" ht="35.05">
+      <c r="G412" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="I412" s="1">
+        <v>252</v>
+      </c>
+      <c r="J412" s="7" t="s">
+        <v>472</v>
+      </c>
+      <c r="K412" s="20" t="s">
+        <v>473</v>
+      </c>
+      <c r="L412" t="s">
+        <v>708</v>
+      </c>
+    </row>
+    <row r="413" ht="46.25">
+      <c r="G413" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="I413" s="1">
+        <v>253</v>
+      </c>
+      <c r="J413" s="7" t="s">
+        <v>474</v>
+      </c>
+      <c r="K413" s="20" t="s">
+        <v>475</v>
+      </c>
+      <c r="L413" t="s">
+        <v>709</v>
+      </c>
+    </row>
+    <row r="414" ht="13.8">
+      <c r="G414" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="I414" s="1">
+        <v>254</v>
+      </c>
+      <c r="J414" s="19" t="s">
+        <v>476</v>
+      </c>
+      <c r="K414" s="20" t="s">
+        <v>477</v>
+      </c>
+      <c r="L414" t="s">
+        <v>710</v>
+      </c>
+    </row>
+    <row r="415" ht="46.25">
+      <c r="G415" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="I415" s="1">
+        <v>255</v>
+      </c>
+      <c r="J415" s="7" t="s">
+        <v>478</v>
+      </c>
+      <c r="K415" s="20" t="s">
+        <v>479</v>
+      </c>
+      <c r="L415" t="s">
+        <v>711</v>
+      </c>
+    </row>
+    <row r="416" ht="13.8">
+      <c r="G416" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="I416" s="1">
+        <v>256</v>
+      </c>
+      <c r="J416" s="7" t="s">
+        <v>480</v>
+      </c>
+      <c r="K416" s="20" t="s">
+        <v>481</v>
+      </c>
+      <c r="L416" t="s">
+        <v>712</v>
+      </c>
+    </row>
+    <row r="417" ht="13.8">
+      <c r="G417" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="I417" s="1">
+        <v>257</v>
+      </c>
+      <c r="J417" s="7" t="s">
+        <v>482</v>
+      </c>
+      <c r="K417" s="20" t="s">
+        <v>483</v>
+      </c>
+      <c r="L417" t="s">
+        <v>713</v>
+      </c>
+    </row>
+    <row r="418" ht="23.85">
+      <c r="G418" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="I418" s="1">
+        <v>258</v>
+      </c>
+      <c r="J418" s="7" t="s">
+        <v>484</v>
+      </c>
+      <c r="K418" s="20" t="s">
+        <v>485</v>
+      </c>
+      <c r="L418" t="s">
+        <v>714</v>
+      </c>
+    </row>
+    <row r="419" ht="68.65">
+      <c r="G419" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="I419" s="1">
+        <v>259</v>
+      </c>
+      <c r="J419" s="21" t="s">
+        <v>486</v>
+      </c>
+      <c r="K419" s="20" t="s">
+        <v>487</v>
+      </c>
+      <c r="L419" t="s">
+        <v>715</v>
+      </c>
+    </row>
+    <row r="420" ht="13.8">
+      <c r="G420" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="I420" s="1">
+        <v>260</v>
+      </c>
+      <c r="J420" s="7" t="s">
+        <v>488</v>
+      </c>
+      <c r="K420" s="20" t="s">
+        <v>489</v>
+      </c>
+      <c r="L420" t="s">
+        <v>716</v>
+      </c>
+    </row>
+    <row r="421" ht="23.85">
+      <c r="G421" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="I421" s="1">
+        <v>261</v>
+      </c>
+      <c r="J421" s="7" t="s">
+        <v>490</v>
+      </c>
+      <c r="K421" s="22" t="s">
+        <v>491</v>
+      </c>
+      <c r="L421" t="s">
+        <v>717</v>
+      </c>
+    </row>
+    <row r="422" ht="23.85">
+      <c r="G422" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="I422" s="1">
+        <v>262</v>
+      </c>
+      <c r="J422" s="7" t="s">
+        <v>492</v>
+      </c>
+      <c r="K422" s="20" t="s">
+        <v>493</v>
+      </c>
+      <c r="L422" t="s">
+        <v>718</v>
+      </c>
+    </row>
+    <row r="423" ht="23.85">
+      <c r="G423" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="I423" s="1">
+        <v>263</v>
+      </c>
+      <c r="J423" s="7" t="s">
+        <v>494</v>
+      </c>
+      <c r="K423" s="20" t="s">
+        <v>495</v>
+      </c>
+      <c r="L423" t="s">
+        <v>719</v>
+      </c>
+    </row>
+    <row r="424" ht="13.8">
+      <c r="J424" s="7"/>
+      <c r="K424" s="20"/>
+    </row>
+    <row r="425" ht="13.8">
+      <c r="E425" s="6" t="s">
+        <v>81</v>
+      </c>
+      <c r="F425" s="6">
+        <v>2</v>
+      </c>
+      <c r="J425" s="7"/>
+      <c r="K425" s="20"/>
+    </row>
+    <row r="426" ht="13.8">
+      <c r="E426" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="F426" s="1">
+        <v>13</v>
+      </c>
+      <c r="J426" s="7"/>
+      <c r="K426" s="20"/>
+    </row>
+    <row r="427" ht="13.8">
+      <c r="E427" s="6" t="s">
+        <v>85</v>
+      </c>
+      <c r="F427" s="6">
+        <v>2</v>
+      </c>
+      <c r="G427" s="6"/>
+      <c r="J427" s="7"/>
+      <c r="K427" s="20"/>
+    </row>
+    <row r="428" ht="12.8">
+      <c r="J428" s="18"/>
+      <c r="K428" s="20"/>
+    </row>
+    <row r="429" ht="13.8">
+      <c r="F429" s="16"/>
+      <c r="G429" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="I429" s="1">
+        <v>264</v>
+      </c>
+      <c r="J429" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="K429" s="20" t="s">
+        <v>112</v>
+      </c>
+      <c r="L429" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="430" ht="46.25">
+      <c r="F430" s="16"/>
+      <c r="G430" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="I430" s="1">
+        <v>265</v>
+      </c>
+      <c r="J430" s="7" t="s">
+        <v>496</v>
+      </c>
+      <c r="K430" s="20" t="s">
+        <v>497</v>
+      </c>
+      <c r="L430" t="s">
+        <v>720</v>
+      </c>
+    </row>
+    <row r="431" ht="13.8">
+      <c r="F431" s="16"/>
+      <c r="G431" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="I431" s="1">
+        <v>266</v>
+      </c>
+      <c r="J431" s="7" t="s">
+        <v>498</v>
+      </c>
+      <c r="K431" s="22" t="s">
+        <v>499</v>
+      </c>
+      <c r="L431" t="s">
+        <v>721</v>
+      </c>
+    </row>
+    <row r="432" ht="91">
+      <c r="F432" s="16"/>
+      <c r="G432" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="I432" s="1">
+        <v>267</v>
+      </c>
+      <c r="J432" s="21" t="s">
+        <v>500</v>
+      </c>
+      <c r="K432" s="20" t="s">
+        <v>501</v>
+      </c>
+      <c r="L432" t="s">
+        <v>722</v>
+      </c>
+    </row>
+    <row r="433" ht="13.8">
+      <c r="F433" s="16"/>
+      <c r="G433" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="I433" s="1">
+        <v>268</v>
+      </c>
+      <c r="J433" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="K433" s="20" t="s">
+        <v>112</v>
+      </c>
+      <c r="L433" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="434" ht="35.05">
+      <c r="F434" s="16"/>
+      <c r="G434" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="I434" s="1">
+        <v>269</v>
+      </c>
+      <c r="J434" s="7" t="s">
+        <v>502</v>
+      </c>
+      <c r="K434" s="20" t="s">
+        <v>503</v>
+      </c>
+      <c r="L434" t="s">
+        <v>723</v>
+      </c>
+    </row>
+    <row r="435" ht="68.65">
+      <c r="F435" s="16"/>
+      <c r="G435" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="I435" s="1">
+        <v>270</v>
+      </c>
+      <c r="J435" s="21" t="s">
+        <v>504</v>
+      </c>
+      <c r="K435" s="20" t="s">
+        <v>505</v>
+      </c>
+      <c r="L435" t="s">
+        <v>724</v>
+      </c>
+    </row>
+    <row r="436" ht="85.05">
+      <c r="F436" s="16"/>
+      <c r="G436" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="I436" s="1">
+        <v>271</v>
+      </c>
+      <c r="J436" s="23" t="s">
+        <v>506</v>
+      </c>
+      <c r="K436" s="20" t="s">
+        <v>507</v>
+      </c>
+      <c r="L436" t="s">
+        <v>725</v>
+      </c>
+    </row>
+    <row r="437" ht="46.25">
+      <c r="F437" s="16"/>
+      <c r="G437" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="I437" s="1">
+        <v>272</v>
+      </c>
+      <c r="J437" s="7" t="s">
+        <v>508</v>
+      </c>
+      <c r="K437" s="20" t="s">
+        <v>509</v>
+      </c>
+      <c r="L437" t="s">
+        <v>726</v>
+      </c>
+    </row>
+    <row r="438" ht="13.8">
+      <c r="F438" s="16"/>
+      <c r="G438" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="I438" s="1">
+        <v>273</v>
+      </c>
+      <c r="J438" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="K438" s="20" t="s">
+        <v>112</v>
+      </c>
+      <c r="L438" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="439" ht="35.05">
+      <c r="F439" s="16"/>
+      <c r="G439" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="I439" s="1">
+        <v>274</v>
+      </c>
+      <c r="J439" s="21" t="s">
+        <v>510</v>
+      </c>
+      <c r="K439" s="20" t="s">
+        <v>511</v>
+      </c>
+      <c r="L439" t="s">
+        <v>727</v>
+      </c>
+    </row>
+    <row r="440" ht="13.8">
+      <c r="F440" s="16"/>
+      <c r="G440" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="I440" s="1">
+        <v>275</v>
+      </c>
+      <c r="J440" s="7" t="s">
+        <v>512</v>
+      </c>
+      <c r="K440" s="20" t="s">
+        <v>513</v>
+      </c>
+      <c r="L440" t="s">
+        <v>728</v>
+      </c>
+    </row>
+    <row r="441" ht="13.8">
+      <c r="F441" s="16"/>
+      <c r="G441" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="I441" s="1">
+        <v>276</v>
+      </c>
+      <c r="J441" s="7" t="s">
+        <v>512</v>
+      </c>
+      <c r="K441" s="20" t="s">
+        <v>513</v>
+      </c>
+      <c r="L441" t="s">
+        <v>728</v>
+      </c>
+    </row>
+    <row r="442" ht="13.8">
+      <c r="F442" s="16"/>
+      <c r="G442" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="I442" s="1">
+        <v>277</v>
+      </c>
+      <c r="J442" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="K442" s="20" t="s">
+        <v>112</v>
+      </c>
+      <c r="L442" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="443" ht="13.8">
+      <c r="F443" s="16"/>
+      <c r="G443" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="I443" s="1">
+        <v>278</v>
+      </c>
+      <c r="J443" s="7" t="s">
+        <v>514</v>
+      </c>
+      <c r="K443" s="20" t="s">
+        <v>515</v>
+      </c>
+      <c r="L443" t="s">
+        <v>729</v>
+      </c>
+    </row>
+    <row r="444" ht="64.15">
+      <c r="F444" s="16"/>
+      <c r="G444" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="I444" s="1">
+        <v>279</v>
+      </c>
+      <c r="J444" s="21" t="s">
+        <v>516</v>
+      </c>
+      <c r="K444" s="20" t="s">
+        <v>517</v>
+      </c>
+      <c r="L444" t="s">
+        <v>730</v>
+      </c>
+    </row>
+    <row r="445" ht="53.7">
+      <c r="F445" s="16"/>
+      <c r="G445" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="I445" s="1">
+        <v>280</v>
+      </c>
+      <c r="J445" s="24" t="s">
+        <v>518</v>
+      </c>
+      <c r="K445" s="20" t="s">
+        <v>519</v>
+      </c>
+      <c r="L445" t="s">
+        <v>731</v>
+      </c>
+    </row>
+    <row r="446" ht="76.85">
+      <c r="F446" s="16"/>
+      <c r="G446" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="I446" s="1">
+        <v>281</v>
+      </c>
+      <c r="J446" s="7" t="s">
+        <v>520</v>
+      </c>
+      <c r="K446" s="20" t="s">
+        <v>521</v>
+      </c>
+      <c r="L446" t="s">
+        <v>732</v>
+      </c>
+    </row>
+    <row r="447" ht="13.8">
+      <c r="F447" s="16"/>
+      <c r="J447" s="7"/>
+      <c r="K447" s="6"/>
+    </row>
+    <row r="448" ht="13.8">
+      <c r="F448" s="16"/>
+      <c r="J448" s="7"/>
+      <c r="K448" s="6"/>
+    </row>
+    <row r="449" ht="43.25">
+      <c r="E449" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="F449" s="16"/>
+      <c r="J449" s="6"/>
+      <c r="K449" s="6"/>
+    </row>
+    <row r="450" ht="12.8">
+      <c r="F450" s="16"/>
+      <c r="J450" s="6"/>
+    </row>
+    <row r="451" ht="12.8">
+      <c r="E451" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="F451" s="16"/>
+    </row>
   </sheetData>
-  <conditionalFormatting sqref="I4:I1048576">
+  <conditionalFormatting sqref="I4:I374 I384:I1048576">
     <cfRule type="duplicateValues" dxfId="0" priority="2"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I383 I375:I381">
+    <cfRule type="duplicateValues" dxfId="0" priority="3"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I382">
+    <cfRule type="duplicateValues" dxfId="0" priority="4"/>
   </conditionalFormatting>
   <printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0" gridLinesSet="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
